--- a/data/trans_orig/P44C-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P44C-Estudios-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{EE021652-642C-4090-8808-AD43A1360F1B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{49CDD8DB-8D57-425F-B876-8B78CF16DB12}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{70047BE7-5913-4B6A-BC3D-2FDB0C5CB389}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{5018D5AC-C77B-489E-A35F-4F2AA6F31CF6}"/>
   </bookViews>
   <sheets>
     <sheet name="2012" sheetId="2" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="672" uniqueCount="420">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="672" uniqueCount="427">
   <si>
     <t>Población según la persona que le recomendó realizarse la prueba de Cáncer de colon en 2012 (Tasa respuesta: 3,01%)</t>
   </si>
@@ -85,13 +85,13 @@
     <t>3,03%</t>
   </si>
   <si>
-    <t>10,55%</t>
+    <t>10,81%</t>
   </si>
   <si>
     <t>1,77%</t>
   </si>
   <si>
-    <t>5,68%</t>
+    <t>5,96%</t>
   </si>
   <si>
     <t>Me lo sugirió otro médico especialista del SAS</t>
@@ -100,1204 +100,1225 @@
     <t>32,75%</t>
   </si>
   <si>
+    <t>20,33%</t>
+  </si>
+  <si>
+    <t>49,77%</t>
+  </si>
+  <si>
+    <t>39,28%</t>
+  </si>
+  <si>
+    <t>28,05%</t>
+  </si>
+  <si>
+    <t>52,17%</t>
+  </si>
+  <si>
+    <t>36,56%</t>
+  </si>
+  <si>
+    <t>27,68%</t>
+  </si>
+  <si>
+    <t>46,42%</t>
+  </si>
+  <si>
+    <t>Me lo sugirió mi médico de cabecera</t>
+  </si>
+  <si>
+    <t>60,44%</t>
+  </si>
+  <si>
+    <t>44,83%</t>
+  </si>
+  <si>
+    <t>73,95%</t>
+  </si>
+  <si>
+    <t>47,25%</t>
+  </si>
+  <si>
+    <t>35,62%</t>
+  </si>
+  <si>
+    <t>59,83%</t>
+  </si>
+  <si>
+    <t>52,75%</t>
+  </si>
+  <si>
+    <t>42,47%</t>
+  </si>
+  <si>
+    <t>62,25%</t>
+  </si>
+  <si>
+    <t>Lo solicité yo mismo/a</t>
+  </si>
+  <si>
+    <t>6,81%</t>
+  </si>
+  <si>
+    <t>2,08%</t>
+  </si>
+  <si>
+    <t>18,34%</t>
+  </si>
+  <si>
+    <t>10,44%</t>
+  </si>
+  <si>
+    <t>4,36%</t>
+  </si>
+  <si>
+    <t>21,34%</t>
+  </si>
+  <si>
+    <t>8,92%</t>
+  </si>
+  <si>
+    <t>4,41%</t>
+  </si>
+  <si>
+    <t>15,33%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>Secundarios</t>
+  </si>
+  <si>
+    <t>6,8%</t>
+  </si>
+  <si>
+    <t>24,94%</t>
+  </si>
+  <si>
+    <t>6,28%</t>
+  </si>
+  <si>
+    <t>34,35%</t>
+  </si>
+  <si>
+    <t>6,6%</t>
+  </si>
+  <si>
+    <t>1,23%</t>
+  </si>
+  <si>
+    <t>19,08%</t>
+  </si>
+  <si>
+    <t>8,34%</t>
+  </si>
+  <si>
+    <t>34,64%</t>
+  </si>
+  <si>
+    <t>28,54%</t>
+  </si>
+  <si>
+    <t>13,57%</t>
+  </si>
+  <si>
+    <t>52,64%</t>
+  </si>
+  <si>
+    <t>22,67%</t>
+  </si>
+  <si>
+    <t>13,33%</t>
+  </si>
+  <si>
+    <t>34,39%</t>
+  </si>
+  <si>
+    <t>58,72%</t>
+  </si>
+  <si>
+    <t>41,52%</t>
+  </si>
+  <si>
+    <t>73,18%</t>
+  </si>
+  <si>
+    <t>31,39%</t>
+  </si>
+  <si>
+    <t>15,6%</t>
+  </si>
+  <si>
+    <t>51,24%</t>
+  </si>
+  <si>
+    <t>48,34%</t>
+  </si>
+  <si>
+    <t>35,83%</t>
+  </si>
+  <si>
+    <t>60,92%</t>
+  </si>
+  <si>
+    <t>15,4%</t>
+  </si>
+  <si>
+    <t>6,78%</t>
+  </si>
+  <si>
+    <t>30,02%</t>
+  </si>
+  <si>
+    <t>33,79%</t>
+  </si>
+  <si>
+    <t>16,69%</t>
+  </si>
+  <si>
+    <t>54,44%</t>
+  </si>
+  <si>
+    <t>22,38%</t>
+  </si>
+  <si>
+    <t>13,96%</t>
+  </si>
+  <si>
+    <t>33,94%</t>
+  </si>
+  <si>
+    <t>Universitarios</t>
+  </si>
+  <si>
+    <t>13,94%</t>
+  </si>
+  <si>
+    <t>49,79%</t>
+  </si>
+  <si>
+    <t>19,48%</t>
+  </si>
+  <si>
+    <t>52,56%</t>
+  </si>
+  <si>
+    <t>16,5%</t>
+  </si>
+  <si>
+    <t>4,09%</t>
+  </si>
+  <si>
+    <t>37,5%</t>
+  </si>
+  <si>
+    <t>21,74%</t>
+  </si>
+  <si>
+    <t>64,62%</t>
+  </si>
+  <si>
+    <t>16,45%</t>
+  </si>
+  <si>
+    <t>44,57%</t>
+  </si>
+  <si>
+    <t>19,3%</t>
+  </si>
+  <si>
+    <t>6,94%</t>
+  </si>
+  <si>
+    <t>42,99%</t>
+  </si>
+  <si>
+    <t>33,47%</t>
+  </si>
+  <si>
+    <t>11,48%</t>
+  </si>
+  <si>
+    <t>64,8%</t>
+  </si>
+  <si>
+    <t>29,51%</t>
+  </si>
+  <si>
+    <t>8,39%</t>
+  </si>
+  <si>
+    <t>64,0%</t>
+  </si>
+  <si>
+    <t>31,64%</t>
+  </si>
+  <si>
+    <t>14,8%</t>
+  </si>
+  <si>
+    <t>54,48%</t>
+  </si>
+  <si>
+    <t>30,85%</t>
+  </si>
+  <si>
+    <t>7,48%</t>
+  </si>
+  <si>
+    <t>62,78%</t>
+  </si>
+  <si>
+    <t>34,56%</t>
+  </si>
+  <si>
+    <t>8,65%</t>
+  </si>
+  <si>
+    <t>63,94%</t>
+  </si>
+  <si>
+    <t>32,56%</t>
+  </si>
+  <si>
+    <t>15,58%</t>
+  </si>
+  <si>
+    <t>53,99%</t>
+  </si>
+  <si>
+    <t>4,85%</t>
+  </si>
+  <si>
+    <t>0,9%</t>
+  </si>
+  <si>
+    <t>14,37%</t>
+  </si>
+  <si>
+    <t>5,82%</t>
+  </si>
+  <si>
+    <t>2,05%</t>
+  </si>
+  <si>
+    <t>12,53%</t>
+  </si>
+  <si>
+    <t>5,33%</t>
+  </si>
+  <si>
+    <t>2,44%</t>
+  </si>
+  <si>
+    <t>10,49%</t>
+  </si>
+  <si>
+    <t>25,22%</t>
+  </si>
+  <si>
+    <t>16,59%</t>
+  </si>
+  <si>
+    <t>34,73%</t>
+  </si>
+  <si>
+    <t>33,66%</t>
+  </si>
+  <si>
+    <t>25,34%</t>
+  </si>
+  <si>
+    <t>42,78%</t>
+  </si>
+  <si>
+    <t>29,39%</t>
+  </si>
+  <si>
+    <t>23,43%</t>
+  </si>
+  <si>
+    <t>36,61%</t>
+  </si>
+  <si>
+    <t>56,15%</t>
+  </si>
+  <si>
+    <t>45,98%</t>
+  </si>
+  <si>
+    <t>65,96%</t>
+  </si>
+  <si>
+    <t>40,79%</t>
+  </si>
+  <si>
+    <t>31,54%</t>
+  </si>
+  <si>
+    <t>50,86%</t>
+  </si>
+  <si>
+    <t>48,56%</t>
+  </si>
+  <si>
+    <t>41,43%</t>
+  </si>
+  <si>
+    <t>55,66%</t>
+  </si>
+  <si>
+    <t>13,78%</t>
+  </si>
+  <si>
+    <t>7,86%</t>
+  </si>
+  <si>
+    <t>21,76%</t>
+  </si>
+  <si>
+    <t>19,73%</t>
+  </si>
+  <si>
+    <t>12,66%</t>
+  </si>
+  <si>
+    <t>29,55%</t>
+  </si>
+  <si>
+    <t>16,72%</t>
+  </si>
+  <si>
+    <t>11,92%</t>
+  </si>
+  <si>
+    <t>22,42%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población según la persona que le recomendó realizarse la prueba de Cáncer de colon en 2015 (Tasa respuesta: 3,87%)</t>
+  </si>
+  <si>
+    <t>2,09%</t>
+  </si>
+  <si>
+    <t>11,38%</t>
+  </si>
+  <si>
+    <t>3,85%</t>
+  </si>
+  <si>
+    <t>13,06%</t>
+  </si>
+  <si>
+    <t>3,02%</t>
+  </si>
+  <si>
+    <t>0,97%</t>
+  </si>
+  <si>
+    <t>7,93%</t>
+  </si>
+  <si>
+    <t>26,67%</t>
+  </si>
+  <si>
+    <t>16,55%</t>
+  </si>
+  <si>
+    <t>38,97%</t>
+  </si>
+  <si>
+    <t>28,04%</t>
+  </si>
+  <si>
+    <t>16,75%</t>
+  </si>
+  <si>
+    <t>40,83%</t>
+  </si>
+  <si>
+    <t>27,4%</t>
+  </si>
+  <si>
+    <t>19,7%</t>
+  </si>
+  <si>
+    <t>35,78%</t>
+  </si>
+  <si>
+    <t>58,49%</t>
+  </si>
+  <si>
+    <t>45,62%</t>
+  </si>
+  <si>
+    <t>70,93%</t>
+  </si>
+  <si>
+    <t>62,84%</t>
+  </si>
+  <si>
+    <t>49,6%</t>
+  </si>
+  <si>
+    <t>74,18%</t>
+  </si>
+  <si>
+    <t>60,79%</t>
+  </si>
+  <si>
+    <t>51,93%</t>
+  </si>
+  <si>
+    <t>69,94%</t>
+  </si>
+  <si>
+    <t>12,76%</t>
+  </si>
+  <si>
+    <t>5,35%</t>
+  </si>
+  <si>
+    <t>22,98%</t>
+  </si>
+  <si>
+    <t>5,27%</t>
+  </si>
+  <si>
+    <t>1,64%</t>
+  </si>
+  <si>
+    <t>14,19%</t>
+  </si>
+  <si>
+    <t>8,8%</t>
+  </si>
+  <si>
+    <t>4,42%</t>
+  </si>
+  <si>
+    <t>14,84%</t>
+  </si>
+  <si>
+    <t>6,66%</t>
+  </si>
+  <si>
+    <t>2,54%</t>
+  </si>
+  <si>
+    <t>14,01%</t>
+  </si>
+  <si>
+    <t>5,78%</t>
+  </si>
+  <si>
+    <t>4,51%</t>
+  </si>
+  <si>
+    <t>1,7%</t>
+  </si>
+  <si>
+    <t>10,08%</t>
+  </si>
+  <si>
+    <t>18,04%</t>
+  </si>
+  <si>
+    <t>9,94%</t>
+  </si>
+  <si>
+    <t>28,61%</t>
+  </si>
+  <si>
+    <t>40,64%</t>
+  </si>
+  <si>
+    <t>25,53%</t>
+  </si>
+  <si>
+    <t>58,22%</t>
+  </si>
+  <si>
+    <t>25,33%</t>
+  </si>
+  <si>
+    <t>17,31%</t>
+  </si>
+  <si>
+    <t>34,26%</t>
+  </si>
+  <si>
+    <t>52,5%</t>
+  </si>
+  <si>
+    <t>41,6%</t>
+  </si>
+  <si>
+    <t>63,91%</t>
+  </si>
+  <si>
+    <t>41,02%</t>
+  </si>
+  <si>
+    <t>25,87%</t>
+  </si>
+  <si>
+    <t>58,46%</t>
+  </si>
+  <si>
+    <t>48,79%</t>
+  </si>
+  <si>
+    <t>39,07%</t>
+  </si>
+  <si>
+    <t>58,9%</t>
+  </si>
+  <si>
+    <t>22,8%</t>
+  </si>
+  <si>
+    <t>14,04%</t>
+  </si>
+  <si>
+    <t>34,03%</t>
+  </si>
+  <si>
+    <t>18,35%</t>
+  </si>
+  <si>
+    <t>7,01%</t>
+  </si>
+  <si>
+    <t>33,32%</t>
+  </si>
+  <si>
+    <t>21,36%</t>
+  </si>
+  <si>
+    <t>13,97%</t>
+  </si>
+  <si>
+    <t>30,27%</t>
+  </si>
+  <si>
+    <t>19,27%</t>
+  </si>
+  <si>
+    <t>7,2%</t>
+  </si>
+  <si>
+    <t>40,65%</t>
+  </si>
+  <si>
+    <t>20,74%</t>
+  </si>
+  <si>
+    <t>5,97%</t>
+  </si>
+  <si>
+    <t>45,71%</t>
+  </si>
+  <si>
+    <t>19,79%</t>
+  </si>
+  <si>
+    <t>8,84%</t>
+  </si>
+  <si>
+    <t>34,55%</t>
+  </si>
+  <si>
+    <t>2,86%</t>
+  </si>
+  <si>
+    <t>16,54%</t>
+  </si>
+  <si>
+    <t>11,27%</t>
+  </si>
+  <si>
+    <t>47,39%</t>
+  </si>
+  <si>
+    <t>5,87%</t>
+  </si>
+  <si>
+    <t>20,31%</t>
+  </si>
+  <si>
+    <t>55,48%</t>
+  </si>
+  <si>
+    <t>33,44%</t>
+  </si>
+  <si>
+    <t>73,88%</t>
+  </si>
+  <si>
+    <t>32,0%</t>
+  </si>
+  <si>
+    <t>11,76%</t>
+  </si>
+  <si>
+    <t>59,95%</t>
+  </si>
+  <si>
+    <t>47,07%</t>
+  </si>
+  <si>
+    <t>31,35%</t>
+  </si>
+  <si>
+    <t>63,88%</t>
+  </si>
+  <si>
+    <t>22,4%</t>
+  </si>
+  <si>
+    <t>8,04%</t>
+  </si>
+  <si>
+    <t>42,32%</t>
+  </si>
+  <si>
+    <t>35,99%</t>
+  </si>
+  <si>
+    <t>9,65%</t>
+  </si>
+  <si>
+    <t>63,86%</t>
+  </si>
+  <si>
+    <t>27,26%</t>
+  </si>
+  <si>
+    <t>14,14%</t>
+  </si>
+  <si>
+    <t>42,13%</t>
+  </si>
+  <si>
+    <t>7,38%</t>
+  </si>
+  <si>
+    <t>3,89%</t>
+  </si>
+  <si>
+    <t>13,19%</t>
+  </si>
+  <si>
+    <t>5,01%</t>
+  </si>
+  <si>
+    <t>1,96%</t>
+  </si>
+  <si>
+    <t>11,0%</t>
+  </si>
+  <si>
+    <t>6,4%</t>
+  </si>
+  <si>
+    <t>3,82%</t>
+  </si>
+  <si>
+    <t>10,01%</t>
+  </si>
+  <si>
+    <t>18,23%</t>
+  </si>
+  <si>
+    <t>12,72%</t>
+  </si>
+  <si>
+    <t>24,75%</t>
+  </si>
+  <si>
+    <t>29,7%</t>
+  </si>
+  <si>
+    <t>21,11%</t>
+  </si>
+  <si>
+    <t>40,19%</t>
+  </si>
+  <si>
+    <t>23,0%</t>
+  </si>
+  <si>
+    <t>18,24%</t>
+  </si>
+  <si>
+    <t>28,52%</t>
+  </si>
+  <si>
+    <t>55,08%</t>
+  </si>
+  <si>
+    <t>47,17%</t>
+  </si>
+  <si>
+    <t>63,3%</t>
+  </si>
+  <si>
+    <t>51,48%</t>
+  </si>
+  <si>
+    <t>41,58%</t>
+  </si>
+  <si>
+    <t>60,62%</t>
+  </si>
+  <si>
+    <t>53,58%</t>
+  </si>
+  <si>
+    <t>47,2%</t>
+  </si>
+  <si>
+    <t>59,5%</t>
+  </si>
+  <si>
+    <t>13,6%</t>
+  </si>
+  <si>
+    <t>26,22%</t>
+  </si>
+  <si>
+    <t>13,81%</t>
+  </si>
+  <si>
+    <t>8,01%</t>
+  </si>
+  <si>
+    <t>23,13%</t>
+  </si>
+  <si>
+    <t>17,02%</t>
+  </si>
+  <si>
+    <t>12,44%</t>
+  </si>
+  <si>
+    <t>21,81%</t>
+  </si>
+  <si>
+    <t>Población según la persona que le recomendó realizarse la prueba de Cáncer de colon en 2023 (Tasa respuesta: 17,76%)</t>
+  </si>
+  <si>
+    <t>1,82%</t>
+  </si>
+  <si>
+    <t>0,49%</t>
+  </si>
+  <si>
+    <t>1,46%</t>
+  </si>
+  <si>
+    <t>0,53%</t>
+  </si>
+  <si>
+    <t>3,49%</t>
+  </si>
+  <si>
+    <t>1,62%</t>
+  </si>
+  <si>
+    <t>0,79%</t>
+  </si>
+  <si>
+    <t>3,06%</t>
+  </si>
+  <si>
+    <t>25,23%</t>
+  </si>
+  <si>
+    <t>19,68%</t>
+  </si>
+  <si>
+    <t>31,75%</t>
+  </si>
+  <si>
+    <t>22,13%</t>
+  </si>
+  <si>
+    <t>17,48%</t>
+  </si>
+  <si>
+    <t>26,76%</t>
+  </si>
+  <si>
+    <t>23,49%</t>
+  </si>
+  <si>
+    <t>20,04%</t>
+  </si>
+  <si>
+    <t>27,65%</t>
+  </si>
+  <si>
+    <t>56,13%</t>
+  </si>
+  <si>
+    <t>48,87%</t>
+  </si>
+  <si>
+    <t>62,65%</t>
+  </si>
+  <si>
+    <t>63,9%</t>
+  </si>
+  <si>
+    <t>58,42%</t>
+  </si>
+  <si>
+    <t>69,7%</t>
+  </si>
+  <si>
+    <t>60,47%</t>
+  </si>
+  <si>
+    <t>56,42%</t>
+  </si>
+  <si>
+    <t>65,08%</t>
+  </si>
+  <si>
+    <t>16,82%</t>
+  </si>
+  <si>
+    <t>12,05%</t>
+  </si>
+  <si>
+    <t>22,99%</t>
+  </si>
+  <si>
+    <t>12,51%</t>
+  </si>
+  <si>
+    <t>8,86%</t>
+  </si>
+  <si>
+    <t>16,43%</t>
+  </si>
+  <si>
+    <t>14,41%</t>
+  </si>
+  <si>
+    <t>11,42%</t>
+  </si>
+  <si>
+    <t>17,86%</t>
+  </si>
+  <si>
+    <t>2,85%</t>
+  </si>
+  <si>
+    <t>1,16%</t>
+  </si>
+  <si>
+    <t>5,23%</t>
+  </si>
+  <si>
+    <t>2,68%</t>
+  </si>
+  <si>
+    <t>1,26%</t>
+  </si>
+  <si>
+    <t>4,67%</t>
+  </si>
+  <si>
+    <t>2,78%</t>
+  </si>
+  <si>
+    <t>1,59%</t>
+  </si>
+  <si>
+    <t>20,13%</t>
+  </si>
+  <si>
+    <t>10,92%</t>
+  </si>
+  <si>
+    <t>25,8%</t>
+  </si>
+  <si>
+    <t>27,37%</t>
+  </si>
+  <si>
+    <t>23,15%</t>
+  </si>
+  <si>
+    <t>31,87%</t>
+  </si>
+  <si>
+    <t>16,98%</t>
+  </si>
+  <si>
+    <t>27,36%</t>
+  </si>
+  <si>
+    <t>57,09%</t>
+  </si>
+  <si>
+    <t>46,89%</t>
+  </si>
+  <si>
+    <t>76,6%</t>
+  </si>
+  <si>
+    <t>47,45%</t>
+  </si>
+  <si>
+    <t>42,57%</t>
+  </si>
+  <si>
+    <t>52,36%</t>
+  </si>
+  <si>
+    <t>53,07%</t>
+  </si>
+  <si>
+    <t>47,01%</t>
+  </si>
+  <si>
+    <t>65,87%</t>
+  </si>
+  <si>
+    <t>19,93%</t>
+  </si>
+  <si>
+    <t>11,05%</t>
+  </si>
+  <si>
+    <t>25,59%</t>
+  </si>
+  <si>
+    <t>22,5%</t>
+  </si>
+  <si>
+    <t>18,57%</t>
+  </si>
+  <si>
+    <t>26,53%</t>
+  </si>
+  <si>
+    <t>21,0%</t>
+  </si>
+  <si>
+    <t>15,52%</t>
+  </si>
+  <si>
+    <t>24,9%</t>
+  </si>
+  <si>
+    <t>5,29%</t>
+  </si>
+  <si>
+    <t>2,39%</t>
+  </si>
+  <si>
+    <t>9,97%</t>
+  </si>
+  <si>
+    <t>9,28%</t>
+  </si>
+  <si>
+    <t>5,08%</t>
+  </si>
+  <si>
+    <t>15,26%</t>
+  </si>
+  <si>
+    <t>6,96%</t>
+  </si>
+  <si>
+    <t>4,7%</t>
+  </si>
+  <si>
+    <t>10,38%</t>
+  </si>
+  <si>
+    <t>27,06%</t>
+  </si>
+  <si>
+    <t>19,91%</t>
+  </si>
+  <si>
+    <t>34,84%</t>
+  </si>
+  <si>
+    <t>29,66%</t>
+  </si>
+  <si>
+    <t>38,15%</t>
+  </si>
+  <si>
+    <t>28,14%</t>
+  </si>
+  <si>
+    <t>22,94%</t>
+  </si>
+  <si>
+    <t>33,5%</t>
+  </si>
+  <si>
+    <t>41,63%</t>
+  </si>
+  <si>
+    <t>34,19%</t>
+  </si>
+  <si>
+    <t>50,12%</t>
+  </si>
+  <si>
+    <t>38,34%</t>
+  </si>
+  <si>
+    <t>46,51%</t>
+  </si>
+  <si>
+    <t>40,26%</t>
+  </si>
+  <si>
+    <t>34,72%</t>
+  </si>
+  <si>
+    <t>46,24%</t>
+  </si>
+  <si>
+    <t>26,02%</t>
+  </si>
+  <si>
     <t>18,93%</t>
   </si>
   <si>
-    <t>49,07%</t>
-  </si>
-  <si>
-    <t>39,28%</t>
-  </si>
-  <si>
-    <t>27,37%</t>
-  </si>
-  <si>
-    <t>51,0%</t>
-  </si>
-  <si>
-    <t>36,56%</t>
-  </si>
-  <si>
-    <t>27,4%</t>
-  </si>
-  <si>
-    <t>46,37%</t>
-  </si>
-  <si>
-    <t>Me lo sugirió mi médico de cabecera</t>
-  </si>
-  <si>
-    <t>60,44%</t>
-  </si>
-  <si>
-    <t>44,36%</t>
-  </si>
-  <si>
-    <t>76,65%</t>
-  </si>
-  <si>
-    <t>47,25%</t>
-  </si>
-  <si>
-    <t>35,43%</t>
-  </si>
-  <si>
-    <t>60,32%</t>
-  </si>
-  <si>
-    <t>52,75%</t>
-  </si>
-  <si>
-    <t>42,93%</t>
-  </si>
-  <si>
-    <t>62,32%</t>
-  </si>
-  <si>
-    <t>Lo solicité yo mismo/a</t>
-  </si>
-  <si>
-    <t>6,81%</t>
-  </si>
-  <si>
-    <t>1,4%</t>
-  </si>
-  <si>
-    <t>18,22%</t>
-  </si>
-  <si>
-    <t>10,44%</t>
-  </si>
-  <si>
-    <t>22,7%</t>
-  </si>
-  <si>
-    <t>8,92%</t>
-  </si>
-  <si>
-    <t>4,37%</t>
-  </si>
-  <si>
-    <t>15,4%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>Secundarios</t>
-  </si>
-  <si>
-    <t>6,8%</t>
-  </si>
-  <si>
-    <t>24,25%</t>
-  </si>
-  <si>
-    <t>6,28%</t>
-  </si>
-  <si>
-    <t>30,38%</t>
-  </si>
-  <si>
-    <t>6,6%</t>
-  </si>
-  <si>
-    <t>1,24%</t>
-  </si>
-  <si>
-    <t>18,07%</t>
-  </si>
-  <si>
-    <t>19,08%</t>
-  </si>
-  <si>
-    <t>8,83%</t>
-  </si>
-  <si>
-    <t>33,46%</t>
-  </si>
-  <si>
-    <t>28,54%</t>
-  </si>
-  <si>
-    <t>12,87%</t>
-  </si>
-  <si>
-    <t>50,5%</t>
-  </si>
-  <si>
-    <t>22,67%</t>
-  </si>
-  <si>
-    <t>13,32%</t>
-  </si>
-  <si>
-    <t>32,9%</t>
-  </si>
-  <si>
-    <t>58,72%</t>
-  </si>
-  <si>
-    <t>43,39%</t>
-  </si>
-  <si>
-    <t>72,53%</t>
-  </si>
-  <si>
-    <t>31,39%</t>
-  </si>
-  <si>
-    <t>16,28%</t>
-  </si>
-  <si>
-    <t>52,21%</t>
-  </si>
-  <si>
-    <t>48,34%</t>
-  </si>
-  <si>
-    <t>36,51%</t>
-  </si>
-  <si>
-    <t>61,63%</t>
-  </si>
-  <si>
-    <t>6,51%</t>
-  </si>
-  <si>
-    <t>28,41%</t>
-  </si>
-  <si>
-    <t>33,79%</t>
-  </si>
-  <si>
-    <t>17,55%</t>
-  </si>
-  <si>
-    <t>53,56%</t>
-  </si>
-  <si>
-    <t>22,38%</t>
-  </si>
-  <si>
-    <t>13,6%</t>
-  </si>
-  <si>
-    <t>32,66%</t>
-  </si>
-  <si>
-    <t>Universitarios</t>
-  </si>
-  <si>
-    <t>13,94%</t>
-  </si>
-  <si>
-    <t>50,14%</t>
-  </si>
-  <si>
-    <t>19,48%</t>
-  </si>
-  <si>
-    <t>51,17%</t>
-  </si>
-  <si>
-    <t>16,5%</t>
-  </si>
-  <si>
-    <t>3,89%</t>
-  </si>
-  <si>
-    <t>38,65%</t>
-  </si>
-  <si>
-    <t>21,74%</t>
-  </si>
-  <si>
-    <t>57,37%</t>
-  </si>
-  <si>
-    <t>16,45%</t>
-  </si>
-  <si>
-    <t>44,64%</t>
-  </si>
-  <si>
-    <t>19,3%</t>
-  </si>
-  <si>
-    <t>7,1%</t>
-  </si>
-  <si>
-    <t>43,1%</t>
-  </si>
-  <si>
-    <t>33,47%</t>
-  </si>
-  <si>
-    <t>12,39%</t>
-  </si>
-  <si>
-    <t>63,18%</t>
-  </si>
-  <si>
-    <t>29,51%</t>
-  </si>
-  <si>
-    <t>7,94%</t>
-  </si>
-  <si>
-    <t>64,39%</t>
-  </si>
-  <si>
-    <t>31,64%</t>
-  </si>
-  <si>
-    <t>14,69%</t>
-  </si>
-  <si>
-    <t>53,09%</t>
-  </si>
-  <si>
-    <t>30,85%</t>
-  </si>
-  <si>
-    <t>7,49%</t>
-  </si>
-  <si>
-    <t>62,45%</t>
-  </si>
-  <si>
-    <t>34,56%</t>
-  </si>
-  <si>
-    <t>8,59%</t>
-  </si>
-  <si>
-    <t>64,63%</t>
-  </si>
-  <si>
-    <t>32,56%</t>
-  </si>
-  <si>
-    <t>16,19%</t>
-  </si>
-  <si>
-    <t>55,89%</t>
-  </si>
-  <si>
-    <t>4,85%</t>
-  </si>
-  <si>
-    <t>0,86%</t>
-  </si>
-  <si>
-    <t>13,64%</t>
-  </si>
-  <si>
-    <t>5,82%</t>
-  </si>
-  <si>
-    <t>2,02%</t>
-  </si>
-  <si>
-    <t>13,81%</t>
-  </si>
-  <si>
-    <t>5,33%</t>
+    <t>33,72%</t>
+  </si>
+  <si>
+    <t>22,72%</t>
+  </si>
+  <si>
+    <t>16,65%</t>
+  </si>
+  <si>
+    <t>30,79%</t>
+  </si>
+  <si>
+    <t>24,64%</t>
+  </si>
+  <si>
+    <t>19,78%</t>
+  </si>
+  <si>
+    <t>30,69%</t>
+  </si>
+  <si>
+    <t>3,09%</t>
+  </si>
+  <si>
+    <t>1,89%</t>
+  </si>
+  <si>
+    <t>4,5%</t>
+  </si>
+  <si>
+    <t>3,36%</t>
+  </si>
+  <si>
+    <t>2,17%</t>
+  </si>
+  <si>
+    <t>4,83%</t>
+  </si>
+  <si>
+    <t>3,21%</t>
   </si>
   <si>
     <t>2,33%</t>
   </si>
   <si>
-    <t>10,24%</t>
-  </si>
-  <si>
-    <t>25,22%</t>
-  </si>
-  <si>
-    <t>17,16%</t>
-  </si>
-  <si>
-    <t>35,76%</t>
-  </si>
-  <si>
-    <t>33,66%</t>
-  </si>
-  <si>
-    <t>25,28%</t>
-  </si>
-  <si>
-    <t>44,22%</t>
-  </si>
-  <si>
-    <t>29,39%</t>
-  </si>
-  <si>
-    <t>22,92%</t>
-  </si>
-  <si>
-    <t>36,22%</t>
-  </si>
-  <si>
-    <t>56,15%</t>
-  </si>
-  <si>
-    <t>46,6%</t>
-  </si>
-  <si>
-    <t>66,52%</t>
-  </si>
-  <si>
-    <t>40,79%</t>
-  </si>
-  <si>
-    <t>31,71%</t>
-  </si>
-  <si>
-    <t>50,58%</t>
-  </si>
-  <si>
-    <t>48,56%</t>
-  </si>
-  <si>
-    <t>41,55%</t>
-  </si>
-  <si>
-    <t>55,99%</t>
-  </si>
-  <si>
-    <t>13,78%</t>
-  </si>
-  <si>
-    <t>8,21%</t>
-  </si>
-  <si>
-    <t>21,05%</t>
-  </si>
-  <si>
-    <t>19,73%</t>
-  </si>
-  <si>
-    <t>12,41%</t>
-  </si>
-  <si>
-    <t>28,49%</t>
-  </si>
-  <si>
-    <t>16,72%</t>
-  </si>
-  <si>
-    <t>11,69%</t>
-  </si>
-  <si>
-    <t>22,21%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población según la persona que le recomendó realizarse la prueba de Cáncer de colon en 2015 (Tasa respuesta: 3,87%)</t>
-  </si>
-  <si>
-    <t>2,09%</t>
-  </si>
-  <si>
-    <t>9,98%</t>
-  </si>
-  <si>
-    <t>3,85%</t>
-  </si>
-  <si>
-    <t>3,02%</t>
-  </si>
-  <si>
-    <t>0,96%</t>
-  </si>
-  <si>
-    <t>8,8%</t>
-  </si>
-  <si>
-    <t>26,67%</t>
-  </si>
-  <si>
-    <t>16,12%</t>
-  </si>
-  <si>
-    <t>39,64%</t>
-  </si>
-  <si>
-    <t>28,04%</t>
-  </si>
-  <si>
-    <t>17,2%</t>
-  </si>
-  <si>
-    <t>40,77%</t>
-  </si>
-  <si>
-    <t>20,14%</t>
-  </si>
-  <si>
-    <t>35,91%</t>
-  </si>
-  <si>
-    <t>58,49%</t>
-  </si>
-  <si>
-    <t>45,77%</t>
-  </si>
-  <si>
-    <t>71,16%</t>
-  </si>
-  <si>
-    <t>62,84%</t>
-  </si>
-  <si>
-    <t>49,79%</t>
-  </si>
-  <si>
-    <t>74,28%</t>
-  </si>
-  <si>
-    <t>60,79%</t>
-  </si>
-  <si>
-    <t>51,81%</t>
-  </si>
-  <si>
-    <t>69,3%</t>
-  </si>
-  <si>
-    <t>12,76%</t>
-  </si>
-  <si>
-    <t>5,65%</t>
-  </si>
-  <si>
-    <t>24,09%</t>
-  </si>
-  <si>
-    <t>5,27%</t>
-  </si>
-  <si>
-    <t>1,64%</t>
+    <t>4,21%</t>
+  </si>
+  <si>
+    <t>22,81%</t>
+  </si>
+  <si>
+    <t>17,37%</t>
+  </si>
+  <si>
+    <t>26,61%</t>
+  </si>
+  <si>
+    <t>25,82%</t>
+  </si>
+  <si>
+    <t>22,83%</t>
+  </si>
+  <si>
+    <t>28,81%</t>
+  </si>
+  <si>
+    <t>24,19%</t>
+  </si>
+  <si>
+    <t>20,23%</t>
+  </si>
+  <si>
+    <t>53,71%</t>
+  </si>
+  <si>
+    <t>48,09%</t>
+  </si>
+  <si>
+    <t>51,98%</t>
+  </si>
+  <si>
+    <t>48,61%</t>
+  </si>
+  <si>
+    <t>55,71%</t>
+  </si>
+  <si>
+    <t>52,91%</t>
+  </si>
+  <si>
+    <t>49,62%</t>
+  </si>
+  <si>
+    <t>60,2%</t>
+  </si>
+  <si>
+    <t>20,39%</t>
   </si>
   <si>
     <t>14,35%</t>
   </si>
   <si>
-    <t>4,31%</t>
-  </si>
-  <si>
-    <t>6,66%</t>
-  </si>
-  <si>
-    <t>2,49%</t>
-  </si>
-  <si>
-    <t>15,02%</t>
-  </si>
-  <si>
-    <t>5,78%</t>
-  </si>
-  <si>
-    <t>4,51%</t>
-  </si>
-  <si>
-    <t>1,73%</t>
-  </si>
-  <si>
-    <t>10,09%</t>
-  </si>
-  <si>
-    <t>18,04%</t>
-  </si>
-  <si>
-    <t>9,99%</t>
-  </si>
-  <si>
-    <t>27,91%</t>
-  </si>
-  <si>
-    <t>40,64%</t>
-  </si>
-  <si>
-    <t>24,86%</t>
-  </si>
-  <si>
-    <t>59,11%</t>
-  </si>
-  <si>
-    <t>25,33%</t>
-  </si>
-  <si>
-    <t>17,79%</t>
-  </si>
-  <si>
-    <t>34,96%</t>
-  </si>
-  <si>
-    <t>52,5%</t>
-  </si>
-  <si>
-    <t>41,77%</t>
-  </si>
-  <si>
-    <t>64,79%</t>
-  </si>
-  <si>
-    <t>41,02%</t>
-  </si>
-  <si>
-    <t>23,14%</t>
-  </si>
-  <si>
-    <t>58,42%</t>
-  </si>
-  <si>
-    <t>48,79%</t>
-  </si>
-  <si>
-    <t>39,63%</t>
-  </si>
-  <si>
-    <t>58,7%</t>
-  </si>
-  <si>
-    <t>22,8%</t>
-  </si>
-  <si>
-    <t>13,51%</t>
-  </si>
-  <si>
-    <t>33,52%</t>
-  </si>
-  <si>
-    <t>18,35%</t>
-  </si>
-  <si>
-    <t>8,23%</t>
-  </si>
-  <si>
-    <t>34,84%</t>
-  </si>
-  <si>
-    <t>21,36%</t>
-  </si>
-  <si>
-    <t>13,85%</t>
-  </si>
-  <si>
-    <t>30,46%</t>
-  </si>
-  <si>
-    <t>19,27%</t>
-  </si>
-  <si>
-    <t>7,14%</t>
-  </si>
-  <si>
-    <t>41,37%</t>
-  </si>
-  <si>
-    <t>20,74%</t>
-  </si>
-  <si>
-    <t>6,15%</t>
-  </si>
-  <si>
-    <t>50,02%</t>
-  </si>
-  <si>
-    <t>19,79%</t>
-  </si>
-  <si>
-    <t>9,57%</t>
-  </si>
-  <si>
-    <t>37,18%</t>
-  </si>
-  <si>
-    <t>2,86%</t>
-  </si>
-  <si>
-    <t>16,37%</t>
-  </si>
-  <si>
-    <t>11,27%</t>
-  </si>
-  <si>
-    <t>45,39%</t>
-  </si>
-  <si>
-    <t>5,87%</t>
-  </si>
-  <si>
-    <t>20,37%</t>
-  </si>
-  <si>
-    <t>55,48%</t>
-  </si>
-  <si>
-    <t>35,31%</t>
-  </si>
-  <si>
-    <t>73,64%</t>
-  </si>
-  <si>
-    <t>32,0%</t>
-  </si>
-  <si>
-    <t>11,66%</t>
-  </si>
-  <si>
-    <t>60,02%</t>
-  </si>
-  <si>
-    <t>47,07%</t>
-  </si>
-  <si>
-    <t>31,19%</t>
-  </si>
-  <si>
-    <t>63,86%</t>
-  </si>
-  <si>
-    <t>22,4%</t>
-  </si>
-  <si>
-    <t>8,69%</t>
-  </si>
-  <si>
-    <t>43,16%</t>
-  </si>
-  <si>
-    <t>35,99%</t>
-  </si>
-  <si>
-    <t>11,9%</t>
-  </si>
-  <si>
-    <t>65,52%</t>
-  </si>
-  <si>
-    <t>27,26%</t>
-  </si>
-  <si>
-    <t>13,71%</t>
-  </si>
-  <si>
-    <t>43,9%</t>
-  </si>
-  <si>
-    <t>7,38%</t>
-  </si>
-  <si>
-    <t>3,73%</t>
-  </si>
-  <si>
-    <t>12,27%</t>
-  </si>
-  <si>
-    <t>5,01%</t>
-  </si>
-  <si>
-    <t>1,95%</t>
-  </si>
-  <si>
-    <t>11,89%</t>
-  </si>
-  <si>
-    <t>6,4%</t>
-  </si>
-  <si>
-    <t>10,01%</t>
-  </si>
-  <si>
-    <t>18,23%</t>
-  </si>
-  <si>
-    <t>12,23%</t>
-  </si>
-  <si>
-    <t>24,64%</t>
-  </si>
-  <si>
-    <t>29,7%</t>
-  </si>
-  <si>
-    <t>20,1%</t>
-  </si>
-  <si>
-    <t>39,31%</t>
-  </si>
-  <si>
-    <t>23,0%</t>
-  </si>
-  <si>
-    <t>18,16%</t>
-  </si>
-  <si>
-    <t>28,64%</t>
-  </si>
-  <si>
-    <t>55,08%</t>
-  </si>
-  <si>
-    <t>46,85%</t>
-  </si>
-  <si>
-    <t>63,5%</t>
-  </si>
-  <si>
-    <t>51,48%</t>
-  </si>
-  <si>
-    <t>42,19%</t>
-  </si>
-  <si>
-    <t>61,03%</t>
-  </si>
-  <si>
-    <t>53,58%</t>
-  </si>
-  <si>
-    <t>47,2%</t>
-  </si>
-  <si>
-    <t>59,73%</t>
-  </si>
-  <si>
-    <t>13,06%</t>
-  </si>
-  <si>
-    <t>26,2%</t>
-  </si>
-  <si>
-    <t>7,51%</t>
-  </si>
-  <si>
-    <t>21,99%</t>
-  </si>
-  <si>
-    <t>17,02%</t>
-  </si>
-  <si>
-    <t>12,88%</t>
-  </si>
-  <si>
-    <t>21,94%</t>
-  </si>
-  <si>
-    <t>Población según la persona que le recomendó realizarse la prueba de Cáncer de colon en 2023 (Tasa respuesta: 17,76%)</t>
-  </si>
-  <si>
-    <t>1,82%</t>
-  </si>
-  <si>
-    <t>0,48%</t>
-  </si>
-  <si>
-    <t>4,08%</t>
-  </si>
-  <si>
-    <t>1,46%</t>
-  </si>
-  <si>
-    <t>0,45%</t>
-  </si>
-  <si>
-    <t>3,23%</t>
-  </si>
-  <si>
-    <t>1,62%</t>
-  </si>
-  <si>
-    <t>0,77%</t>
-  </si>
-  <si>
-    <t>3,05%</t>
-  </si>
-  <si>
-    <t>25,23%</t>
-  </si>
-  <si>
-    <t>19,44%</t>
-  </si>
-  <si>
-    <t>31,66%</t>
-  </si>
-  <si>
-    <t>22,13%</t>
-  </si>
-  <si>
-    <t>17,96%</t>
-  </si>
-  <si>
-    <t>26,82%</t>
-  </si>
-  <si>
-    <t>23,49%</t>
-  </si>
-  <si>
-    <t>20,07%</t>
-  </si>
-  <si>
-    <t>27,25%</t>
-  </si>
-  <si>
-    <t>56,13%</t>
-  </si>
-  <si>
-    <t>49,04%</t>
-  </si>
-  <si>
-    <t>63,53%</t>
-  </si>
-  <si>
-    <t>63,9%</t>
-  </si>
-  <si>
-    <t>68,88%</t>
-  </si>
-  <si>
-    <t>60,47%</t>
-  </si>
-  <si>
-    <t>56,42%</t>
-  </si>
-  <si>
-    <t>64,67%</t>
-  </si>
-  <si>
-    <t>16,82%</t>
-  </si>
-  <si>
-    <t>12,21%</t>
-  </si>
-  <si>
-    <t>23,1%</t>
-  </si>
-  <si>
-    <t>12,51%</t>
-  </si>
-  <si>
-    <t>9,05%</t>
-  </si>
-  <si>
-    <t>16,61%</t>
-  </si>
-  <si>
-    <t>14,41%</t>
-  </si>
-  <si>
-    <t>11,33%</t>
-  </si>
-  <si>
-    <t>17,78%</t>
-  </si>
-  <si>
-    <t>2,85%</t>
-  </si>
-  <si>
-    <t>1,32%</t>
-  </si>
-  <si>
-    <t>5,23%</t>
-  </si>
-  <si>
-    <t>2,68%</t>
-  </si>
-  <si>
-    <t>1,27%</t>
-  </si>
-  <si>
-    <t>4,75%</t>
-  </si>
-  <si>
-    <t>2,78%</t>
-  </si>
-  <si>
-    <t>1,63%</t>
-  </si>
-  <si>
-    <t>4,29%</t>
-  </si>
-  <si>
-    <t>20,13%</t>
-  </si>
-  <si>
-    <t>12,53%</t>
-  </si>
-  <si>
-    <t>26,14%</t>
-  </si>
-  <si>
-    <t>22,94%</t>
-  </si>
-  <si>
-    <t>32,07%</t>
-  </si>
-  <si>
-    <t>23,15%</t>
-  </si>
-  <si>
-    <t>16,62%</t>
-  </si>
-  <si>
-    <t>27,2%</t>
-  </si>
-  <si>
-    <t>57,09%</t>
-  </si>
-  <si>
-    <t>74,38%</t>
-  </si>
-  <si>
-    <t>47,45%</t>
-  </si>
-  <si>
-    <t>41,23%</t>
-  </si>
-  <si>
-    <t>51,99%</t>
-  </si>
-  <si>
-    <t>53,07%</t>
-  </si>
-  <si>
-    <t>46,91%</t>
-  </si>
-  <si>
-    <t>67,36%</t>
-  </si>
-  <si>
-    <t>19,93%</t>
-  </si>
-  <si>
-    <t>12,28%</t>
-  </si>
-  <si>
-    <t>25,88%</t>
-  </si>
-  <si>
-    <t>22,5%</t>
-  </si>
-  <si>
-    <t>18,68%</t>
-  </si>
-  <si>
-    <t>26,85%</t>
-  </si>
-  <si>
-    <t>21,0%</t>
-  </si>
-  <si>
-    <t>14,9%</t>
-  </si>
-  <si>
-    <t>24,7%</t>
-  </si>
-  <si>
-    <t>5,29%</t>
-  </si>
-  <si>
-    <t>2,26%</t>
-  </si>
-  <si>
-    <t>9,83%</t>
-  </si>
-  <si>
-    <t>9,28%</t>
-  </si>
-  <si>
-    <t>5,4%</t>
-  </si>
-  <si>
-    <t>15,0%</t>
-  </si>
-  <si>
-    <t>6,96%</t>
-  </si>
-  <si>
-    <t>4,13%</t>
-  </si>
-  <si>
-    <t>10,16%</t>
-  </si>
-  <si>
-    <t>27,06%</t>
-  </si>
-  <si>
-    <t>19,84%</t>
-  </si>
-  <si>
-    <t>35,13%</t>
-  </si>
-  <si>
-    <t>29,66%</t>
-  </si>
-  <si>
-    <t>23,02%</t>
-  </si>
-  <si>
-    <t>37,53%</t>
-  </si>
-  <si>
-    <t>28,14%</t>
-  </si>
-  <si>
-    <t>23,54%</t>
-  </si>
-  <si>
-    <t>34,32%</t>
-  </si>
-  <si>
-    <t>41,63%</t>
-  </si>
-  <si>
-    <t>49,55%</t>
-  </si>
-  <si>
-    <t>38,34%</t>
-  </si>
-  <si>
-    <t>30,53%</t>
-  </si>
-  <si>
-    <t>46,97%</t>
-  </si>
-  <si>
-    <t>40,26%</t>
-  </si>
-  <si>
-    <t>33,83%</t>
-  </si>
-  <si>
-    <t>45,93%</t>
-  </si>
-  <si>
-    <t>26,02%</t>
-  </si>
-  <si>
-    <t>19,12%</t>
-  </si>
-  <si>
-    <t>22,72%</t>
-  </si>
-  <si>
-    <t>16,17%</t>
-  </si>
-  <si>
-    <t>30,09%</t>
-  </si>
-  <si>
-    <t>19,62%</t>
-  </si>
-  <si>
-    <t>31,24%</t>
-  </si>
-  <si>
-    <t>3,09%</t>
-  </si>
-  <si>
-    <t>1,78%</t>
-  </si>
-  <si>
-    <t>4,71%</t>
-  </si>
-  <si>
-    <t>3,36%</t>
-  </si>
-  <si>
-    <t>2,29%</t>
-  </si>
-  <si>
-    <t>4,79%</t>
-  </si>
-  <si>
-    <t>3,21%</t>
-  </si>
-  <si>
-    <t>2,34%</t>
-  </si>
-  <si>
-    <t>4,22%</t>
-  </si>
-  <si>
-    <t>22,81%</t>
-  </si>
-  <si>
-    <t>17,14%</t>
-  </si>
-  <si>
-    <t>25,82%</t>
-  </si>
-  <si>
-    <t>22,87%</t>
-  </si>
-  <si>
-    <t>28,97%</t>
-  </si>
-  <si>
-    <t>24,19%</t>
-  </si>
-  <si>
-    <t>20,53%</t>
-  </si>
-  <si>
-    <t>26,68%</t>
-  </si>
-  <si>
-    <t>53,71%</t>
-  </si>
-  <si>
-    <t>47,93%</t>
-  </si>
-  <si>
-    <t>66,38%</t>
-  </si>
-  <si>
-    <t>51,98%</t>
-  </si>
-  <si>
-    <t>48,58%</t>
-  </si>
-  <si>
-    <t>55,2%</t>
-  </si>
-  <si>
-    <t>52,91%</t>
-  </si>
-  <si>
-    <t>49,62%</t>
-  </si>
-  <si>
-    <t>60,43%</t>
-  </si>
-  <si>
-    <t>20,39%</t>
-  </si>
-  <si>
-    <t>15,13%</t>
-  </si>
-  <si>
-    <t>23,97%</t>
+    <t>23,84%</t>
   </si>
   <si>
     <t>18,84%</t>
   </si>
   <si>
-    <t>21,6%</t>
-  </si>
-  <si>
-    <t>19,68%</t>
-  </si>
-  <si>
-    <t>16,57%</t>
-  </si>
-  <si>
-    <t>22,02%</t>
+    <t>15,98%</t>
+  </si>
+  <si>
+    <t>21,59%</t>
+  </si>
+  <si>
+    <t>16,67%</t>
+  </si>
+  <si>
+    <t>22,01%</t>
   </si>
 </sst>
 </file>
@@ -1709,7 +1730,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8471E698-6E6B-41EC-A4E8-06E47729C43C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DBF09E62-6331-46C7-A61A-7AC08989530A}">
   <dimension ref="A1:Q24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2004,10 +2025,10 @@
         <v>42</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>13</v>
+        <v>43</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="M7" s="7">
         <v>9</v>
@@ -2016,13 +2037,13 @@
         <v>10110</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -2037,13 +2058,13 @@
         <v>47270</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="H8" s="7">
         <v>62</v>
@@ -2052,13 +2073,13 @@
         <v>66021</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="M8" s="7">
         <v>104</v>
@@ -2067,18 +2088,18 @@
         <v>113291</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B9" s="5" t="s">
         <v>10</v>
@@ -2090,13 +2111,13 @@
         <v>3384</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F9" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="H9" s="7">
         <v>1</v>
@@ -2105,13 +2126,13 @@
         <v>1912</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K9" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="M9" s="7">
         <v>3</v>
@@ -2120,13 +2141,13 @@
         <v>5296</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -2243,13 +2264,13 @@
         <v>7660</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>46</v>
+        <v>74</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="H12" s="7">
         <v>9</v>
@@ -2258,13 +2279,13 @@
         <v>10286</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="M12" s="7">
         <v>16</v>
@@ -2273,13 +2294,13 @@
         <v>17946</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -2294,13 +2315,13 @@
         <v>49747</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="H13" s="7">
         <v>26</v>
@@ -2309,13 +2330,13 @@
         <v>30442</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="M13" s="7">
         <v>68</v>
@@ -2324,18 +2345,18 @@
         <v>80188</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B14" s="5" t="s">
         <v>10</v>
@@ -2347,13 +2368,13 @@
         <v>2032</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="F14" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="H14" s="7">
         <v>2</v>
@@ -2362,13 +2383,13 @@
         <v>2432</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="K14" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="M14" s="7">
         <v>3</v>
@@ -2377,13 +2398,13 @@
         <v>4464</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2398,13 +2419,13 @@
         <v>3168</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="F15" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="H15" s="7">
         <v>2</v>
@@ -2413,13 +2434,13 @@
         <v>2055</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="K15" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="M15" s="7">
         <v>4</v>
@@ -2428,13 +2449,13 @@
         <v>5223</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -2449,13 +2470,13 @@
         <v>4876</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="H16" s="7">
         <v>3</v>
@@ -2464,13 +2485,13 @@
         <v>3686</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="M16" s="7">
         <v>8</v>
@@ -2479,13 +2500,13 @@
         <v>8562</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2500,13 +2521,13 @@
         <v>4495</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="H17" s="7">
         <v>4</v>
@@ -2515,13 +2536,13 @@
         <v>4316</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="M17" s="7">
         <v>8</v>
@@ -2530,13 +2551,13 @@
         <v>8811</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2551,13 +2572,13 @@
         <v>14571</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="H18" s="7">
         <v>11</v>
@@ -2566,13 +2587,13 @@
         <v>12489</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="M18" s="7">
         <v>23</v>
@@ -2581,13 +2602,13 @@
         <v>27060</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -2604,13 +2625,13 @@
         <v>5416</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="H19" s="7">
         <v>5</v>
@@ -2619,13 +2640,13 @@
         <v>6346</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="M19" s="7">
         <v>8</v>
@@ -2634,13 +2655,13 @@
         <v>11761</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -2655,13 +2676,13 @@
         <v>28142</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="H20" s="7">
         <v>34</v>
@@ -2670,13 +2691,13 @@
         <v>36677</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="M20" s="7">
         <v>58</v>
@@ -2685,13 +2706,13 @@
         <v>64819</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2706,13 +2727,13 @@
         <v>62656</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="H21" s="7">
         <v>41</v>
@@ -2721,13 +2742,13 @@
         <v>44437</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="M21" s="7">
         <v>96</v>
@@ -2736,13 +2757,13 @@
         <v>107092</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -2757,13 +2778,13 @@
         <v>15373</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="H22" s="7">
         <v>19</v>
@@ -2772,13 +2793,13 @@
         <v>21494</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="M22" s="7">
         <v>33</v>
@@ -2787,13 +2808,13 @@
         <v>36867</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2808,13 +2829,13 @@
         <v>111587</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="H23" s="7">
         <v>99</v>
@@ -2823,13 +2844,13 @@
         <v>108953</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="M23" s="7">
         <v>195</v>
@@ -2838,18 +2859,18 @@
         <v>220539</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
     </row>
   </sheetData>
@@ -2868,7 +2889,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E139A2CD-D83D-4778-9D56-954666F2ED9D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{463441C6-B557-48BA-B42A-A084DAF96AA9}">
   <dimension ref="A1:Q24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2885,7 +2906,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2992,13 +3013,13 @@
         <v>1138</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="F4" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="H4" s="7">
         <v>2</v>
@@ -3007,13 +3028,13 @@
         <v>2359</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="K4" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>120</v>
+        <v>157</v>
       </c>
       <c r="M4" s="7">
         <v>3</v>
@@ -3022,13 +3043,13 @@
         <v>3497</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3043,13 +3064,13 @@
         <v>14533</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="H5" s="7">
         <v>15</v>
@@ -3058,13 +3079,13 @@
         <v>17179</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="M5" s="7">
         <v>31</v>
@@ -3073,13 +3094,13 @@
         <v>31712</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>26</v>
+        <v>167</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3094,13 +3115,13 @@
         <v>31875</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="H6" s="7">
         <v>33</v>
@@ -3109,13 +3130,13 @@
         <v>38492</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="M6" s="7">
         <v>67</v>
@@ -3124,13 +3145,13 @@
         <v>70367</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -3145,13 +3166,13 @@
         <v>6953</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="H7" s="7">
         <v>3</v>
@@ -3160,13 +3181,13 @@
         <v>3227</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="M7" s="7">
         <v>10</v>
@@ -3175,13 +3196,13 @@
         <v>10181</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>158</v>
+        <v>185</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>182</v>
+        <v>186</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>181</v>
+        <v>187</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3196,13 +3217,13 @@
         <v>54499</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="H8" s="7">
         <v>53</v>
@@ -3211,13 +3232,13 @@
         <v>61258</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="M8" s="7">
         <v>111</v>
@@ -3226,18 +3247,18 @@
         <v>115757</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B9" s="5" t="s">
         <v>10</v>
@@ -3249,13 +3270,13 @@
         <v>5095</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>183</v>
+        <v>188</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>184</v>
+        <v>189</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>185</v>
+        <v>190</v>
       </c>
       <c r="H9" s="7">
         <v>0</v>
@@ -3270,7 +3291,7 @@
         <v>12</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>186</v>
+        <v>191</v>
       </c>
       <c r="M9" s="7">
         <v>5</v>
@@ -3279,13 +3300,13 @@
         <v>5095</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>187</v>
+        <v>192</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>188</v>
+        <v>193</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>189</v>
+        <v>194</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -3300,13 +3321,13 @@
         <v>13805</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>190</v>
+        <v>195</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>191</v>
+        <v>196</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>192</v>
+        <v>197</v>
       </c>
       <c r="H10" s="7">
         <v>13</v>
@@ -3315,13 +3336,13 @@
         <v>14809</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>193</v>
+        <v>198</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>194</v>
+        <v>199</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>195</v>
+        <v>200</v>
       </c>
       <c r="M10" s="7">
         <v>26</v>
@@ -3330,13 +3351,13 @@
         <v>28614</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>196</v>
+        <v>201</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>197</v>
+        <v>202</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>198</v>
+        <v>203</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3351,13 +3372,13 @@
         <v>40165</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>199</v>
+        <v>204</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>200</v>
+        <v>205</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>201</v>
+        <v>206</v>
       </c>
       <c r="H11" s="7">
         <v>13</v>
@@ -3366,13 +3387,13 @@
         <v>14947</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>202</v>
+        <v>207</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>203</v>
+        <v>208</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>204</v>
+        <v>209</v>
       </c>
       <c r="M11" s="7">
         <v>50</v>
@@ -3381,13 +3402,13 @@
         <v>55112</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>205</v>
+        <v>210</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>206</v>
+        <v>211</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>207</v>
+        <v>212</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3402,13 +3423,13 @@
         <v>17439</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>208</v>
+        <v>213</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>209</v>
+        <v>214</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>210</v>
+        <v>215</v>
       </c>
       <c r="H12" s="7">
         <v>6</v>
@@ -3417,13 +3438,13 @@
         <v>6686</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>211</v>
+        <v>216</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>212</v>
+        <v>217</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>213</v>
+        <v>218</v>
       </c>
       <c r="M12" s="7">
         <v>22</v>
@@ -3432,13 +3453,13 @@
         <v>24125</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>214</v>
+        <v>219</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>215</v>
+        <v>220</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>216</v>
+        <v>221</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -3453,13 +3474,13 @@
         <v>76504</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="H13" s="7">
         <v>32</v>
@@ -3468,13 +3489,13 @@
         <v>36443</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="M13" s="7">
         <v>103</v>
@@ -3483,18 +3504,18 @@
         <v>112946</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B14" s="5" t="s">
         <v>10</v>
@@ -3506,13 +3527,13 @@
         <v>5576</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>217</v>
+        <v>222</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>218</v>
+        <v>223</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>219</v>
+        <v>224</v>
       </c>
       <c r="H14" s="7">
         <v>3</v>
@@ -3521,13 +3542,13 @@
         <v>3348</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>220</v>
+        <v>225</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>221</v>
+        <v>226</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>222</v>
+        <v>227</v>
       </c>
       <c r="M14" s="7">
         <v>8</v>
@@ -3536,13 +3557,13 @@
         <v>8924</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>223</v>
+        <v>228</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>224</v>
+        <v>229</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>225</v>
+        <v>230</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3557,13 +3578,13 @@
         <v>827</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>226</v>
+        <v>231</v>
       </c>
       <c r="F15" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>227</v>
+        <v>232</v>
       </c>
       <c r="H15" s="7">
         <v>1</v>
@@ -3572,13 +3593,13 @@
         <v>1819</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>228</v>
+        <v>233</v>
       </c>
       <c r="K15" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>229</v>
+        <v>234</v>
       </c>
       <c r="M15" s="7">
         <v>2</v>
@@ -3587,13 +3608,13 @@
         <v>2647</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>230</v>
+        <v>235</v>
       </c>
       <c r="P15" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>231</v>
+        <v>236</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -3608,13 +3629,13 @@
         <v>16057</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>232</v>
+        <v>237</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>233</v>
+        <v>238</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>234</v>
+        <v>239</v>
       </c>
       <c r="H16" s="7">
         <v>5</v>
@@ -3623,13 +3644,13 @@
         <v>5166</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>235</v>
+        <v>240</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>236</v>
+        <v>241</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>237</v>
+        <v>242</v>
       </c>
       <c r="M16" s="7">
         <v>18</v>
@@ -3638,13 +3659,13 @@
         <v>21224</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>238</v>
+        <v>243</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>239</v>
+        <v>244</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>240</v>
+        <v>245</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3659,13 +3680,13 @@
         <v>6482</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>241</v>
+        <v>246</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>242</v>
+        <v>247</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>243</v>
+        <v>248</v>
       </c>
       <c r="H17" s="7">
         <v>4</v>
@@ -3674,13 +3695,13 @@
         <v>5810</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>244</v>
+        <v>249</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>245</v>
+        <v>250</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>246</v>
+        <v>251</v>
       </c>
       <c r="M17" s="7">
         <v>10</v>
@@ -3689,13 +3710,13 @@
         <v>12292</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>247</v>
+        <v>252</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>248</v>
+        <v>253</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>249</v>
+        <v>254</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3710,13 +3731,13 @@
         <v>28943</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="H18" s="7">
         <v>13</v>
@@ -3725,13 +3746,13 @@
         <v>16143</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="M18" s="7">
         <v>38</v>
@@ -3740,13 +3761,13 @@
         <v>45087</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -3763,13 +3784,13 @@
         <v>11809</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>250</v>
+        <v>255</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>251</v>
+        <v>256</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>252</v>
+        <v>257</v>
       </c>
       <c r="H19" s="7">
         <v>5</v>
@@ -3778,13 +3799,13 @@
         <v>5707</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>253</v>
+        <v>258</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>254</v>
+        <v>259</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>255</v>
+        <v>260</v>
       </c>
       <c r="M19" s="7">
         <v>16</v>
@@ -3793,13 +3814,13 @@
         <v>17516</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>256</v>
+        <v>261</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>251</v>
+        <v>262</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>257</v>
+        <v>263</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -3814,13 +3835,13 @@
         <v>29165</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>258</v>
+        <v>264</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>259</v>
+        <v>265</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>260</v>
+        <v>266</v>
       </c>
       <c r="H20" s="7">
         <v>29</v>
@@ -3829,13 +3850,13 @@
         <v>33808</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>261</v>
+        <v>267</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>262</v>
+        <v>268</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>263</v>
+        <v>269</v>
       </c>
       <c r="M20" s="7">
         <v>59</v>
@@ -3844,13 +3865,13 @@
         <v>62974</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>264</v>
+        <v>270</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>265</v>
+        <v>271</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>266</v>
+        <v>272</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3865,13 +3886,13 @@
         <v>88097</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>267</v>
+        <v>273</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>268</v>
+        <v>274</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>269</v>
+        <v>275</v>
       </c>
       <c r="H21" s="7">
         <v>51</v>
@@ -3880,13 +3901,13 @@
         <v>58606</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>270</v>
+        <v>276</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>271</v>
+        <v>277</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>272</v>
+        <v>278</v>
       </c>
       <c r="M21" s="7">
         <v>135</v>
@@ -3895,13 +3916,13 @@
         <v>146703</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>273</v>
+        <v>279</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>274</v>
+        <v>280</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>275</v>
+        <v>281</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -3916,13 +3937,13 @@
         <v>30875</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>276</v>
+        <v>282</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>277</v>
+        <v>283</v>
       </c>
       <c r="H22" s="7">
         <v>13</v>
@@ -3931,13 +3952,13 @@
         <v>15723</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>120</v>
+        <v>284</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>278</v>
+        <v>285</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>279</v>
+        <v>286</v>
       </c>
       <c r="M22" s="7">
         <v>42</v>
@@ -3946,13 +3967,13 @@
         <v>46598</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>280</v>
+        <v>287</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>281</v>
+        <v>288</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>282</v>
+        <v>289</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -3967,13 +3988,13 @@
         <v>159946</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="H23" s="7">
         <v>98</v>
@@ -3982,13 +4003,13 @@
         <v>113844</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="M23" s="7">
         <v>252</v>
@@ -3997,18 +4018,18 @@
         <v>273791</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
     </row>
   </sheetData>
@@ -4027,7 +4048,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8BBDC27E-6E9B-4193-8BEA-234DEBD0C98A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0A63679B-8254-491C-B1A3-E38FA4339F1D}">
   <dimension ref="A1:Q24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4044,7 +4065,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>283</v>
+        <v>290</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4151,13 +4172,13 @@
         <v>2698</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>284</v>
+        <v>291</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>285</v>
+        <v>292</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>286</v>
+        <v>192</v>
       </c>
       <c r="H4" s="7">
         <v>5</v>
@@ -4166,13 +4187,13 @@
         <v>2749</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>287</v>
+        <v>293</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>288</v>
+        <v>294</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>289</v>
+        <v>295</v>
       </c>
       <c r="M4" s="7">
         <v>9</v>
@@ -4181,13 +4202,13 @@
         <v>5447</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>290</v>
+        <v>296</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>291</v>
+        <v>297</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>292</v>
+        <v>298</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4202,13 +4223,13 @@
         <v>37329</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>293</v>
+        <v>299</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>294</v>
+        <v>300</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>295</v>
+        <v>301</v>
       </c>
       <c r="H5" s="7">
         <v>78</v>
@@ -4217,13 +4238,13 @@
         <v>41543</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>296</v>
+        <v>302</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>297</v>
+        <v>303</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>298</v>
+        <v>304</v>
       </c>
       <c r="M5" s="7">
         <v>127</v>
@@ -4232,13 +4253,13 @@
         <v>78872</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>299</v>
+        <v>305</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>300</v>
+        <v>306</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>301</v>
+        <v>307</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4253,13 +4274,13 @@
         <v>83056</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>302</v>
+        <v>308</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>303</v>
+        <v>309</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>304</v>
+        <v>310</v>
       </c>
       <c r="H6" s="7">
         <v>198</v>
@@ -4268,13 +4289,13 @@
         <v>119968</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>305</v>
+        <v>311</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>204</v>
+        <v>312</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>306</v>
+        <v>313</v>
       </c>
       <c r="M6" s="7">
         <v>313</v>
@@ -4283,13 +4304,13 @@
         <v>203024</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>307</v>
+        <v>314</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>308</v>
+        <v>315</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>309</v>
+        <v>316</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -4304,13 +4325,13 @@
         <v>24892</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>310</v>
+        <v>317</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>311</v>
+        <v>318</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>312</v>
+        <v>319</v>
       </c>
       <c r="H7" s="7">
         <v>39</v>
@@ -4319,13 +4340,13 @@
         <v>23482</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>313</v>
+        <v>320</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>314</v>
+        <v>321</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>315</v>
+        <v>322</v>
       </c>
       <c r="M7" s="7">
         <v>72</v>
@@ -4334,13 +4355,13 @@
         <v>48374</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>316</v>
+        <v>323</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>317</v>
+        <v>324</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>318</v>
+        <v>325</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4355,13 +4376,13 @@
         <v>147976</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="H8" s="7">
         <v>320</v>
@@ -4370,13 +4391,13 @@
         <v>187742</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="M8" s="7">
         <v>521</v>
@@ -4385,18 +4406,18 @@
         <v>335717</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B9" s="5" t="s">
         <v>10</v>
@@ -4408,13 +4429,13 @@
         <v>9282</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>319</v>
+        <v>326</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>320</v>
+        <v>327</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>321</v>
+        <v>328</v>
       </c>
       <c r="H9" s="7">
         <v>10</v>
@@ -4423,13 +4444,13 @@
         <v>6232</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>322</v>
+        <v>329</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>323</v>
+        <v>330</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>324</v>
+        <v>331</v>
       </c>
       <c r="M9" s="7">
         <v>21</v>
@@ -4438,13 +4459,13 @@
         <v>15514</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>325</v>
+        <v>332</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>326</v>
+        <v>333</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>327</v>
+        <v>46</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -4459,28 +4480,28 @@
         <v>65545</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>328</v>
+        <v>334</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>329</v>
+        <v>335</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>330</v>
+        <v>336</v>
       </c>
       <c r="H10" s="7">
         <v>112</v>
       </c>
       <c r="I10" s="7">
-        <v>63745</v>
+        <v>63746</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>23</v>
+        <v>337</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>331</v>
+        <v>338</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>332</v>
+        <v>339</v>
       </c>
       <c r="M10" s="7">
         <v>187</v>
@@ -4489,13 +4510,13 @@
         <v>129290</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>333</v>
+        <v>338</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>334</v>
+        <v>340</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>335</v>
+        <v>341</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4510,13 +4531,13 @@
         <v>185925</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>336</v>
+        <v>342</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>32</v>
+        <v>343</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>337</v>
+        <v>344</v>
       </c>
       <c r="H11" s="7">
         <v>189</v>
@@ -4525,13 +4546,13 @@
         <v>110518</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>338</v>
+        <v>345</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>339</v>
+        <v>346</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>340</v>
+        <v>347</v>
       </c>
       <c r="M11" s="7">
         <v>357</v>
@@ -4540,13 +4561,13 @@
         <v>296443</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>341</v>
+        <v>348</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>342</v>
+        <v>349</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>343</v>
+        <v>350</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4561,13 +4582,13 @@
         <v>64895</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>344</v>
+        <v>351</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>345</v>
+        <v>352</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>346</v>
+        <v>353</v>
       </c>
       <c r="H12" s="7">
         <v>86</v>
@@ -4576,13 +4597,13 @@
         <v>52406</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>347</v>
+        <v>354</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>348</v>
+        <v>355</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>349</v>
+        <v>356</v>
       </c>
       <c r="M12" s="7">
         <v>165</v>
@@ -4591,13 +4612,13 @@
         <v>117302</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>350</v>
+        <v>357</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>351</v>
+        <v>358</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>352</v>
+        <v>359</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -4612,28 +4633,28 @@
         <v>325647</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="H13" s="7">
         <v>397</v>
       </c>
       <c r="I13" s="7">
-        <v>232901</v>
+        <v>232902</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="M13" s="7">
         <v>730</v>
@@ -4642,18 +4663,18 @@
         <v>558549</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B14" s="5" t="s">
         <v>10</v>
@@ -4665,13 +4686,13 @@
         <v>6398</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>353</v>
+        <v>360</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>354</v>
+        <v>361</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>355</v>
+        <v>362</v>
       </c>
       <c r="H14" s="7">
         <v>14</v>
@@ -4680,13 +4701,13 @@
         <v>8055</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>356</v>
+        <v>363</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>357</v>
+        <v>364</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>358</v>
+        <v>365</v>
       </c>
       <c r="M14" s="7">
         <v>23</v>
@@ -4695,13 +4716,13 @@
         <v>14454</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>359</v>
+        <v>366</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>360</v>
+        <v>367</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>361</v>
+        <v>368</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4716,13 +4737,13 @@
         <v>32741</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>362</v>
+        <v>369</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>363</v>
+        <v>370</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>364</v>
+        <v>371</v>
       </c>
       <c r="H15" s="7">
         <v>46</v>
@@ -4731,13 +4752,13 @@
         <v>25733</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>365</v>
+        <v>372</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>366</v>
+        <v>270</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>367</v>
+        <v>373</v>
       </c>
       <c r="M15" s="7">
         <v>85</v>
@@ -4746,13 +4767,13 @@
         <v>58475</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>368</v>
+        <v>374</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>369</v>
+        <v>375</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>370</v>
+        <v>376</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -4767,13 +4788,13 @@
         <v>50377</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>371</v>
+        <v>377</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>127</v>
+        <v>378</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>372</v>
+        <v>379</v>
       </c>
       <c r="H16" s="7">
         <v>57</v>
@@ -4782,13 +4803,13 @@
         <v>33267</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>373</v>
+        <v>380</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>374</v>
+        <v>76</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>375</v>
+        <v>381</v>
       </c>
       <c r="M16" s="7">
         <v>121</v>
@@ -4797,13 +4818,13 @@
         <v>83644</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>376</v>
+        <v>382</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>377</v>
+        <v>383</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>378</v>
+        <v>384</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4818,13 +4839,13 @@
         <v>31482</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>379</v>
+        <v>385</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>380</v>
+        <v>386</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>97</v>
+        <v>387</v>
       </c>
       <c r="H17" s="7">
         <v>33</v>
@@ -4833,13 +4854,13 @@
         <v>19715</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>381</v>
+        <v>388</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>382</v>
+        <v>389</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>383</v>
+        <v>390</v>
       </c>
       <c r="M17" s="7">
         <v>70</v>
@@ -4848,13 +4869,13 @@
         <v>51197</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>260</v>
+        <v>391</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>384</v>
+        <v>392</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>385</v>
+        <v>393</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4869,13 +4890,13 @@
         <v>120999</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="H18" s="7">
         <v>150</v>
@@ -4884,13 +4905,13 @@
         <v>86771</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="M18" s="7">
         <v>299</v>
@@ -4899,13 +4920,13 @@
         <v>207770</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -4922,13 +4943,13 @@
         <v>18379</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>386</v>
+        <v>394</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>387</v>
+        <v>395</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>388</v>
+        <v>396</v>
       </c>
       <c r="H19" s="7">
         <v>29</v>
@@ -4937,13 +4958,13 @@
         <v>17036</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>389</v>
+        <v>397</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>390</v>
+        <v>398</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>391</v>
+        <v>399</v>
       </c>
       <c r="M19" s="7">
         <v>53</v>
@@ -4952,13 +4973,13 @@
         <v>35415</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>392</v>
+        <v>400</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>393</v>
+        <v>401</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>394</v>
+        <v>402</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4973,13 +4994,13 @@
         <v>135616</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>395</v>
+        <v>403</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>396</v>
+        <v>404</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>298</v>
+        <v>405</v>
       </c>
       <c r="H20" s="7">
         <v>236</v>
@@ -4988,13 +5009,13 @@
         <v>131022</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>397</v>
+        <v>406</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>398</v>
+        <v>407</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>399</v>
+        <v>408</v>
       </c>
       <c r="M20" s="7">
         <v>399</v>
@@ -5003,13 +5024,13 @@
         <v>266637</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>400</v>
+        <v>409</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>401</v>
+        <v>410</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>402</v>
+        <v>405</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5024,13 +5045,13 @@
         <v>319358</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>403</v>
+        <v>411</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>404</v>
+        <v>412</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>405</v>
+        <v>100</v>
       </c>
       <c r="H21" s="7">
         <v>444</v>
@@ -5039,13 +5060,13 @@
         <v>263753</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>406</v>
+        <v>413</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>407</v>
+        <v>414</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>408</v>
+        <v>415</v>
       </c>
       <c r="M21" s="7">
         <v>791</v>
@@ -5054,13 +5075,13 @@
         <v>583112</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>409</v>
+        <v>416</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>410</v>
+        <v>417</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>411</v>
+        <v>418</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -5075,13 +5096,13 @@
         <v>121269</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>412</v>
+        <v>419</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>413</v>
+        <v>420</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>414</v>
+        <v>421</v>
       </c>
       <c r="H22" s="7">
         <v>158</v>
@@ -5090,13 +5111,13 @@
         <v>95603</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>415</v>
+        <v>422</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>382</v>
+        <v>423</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>416</v>
+        <v>424</v>
       </c>
       <c r="M22" s="7">
         <v>307</v>
@@ -5105,13 +5126,13 @@
         <v>216872</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>417</v>
+        <v>300</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>418</v>
+        <v>425</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>419</v>
+        <v>426</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -5126,13 +5147,13 @@
         <v>594622</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="H23" s="7">
         <v>867</v>
@@ -5141,13 +5162,13 @@
         <v>507414</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="M23" s="7">
         <v>1550</v>
@@ -5156,18 +5177,18 @@
         <v>1102036</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P44C-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P44C-Estudios-trans_orig.xlsx
@@ -8,13 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{49CDD8DB-8D57-425F-B876-8B78CF16DB12}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{3A2647E6-6E73-448B-99CA-AEEE4F476178}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{5018D5AC-C77B-489E-A35F-4F2AA6F31CF6}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{C23B9519-5A44-4F88-AC9C-A88DF0694946}"/>
   </bookViews>
   <sheets>
     <sheet name="2012" sheetId="2" r:id="rId1"/>
-    <sheet name="2015" sheetId="3" r:id="rId2"/>
+    <sheet name="2016" sheetId="3" r:id="rId2"/>
     <sheet name="2023" sheetId="4" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="672" uniqueCount="427">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="672" uniqueCount="420">
   <si>
     <t>Población según la persona que le recomendó realizarse la prueba de Cáncer de colon en 2012 (Tasa respuesta: 3,01%)</t>
   </si>
@@ -85,13 +85,13 @@
     <t>3,03%</t>
   </si>
   <si>
-    <t>10,81%</t>
+    <t>10,84%</t>
   </si>
   <si>
     <t>1,77%</t>
   </si>
   <si>
-    <t>5,96%</t>
+    <t>6,3%</t>
   </si>
   <si>
     <t>Me lo sugirió otro médico especialista del SAS</t>
@@ -100,28 +100,28 @@
     <t>32,75%</t>
   </si>
   <si>
-    <t>20,33%</t>
-  </si>
-  <si>
-    <t>49,77%</t>
+    <t>18,93%</t>
+  </si>
+  <si>
+    <t>46,94%</t>
   </si>
   <si>
     <t>39,28%</t>
   </si>
   <si>
-    <t>28,05%</t>
-  </si>
-  <si>
-    <t>52,17%</t>
+    <t>27,42%</t>
+  </si>
+  <si>
+    <t>51,34%</t>
   </si>
   <si>
     <t>36,56%</t>
   </si>
   <si>
-    <t>27,68%</t>
-  </si>
-  <si>
-    <t>46,42%</t>
+    <t>27,53%</t>
+  </si>
+  <si>
+    <t>46,81%</t>
   </si>
   <si>
     <t>Me lo sugirió mi médico de cabecera</t>
@@ -130,28 +130,28 @@
     <t>60,44%</t>
   </si>
   <si>
-    <t>44,83%</t>
-  </si>
-  <si>
-    <t>73,95%</t>
+    <t>45,42%</t>
+  </si>
+  <si>
+    <t>74,78%</t>
   </si>
   <si>
     <t>47,25%</t>
   </si>
   <si>
-    <t>35,62%</t>
-  </si>
-  <si>
-    <t>59,83%</t>
+    <t>35,87%</t>
+  </si>
+  <si>
+    <t>60,26%</t>
   </si>
   <si>
     <t>52,75%</t>
   </si>
   <si>
-    <t>42,47%</t>
-  </si>
-  <si>
-    <t>62,25%</t>
+    <t>42,72%</t>
+  </si>
+  <si>
+    <t>62,6%</t>
   </si>
   <si>
     <t>Lo solicité yo mismo/a</t>
@@ -160,1123 +160,1102 @@
     <t>6,81%</t>
   </si>
   <si>
-    <t>2,08%</t>
-  </si>
-  <si>
-    <t>18,34%</t>
+    <t>16,7%</t>
   </si>
   <si>
     <t>10,44%</t>
   </si>
   <si>
-    <t>4,36%</t>
-  </si>
-  <si>
-    <t>21,34%</t>
+    <t>4,35%</t>
+  </si>
+  <si>
+    <t>21,2%</t>
   </si>
   <si>
     <t>8,92%</t>
   </si>
   <si>
+    <t>4,34%</t>
+  </si>
+  <si>
+    <t>16,46%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>Secundarios</t>
+  </si>
+  <si>
+    <t>6,8%</t>
+  </si>
+  <si>
+    <t>25,51%</t>
+  </si>
+  <si>
+    <t>6,28%</t>
+  </si>
+  <si>
+    <t>29,06%</t>
+  </si>
+  <si>
+    <t>6,6%</t>
+  </si>
+  <si>
+    <t>1,23%</t>
+  </si>
+  <si>
+    <t>18,35%</t>
+  </si>
+  <si>
+    <t>19,08%</t>
+  </si>
+  <si>
+    <t>8,75%</t>
+  </si>
+  <si>
+    <t>34,68%</t>
+  </si>
+  <si>
+    <t>28,54%</t>
+  </si>
+  <si>
+    <t>12,19%</t>
+  </si>
+  <si>
+    <t>48,3%</t>
+  </si>
+  <si>
+    <t>22,67%</t>
+  </si>
+  <si>
+    <t>13,06%</t>
+  </si>
+  <si>
+    <t>33,58%</t>
+  </si>
+  <si>
+    <t>58,72%</t>
+  </si>
+  <si>
+    <t>42,85%</t>
+  </si>
+  <si>
+    <t>74,07%</t>
+  </si>
+  <si>
+    <t>31,39%</t>
+  </si>
+  <si>
+    <t>14,26%</t>
+  </si>
+  <si>
+    <t>50,25%</t>
+  </si>
+  <si>
+    <t>48,34%</t>
+  </si>
+  <si>
+    <t>36,33%</t>
+  </si>
+  <si>
+    <t>61,26%</t>
+  </si>
+  <si>
+    <t>15,4%</t>
+  </si>
+  <si>
+    <t>29,64%</t>
+  </si>
+  <si>
+    <t>33,79%</t>
+  </si>
+  <si>
+    <t>17,46%</t>
+  </si>
+  <si>
+    <t>54,83%</t>
+  </si>
+  <si>
+    <t>22,38%</t>
+  </si>
+  <si>
+    <t>13,22%</t>
+  </si>
+  <si>
+    <t>33,56%</t>
+  </si>
+  <si>
+    <t>Universitarios</t>
+  </si>
+  <si>
+    <t>13,94%</t>
+  </si>
+  <si>
+    <t>53,41%</t>
+  </si>
+  <si>
+    <t>19,48%</t>
+  </si>
+  <si>
+    <t>55,88%</t>
+  </si>
+  <si>
+    <t>16,5%</t>
+  </si>
+  <si>
+    <t>4,42%</t>
+  </si>
+  <si>
+    <t>43,12%</t>
+  </si>
+  <si>
+    <t>21,74%</t>
+  </si>
+  <si>
+    <t>61,36%</t>
+  </si>
+  <si>
+    <t>16,45%</t>
+  </si>
+  <si>
+    <t>44,17%</t>
+  </si>
+  <si>
+    <t>19,3%</t>
+  </si>
+  <si>
+    <t>4,08%</t>
+  </si>
+  <si>
+    <t>45,83%</t>
+  </si>
+  <si>
+    <t>33,47%</t>
+  </si>
+  <si>
+    <t>11,91%</t>
+  </si>
+  <si>
+    <t>67,68%</t>
+  </si>
+  <si>
+    <t>29,51%</t>
+  </si>
+  <si>
+    <t>8,16%</t>
+  </si>
+  <si>
+    <t>61,35%</t>
+  </si>
+  <si>
+    <t>31,64%</t>
+  </si>
+  <si>
+    <t>15,41%</t>
+  </si>
+  <si>
+    <t>54,37%</t>
+  </si>
+  <si>
+    <t>30,85%</t>
+  </si>
+  <si>
+    <t>8,18%</t>
+  </si>
+  <si>
+    <t>61,82%</t>
+  </si>
+  <si>
+    <t>34,56%</t>
+  </si>
+  <si>
+    <t>8,61%</t>
+  </si>
+  <si>
+    <t>64,86%</t>
+  </si>
+  <si>
+    <t>32,56%</t>
+  </si>
+  <si>
+    <t>15,77%</t>
+  </si>
+  <si>
+    <t>55,29%</t>
+  </si>
+  <si>
+    <t>4,85%</t>
+  </si>
+  <si>
+    <t>0,86%</t>
+  </si>
+  <si>
+    <t>13,35%</t>
+  </si>
+  <si>
+    <t>5,82%</t>
+  </si>
+  <si>
+    <t>2,21%</t>
+  </si>
+  <si>
+    <t>13,33%</t>
+  </si>
+  <si>
+    <t>5,33%</t>
+  </si>
+  <si>
+    <t>2,4%</t>
+  </si>
+  <si>
+    <t>10,75%</t>
+  </si>
+  <si>
+    <t>25,22%</t>
+  </si>
+  <si>
+    <t>17,02%</t>
+  </si>
+  <si>
+    <t>34,84%</t>
+  </si>
+  <si>
+    <t>33,66%</t>
+  </si>
+  <si>
+    <t>24,44%</t>
+  </si>
+  <si>
+    <t>43,92%</t>
+  </si>
+  <si>
+    <t>29,39%</t>
+  </si>
+  <si>
+    <t>23,22%</t>
+  </si>
+  <si>
+    <t>36,45%</t>
+  </si>
+  <si>
+    <t>56,15%</t>
+  </si>
+  <si>
+    <t>45,91%</t>
+  </si>
+  <si>
+    <t>65,05%</t>
+  </si>
+  <si>
+    <t>40,79%</t>
+  </si>
+  <si>
+    <t>31,36%</t>
+  </si>
+  <si>
+    <t>51,37%</t>
+  </si>
+  <si>
+    <t>48,56%</t>
+  </si>
+  <si>
+    <t>41,81%</t>
+  </si>
+  <si>
+    <t>55,8%</t>
+  </si>
+  <si>
+    <t>13,78%</t>
+  </si>
+  <si>
+    <t>8,09%</t>
+  </si>
+  <si>
+    <t>21,56%</t>
+  </si>
+  <si>
+    <t>19,73%</t>
+  </si>
+  <si>
+    <t>12,78%</t>
+  </si>
+  <si>
+    <t>28,52%</t>
+  </si>
+  <si>
+    <t>16,72%</t>
+  </si>
+  <si>
+    <t>11,6%</t>
+  </si>
+  <si>
+    <t>23,0%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población según la persona que le recomendó realizarse la prueba de Cáncer de colon en 2016 (Tasa respuesta: 3,87%)</t>
+  </si>
+  <si>
+    <t>2,09%</t>
+  </si>
+  <si>
+    <t>10,41%</t>
+  </si>
+  <si>
+    <t>3,85%</t>
+  </si>
+  <si>
+    <t>13,24%</t>
+  </si>
+  <si>
+    <t>3,02%</t>
+  </si>
+  <si>
+    <t>0,97%</t>
+  </si>
+  <si>
+    <t>8,08%</t>
+  </si>
+  <si>
+    <t>26,67%</t>
+  </si>
+  <si>
+    <t>16,37%</t>
+  </si>
+  <si>
+    <t>40,55%</t>
+  </si>
+  <si>
+    <t>28,04%</t>
+  </si>
+  <si>
+    <t>17,81%</t>
+  </si>
+  <si>
+    <t>41,63%</t>
+  </si>
+  <si>
+    <t>27,4%</t>
+  </si>
+  <si>
+    <t>19,93%</t>
+  </si>
+  <si>
+    <t>35,99%</t>
+  </si>
+  <si>
+    <t>58,49%</t>
+  </si>
+  <si>
+    <t>45,62%</t>
+  </si>
+  <si>
+    <t>70,84%</t>
+  </si>
+  <si>
+    <t>62,84%</t>
+  </si>
+  <si>
+    <t>48,13%</t>
+  </si>
+  <si>
+    <t>74,4%</t>
+  </si>
+  <si>
+    <t>60,79%</t>
+  </si>
+  <si>
+    <t>51,42%</t>
+  </si>
+  <si>
+    <t>69,23%</t>
+  </si>
+  <si>
+    <t>12,76%</t>
+  </si>
+  <si>
+    <t>23,36%</t>
+  </si>
+  <si>
+    <t>5,27%</t>
+  </si>
+  <si>
+    <t>1,6%</t>
+  </si>
+  <si>
+    <t>14,43%</t>
+  </si>
+  <si>
+    <t>8,8%</t>
+  </si>
+  <si>
+    <t>4,37%</t>
+  </si>
+  <si>
+    <t>15,13%</t>
+  </si>
+  <si>
+    <t>6,66%</t>
+  </si>
+  <si>
+    <t>2,55%</t>
+  </si>
+  <si>
+    <t>14,12%</t>
+  </si>
+  <si>
+    <t>5,78%</t>
+  </si>
+  <si>
+    <t>4,51%</t>
+  </si>
+  <si>
+    <t>1,75%</t>
+  </si>
+  <si>
+    <t>10,45%</t>
+  </si>
+  <si>
+    <t>18,04%</t>
+  </si>
+  <si>
+    <t>9,94%</t>
+  </si>
+  <si>
+    <t>27,87%</t>
+  </si>
+  <si>
+    <t>40,64%</t>
+  </si>
+  <si>
+    <t>25,61%</t>
+  </si>
+  <si>
+    <t>60,34%</t>
+  </si>
+  <si>
+    <t>25,33%</t>
+  </si>
+  <si>
+    <t>17,95%</t>
+  </si>
+  <si>
+    <t>35,06%</t>
+  </si>
+  <si>
+    <t>52,5%</t>
+  </si>
+  <si>
+    <t>40,94%</t>
+  </si>
+  <si>
+    <t>63,38%</t>
+  </si>
+  <si>
+    <t>41,02%</t>
+  </si>
+  <si>
+    <t>23,79%</t>
+  </si>
+  <si>
+    <t>57,85%</t>
+  </si>
+  <si>
+    <t>48,79%</t>
+  </si>
+  <si>
+    <t>39,0%</t>
+  </si>
+  <si>
+    <t>57,75%</t>
+  </si>
+  <si>
+    <t>22,8%</t>
+  </si>
+  <si>
+    <t>14,9%</t>
+  </si>
+  <si>
+    <t>33,83%</t>
+  </si>
+  <si>
+    <t>6,32%</t>
+  </si>
+  <si>
+    <t>34,95%</t>
+  </si>
+  <si>
+    <t>21,36%</t>
+  </si>
+  <si>
+    <t>14,32%</t>
+  </si>
+  <si>
+    <t>30,09%</t>
+  </si>
+  <si>
+    <t>19,27%</t>
+  </si>
+  <si>
+    <t>6,5%</t>
+  </si>
+  <si>
+    <t>40,49%</t>
+  </si>
+  <si>
+    <t>20,74%</t>
+  </si>
+  <si>
+    <t>6,21%</t>
+  </si>
+  <si>
+    <t>47,87%</t>
+  </si>
+  <si>
+    <t>19,79%</t>
+  </si>
+  <si>
+    <t>9,3%</t>
+  </si>
+  <si>
+    <t>35,41%</t>
+  </si>
+  <si>
+    <t>2,86%</t>
+  </si>
+  <si>
+    <t>15,42%</t>
+  </si>
+  <si>
+    <t>11,27%</t>
+  </si>
+  <si>
+    <t>48,28%</t>
+  </si>
+  <si>
+    <t>5,87%</t>
+  </si>
+  <si>
+    <t>21,61%</t>
+  </si>
+  <si>
+    <t>55,48%</t>
+  </si>
+  <si>
+    <t>35,24%</t>
+  </si>
+  <si>
+    <t>74,69%</t>
+  </si>
+  <si>
+    <t>32,0%</t>
+  </si>
+  <si>
+    <t>11,56%</t>
+  </si>
+  <si>
+    <t>59,96%</t>
+  </si>
+  <si>
+    <t>47,07%</t>
+  </si>
+  <si>
+    <t>31,33%</t>
+  </si>
+  <si>
+    <t>63,72%</t>
+  </si>
+  <si>
+    <t>22,4%</t>
+  </si>
+  <si>
+    <t>10,31%</t>
+  </si>
+  <si>
+    <t>44,63%</t>
+  </si>
+  <si>
+    <t>11,54%</t>
+  </si>
+  <si>
+    <t>65,86%</t>
+  </si>
+  <si>
+    <t>27,26%</t>
+  </si>
+  <si>
+    <t>15,06%</t>
+  </si>
+  <si>
+    <t>44,71%</t>
+  </si>
+  <si>
+    <t>7,38%</t>
+  </si>
+  <si>
+    <t>3,76%</t>
+  </si>
+  <si>
+    <t>13,05%</t>
+  </si>
+  <si>
+    <t>5,01%</t>
+  </si>
+  <si>
+    <t>1,91%</t>
+  </si>
+  <si>
+    <t>10,27%</t>
+  </si>
+  <si>
+    <t>6,4%</t>
+  </si>
+  <si>
+    <t>3,77%</t>
+  </si>
+  <si>
+    <t>10,22%</t>
+  </si>
+  <si>
+    <t>18,23%</t>
+  </si>
+  <si>
+    <t>12,08%</t>
+  </si>
+  <si>
+    <t>23,9%</t>
+  </si>
+  <si>
+    <t>29,7%</t>
+  </si>
+  <si>
+    <t>21,25%</t>
+  </si>
+  <si>
+    <t>39,79%</t>
+  </si>
+  <si>
+    <t>18,17%</t>
+  </si>
+  <si>
+    <t>28,4%</t>
+  </si>
+  <si>
+    <t>55,08%</t>
+  </si>
+  <si>
+    <t>47,05%</t>
+  </si>
+  <si>
+    <t>63,27%</t>
+  </si>
+  <si>
+    <t>51,48%</t>
+  </si>
+  <si>
+    <t>41,69%</t>
+  </si>
+  <si>
+    <t>61,75%</t>
+  </si>
+  <si>
+    <t>53,58%</t>
+  </si>
+  <si>
+    <t>47,68%</t>
+  </si>
+  <si>
+    <t>59,92%</t>
+  </si>
+  <si>
+    <t>13,57%</t>
+  </si>
+  <si>
+    <t>25,74%</t>
+  </si>
+  <si>
+    <t>13,81%</t>
+  </si>
+  <si>
+    <t>7,46%</t>
+  </si>
+  <si>
+    <t>22,32%</t>
+  </si>
+  <si>
+    <t>12,74%</t>
+  </si>
+  <si>
+    <t>22,17%</t>
+  </si>
+  <si>
+    <t>Población según la persona que le recomendó realizarse la prueba de Cáncer de colon en 2023 (Tasa respuesta: 17,76%)</t>
+  </si>
+  <si>
+    <t>1,82%</t>
+  </si>
+  <si>
+    <t>0,49%</t>
+  </si>
+  <si>
+    <t>1,46%</t>
+  </si>
+  <si>
+    <t>0,53%</t>
+  </si>
+  <si>
+    <t>3,49%</t>
+  </si>
+  <si>
+    <t>1,62%</t>
+  </si>
+  <si>
+    <t>0,79%</t>
+  </si>
+  <si>
+    <t>3,06%</t>
+  </si>
+  <si>
+    <t>25,23%</t>
+  </si>
+  <si>
+    <t>19,68%</t>
+  </si>
+  <si>
+    <t>31,75%</t>
+  </si>
+  <si>
+    <t>22,13%</t>
+  </si>
+  <si>
+    <t>17,48%</t>
+  </si>
+  <si>
+    <t>26,76%</t>
+  </si>
+  <si>
+    <t>23,49%</t>
+  </si>
+  <si>
+    <t>20,04%</t>
+  </si>
+  <si>
+    <t>27,65%</t>
+  </si>
+  <si>
+    <t>56,13%</t>
+  </si>
+  <si>
+    <t>48,87%</t>
+  </si>
+  <si>
+    <t>62,65%</t>
+  </si>
+  <si>
+    <t>63,9%</t>
+  </si>
+  <si>
+    <t>58,42%</t>
+  </si>
+  <si>
+    <t>69,7%</t>
+  </si>
+  <si>
+    <t>60,47%</t>
+  </si>
+  <si>
+    <t>56,42%</t>
+  </si>
+  <si>
+    <t>65,08%</t>
+  </si>
+  <si>
+    <t>16,82%</t>
+  </si>
+  <si>
+    <t>12,05%</t>
+  </si>
+  <si>
+    <t>22,99%</t>
+  </si>
+  <si>
+    <t>12,51%</t>
+  </si>
+  <si>
+    <t>8,86%</t>
+  </si>
+  <si>
+    <t>16,43%</t>
+  </si>
+  <si>
+    <t>14,41%</t>
+  </si>
+  <si>
+    <t>11,42%</t>
+  </si>
+  <si>
+    <t>17,86%</t>
+  </si>
+  <si>
+    <t>2,85%</t>
+  </si>
+  <si>
+    <t>1,16%</t>
+  </si>
+  <si>
+    <t>5,23%</t>
+  </si>
+  <si>
+    <t>2,68%</t>
+  </si>
+  <si>
+    <t>1,26%</t>
+  </si>
+  <si>
+    <t>4,67%</t>
+  </si>
+  <si>
+    <t>2,78%</t>
+  </si>
+  <si>
+    <t>1,59%</t>
+  </si>
+  <si>
     <t>4,41%</t>
   </si>
   <si>
-    <t>15,33%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>Secundarios</t>
-  </si>
-  <si>
-    <t>6,8%</t>
-  </si>
-  <si>
-    <t>24,94%</t>
-  </si>
-  <si>
-    <t>6,28%</t>
-  </si>
-  <si>
-    <t>34,35%</t>
-  </si>
-  <si>
-    <t>6,6%</t>
-  </si>
-  <si>
-    <t>1,23%</t>
-  </si>
-  <si>
-    <t>19,08%</t>
-  </si>
-  <si>
-    <t>8,34%</t>
-  </si>
-  <si>
-    <t>34,64%</t>
-  </si>
-  <si>
-    <t>28,54%</t>
-  </si>
-  <si>
-    <t>13,57%</t>
-  </si>
-  <si>
-    <t>52,64%</t>
-  </si>
-  <si>
-    <t>22,67%</t>
-  </si>
-  <si>
-    <t>13,33%</t>
-  </si>
-  <si>
-    <t>34,39%</t>
-  </si>
-  <si>
-    <t>58,72%</t>
-  </si>
-  <si>
-    <t>41,52%</t>
-  </si>
-  <si>
-    <t>73,18%</t>
-  </si>
-  <si>
-    <t>31,39%</t>
-  </si>
-  <si>
-    <t>15,6%</t>
-  </si>
-  <si>
-    <t>51,24%</t>
-  </si>
-  <si>
-    <t>48,34%</t>
-  </si>
-  <si>
-    <t>35,83%</t>
-  </si>
-  <si>
-    <t>60,92%</t>
-  </si>
-  <si>
-    <t>15,4%</t>
-  </si>
-  <si>
-    <t>6,78%</t>
+    <t>20,13%</t>
+  </si>
+  <si>
+    <t>10,92%</t>
+  </si>
+  <si>
+    <t>25,8%</t>
+  </si>
+  <si>
+    <t>27,37%</t>
+  </si>
+  <si>
+    <t>23,15%</t>
+  </si>
+  <si>
+    <t>31,87%</t>
+  </si>
+  <si>
+    <t>16,98%</t>
+  </si>
+  <si>
+    <t>27,36%</t>
+  </si>
+  <si>
+    <t>57,09%</t>
+  </si>
+  <si>
+    <t>46,89%</t>
+  </si>
+  <si>
+    <t>76,6%</t>
+  </si>
+  <si>
+    <t>47,45%</t>
+  </si>
+  <si>
+    <t>42,57%</t>
+  </si>
+  <si>
+    <t>52,36%</t>
+  </si>
+  <si>
+    <t>53,07%</t>
+  </si>
+  <si>
+    <t>47,01%</t>
+  </si>
+  <si>
+    <t>65,87%</t>
+  </si>
+  <si>
+    <t>11,05%</t>
+  </si>
+  <si>
+    <t>25,59%</t>
+  </si>
+  <si>
+    <t>22,5%</t>
+  </si>
+  <si>
+    <t>18,57%</t>
+  </si>
+  <si>
+    <t>26,53%</t>
+  </si>
+  <si>
+    <t>21,0%</t>
+  </si>
+  <si>
+    <t>15,52%</t>
+  </si>
+  <si>
+    <t>24,9%</t>
+  </si>
+  <si>
+    <t>5,29%</t>
+  </si>
+  <si>
+    <t>2,39%</t>
+  </si>
+  <si>
+    <t>9,97%</t>
+  </si>
+  <si>
+    <t>9,28%</t>
+  </si>
+  <si>
+    <t>5,08%</t>
+  </si>
+  <si>
+    <t>15,26%</t>
+  </si>
+  <si>
+    <t>6,96%</t>
+  </si>
+  <si>
+    <t>4,7%</t>
+  </si>
+  <si>
+    <t>10,38%</t>
+  </si>
+  <si>
+    <t>27,06%</t>
+  </si>
+  <si>
+    <t>19,91%</t>
+  </si>
+  <si>
+    <t>29,66%</t>
+  </si>
+  <si>
+    <t>38,15%</t>
+  </si>
+  <si>
+    <t>28,14%</t>
+  </si>
+  <si>
+    <t>22,94%</t>
+  </si>
+  <si>
+    <t>33,5%</t>
+  </si>
+  <si>
+    <t>34,19%</t>
+  </si>
+  <si>
+    <t>50,12%</t>
+  </si>
+  <si>
+    <t>38,34%</t>
   </si>
   <si>
     <t>30,02%</t>
   </si>
   <si>
-    <t>33,79%</t>
-  </si>
-  <si>
-    <t>16,69%</t>
-  </si>
-  <si>
-    <t>54,44%</t>
-  </si>
-  <si>
-    <t>22,38%</t>
-  </si>
-  <si>
-    <t>13,96%</t>
-  </si>
-  <si>
-    <t>33,94%</t>
-  </si>
-  <si>
-    <t>Universitarios</t>
-  </si>
-  <si>
-    <t>13,94%</t>
-  </si>
-  <si>
-    <t>49,79%</t>
-  </si>
-  <si>
-    <t>19,48%</t>
-  </si>
-  <si>
-    <t>52,56%</t>
-  </si>
-  <si>
-    <t>16,5%</t>
-  </si>
-  <si>
-    <t>4,09%</t>
-  </si>
-  <si>
-    <t>37,5%</t>
-  </si>
-  <si>
-    <t>21,74%</t>
-  </si>
-  <si>
-    <t>64,62%</t>
-  </si>
-  <si>
-    <t>16,45%</t>
-  </si>
-  <si>
-    <t>44,57%</t>
-  </si>
-  <si>
-    <t>19,3%</t>
-  </si>
-  <si>
-    <t>6,94%</t>
-  </si>
-  <si>
-    <t>42,99%</t>
-  </si>
-  <si>
-    <t>33,47%</t>
-  </si>
-  <si>
-    <t>11,48%</t>
+    <t>46,51%</t>
+  </si>
+  <si>
+    <t>40,26%</t>
+  </si>
+  <si>
+    <t>34,72%</t>
+  </si>
+  <si>
+    <t>46,24%</t>
+  </si>
+  <si>
+    <t>26,02%</t>
+  </si>
+  <si>
+    <t>33,72%</t>
+  </si>
+  <si>
+    <t>22,72%</t>
+  </si>
+  <si>
+    <t>16,65%</t>
+  </si>
+  <si>
+    <t>30,79%</t>
+  </si>
+  <si>
+    <t>24,64%</t>
+  </si>
+  <si>
+    <t>19,78%</t>
+  </si>
+  <si>
+    <t>30,69%</t>
+  </si>
+  <si>
+    <t>3,09%</t>
+  </si>
+  <si>
+    <t>1,89%</t>
+  </si>
+  <si>
+    <t>4,5%</t>
+  </si>
+  <si>
+    <t>3,36%</t>
+  </si>
+  <si>
+    <t>2,17%</t>
+  </si>
+  <si>
+    <t>4,83%</t>
+  </si>
+  <si>
+    <t>3,21%</t>
+  </si>
+  <si>
+    <t>2,33%</t>
+  </si>
+  <si>
+    <t>4,21%</t>
+  </si>
+  <si>
+    <t>22,81%</t>
+  </si>
+  <si>
+    <t>17,37%</t>
+  </si>
+  <si>
+    <t>26,61%</t>
+  </si>
+  <si>
+    <t>25,82%</t>
+  </si>
+  <si>
+    <t>22,83%</t>
+  </si>
+  <si>
+    <t>28,81%</t>
+  </si>
+  <si>
+    <t>24,19%</t>
+  </si>
+  <si>
+    <t>20,23%</t>
+  </si>
+  <si>
+    <t>53,71%</t>
+  </si>
+  <si>
+    <t>48,09%</t>
   </si>
   <si>
     <t>64,8%</t>
-  </si>
-  <si>
-    <t>29,51%</t>
-  </si>
-  <si>
-    <t>8,39%</t>
-  </si>
-  <si>
-    <t>64,0%</t>
-  </si>
-  <si>
-    <t>31,64%</t>
-  </si>
-  <si>
-    <t>14,8%</t>
-  </si>
-  <si>
-    <t>54,48%</t>
-  </si>
-  <si>
-    <t>30,85%</t>
-  </si>
-  <si>
-    <t>7,48%</t>
-  </si>
-  <si>
-    <t>62,78%</t>
-  </si>
-  <si>
-    <t>34,56%</t>
-  </si>
-  <si>
-    <t>8,65%</t>
-  </si>
-  <si>
-    <t>63,94%</t>
-  </si>
-  <si>
-    <t>32,56%</t>
-  </si>
-  <si>
-    <t>15,58%</t>
-  </si>
-  <si>
-    <t>53,99%</t>
-  </si>
-  <si>
-    <t>4,85%</t>
-  </si>
-  <si>
-    <t>0,9%</t>
-  </si>
-  <si>
-    <t>14,37%</t>
-  </si>
-  <si>
-    <t>5,82%</t>
-  </si>
-  <si>
-    <t>2,05%</t>
-  </si>
-  <si>
-    <t>12,53%</t>
-  </si>
-  <si>
-    <t>5,33%</t>
-  </si>
-  <si>
-    <t>2,44%</t>
-  </si>
-  <si>
-    <t>10,49%</t>
-  </si>
-  <si>
-    <t>25,22%</t>
-  </si>
-  <si>
-    <t>16,59%</t>
-  </si>
-  <si>
-    <t>34,73%</t>
-  </si>
-  <si>
-    <t>33,66%</t>
-  </si>
-  <si>
-    <t>25,34%</t>
-  </si>
-  <si>
-    <t>42,78%</t>
-  </si>
-  <si>
-    <t>29,39%</t>
-  </si>
-  <si>
-    <t>23,43%</t>
-  </si>
-  <si>
-    <t>36,61%</t>
-  </si>
-  <si>
-    <t>56,15%</t>
-  </si>
-  <si>
-    <t>45,98%</t>
-  </si>
-  <si>
-    <t>65,96%</t>
-  </si>
-  <si>
-    <t>40,79%</t>
-  </si>
-  <si>
-    <t>31,54%</t>
-  </si>
-  <si>
-    <t>50,86%</t>
-  </si>
-  <si>
-    <t>48,56%</t>
-  </si>
-  <si>
-    <t>41,43%</t>
-  </si>
-  <si>
-    <t>55,66%</t>
-  </si>
-  <si>
-    <t>13,78%</t>
-  </si>
-  <si>
-    <t>7,86%</t>
-  </si>
-  <si>
-    <t>21,76%</t>
-  </si>
-  <si>
-    <t>19,73%</t>
-  </si>
-  <si>
-    <t>12,66%</t>
-  </si>
-  <si>
-    <t>29,55%</t>
-  </si>
-  <si>
-    <t>16,72%</t>
-  </si>
-  <si>
-    <t>11,92%</t>
-  </si>
-  <si>
-    <t>22,42%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población según la persona que le recomendó realizarse la prueba de Cáncer de colon en 2015 (Tasa respuesta: 3,87%)</t>
-  </si>
-  <si>
-    <t>2,09%</t>
-  </si>
-  <si>
-    <t>11,38%</t>
-  </si>
-  <si>
-    <t>3,85%</t>
-  </si>
-  <si>
-    <t>13,06%</t>
-  </si>
-  <si>
-    <t>3,02%</t>
-  </si>
-  <si>
-    <t>0,97%</t>
-  </si>
-  <si>
-    <t>7,93%</t>
-  </si>
-  <si>
-    <t>26,67%</t>
-  </si>
-  <si>
-    <t>16,55%</t>
-  </si>
-  <si>
-    <t>38,97%</t>
-  </si>
-  <si>
-    <t>28,04%</t>
-  </si>
-  <si>
-    <t>16,75%</t>
-  </si>
-  <si>
-    <t>40,83%</t>
-  </si>
-  <si>
-    <t>27,4%</t>
-  </si>
-  <si>
-    <t>19,7%</t>
-  </si>
-  <si>
-    <t>35,78%</t>
-  </si>
-  <si>
-    <t>58,49%</t>
-  </si>
-  <si>
-    <t>45,62%</t>
-  </si>
-  <si>
-    <t>70,93%</t>
-  </si>
-  <si>
-    <t>62,84%</t>
-  </si>
-  <si>
-    <t>49,6%</t>
-  </si>
-  <si>
-    <t>74,18%</t>
-  </si>
-  <si>
-    <t>60,79%</t>
-  </si>
-  <si>
-    <t>51,93%</t>
-  </si>
-  <si>
-    <t>69,94%</t>
-  </si>
-  <si>
-    <t>12,76%</t>
-  </si>
-  <si>
-    <t>5,35%</t>
-  </si>
-  <si>
-    <t>22,98%</t>
-  </si>
-  <si>
-    <t>5,27%</t>
-  </si>
-  <si>
-    <t>1,64%</t>
-  </si>
-  <si>
-    <t>14,19%</t>
-  </si>
-  <si>
-    <t>8,8%</t>
-  </si>
-  <si>
-    <t>4,42%</t>
-  </si>
-  <si>
-    <t>14,84%</t>
-  </si>
-  <si>
-    <t>6,66%</t>
-  </si>
-  <si>
-    <t>2,54%</t>
-  </si>
-  <si>
-    <t>14,01%</t>
-  </si>
-  <si>
-    <t>5,78%</t>
-  </si>
-  <si>
-    <t>4,51%</t>
-  </si>
-  <si>
-    <t>1,7%</t>
-  </si>
-  <si>
-    <t>10,08%</t>
-  </si>
-  <si>
-    <t>18,04%</t>
-  </si>
-  <si>
-    <t>9,94%</t>
-  </si>
-  <si>
-    <t>28,61%</t>
-  </si>
-  <si>
-    <t>40,64%</t>
-  </si>
-  <si>
-    <t>25,53%</t>
-  </si>
-  <si>
-    <t>58,22%</t>
-  </si>
-  <si>
-    <t>25,33%</t>
-  </si>
-  <si>
-    <t>17,31%</t>
-  </si>
-  <si>
-    <t>34,26%</t>
-  </si>
-  <si>
-    <t>52,5%</t>
-  </si>
-  <si>
-    <t>41,6%</t>
-  </si>
-  <si>
-    <t>63,91%</t>
-  </si>
-  <si>
-    <t>41,02%</t>
-  </si>
-  <si>
-    <t>25,87%</t>
-  </si>
-  <si>
-    <t>58,46%</t>
-  </si>
-  <si>
-    <t>48,79%</t>
-  </si>
-  <si>
-    <t>39,07%</t>
-  </si>
-  <si>
-    <t>58,9%</t>
-  </si>
-  <si>
-    <t>22,8%</t>
-  </si>
-  <si>
-    <t>14,04%</t>
-  </si>
-  <si>
-    <t>34,03%</t>
-  </si>
-  <si>
-    <t>18,35%</t>
-  </si>
-  <si>
-    <t>7,01%</t>
-  </si>
-  <si>
-    <t>33,32%</t>
-  </si>
-  <si>
-    <t>21,36%</t>
-  </si>
-  <si>
-    <t>13,97%</t>
-  </si>
-  <si>
-    <t>30,27%</t>
-  </si>
-  <si>
-    <t>19,27%</t>
-  </si>
-  <si>
-    <t>7,2%</t>
-  </si>
-  <si>
-    <t>40,65%</t>
-  </si>
-  <si>
-    <t>20,74%</t>
-  </si>
-  <si>
-    <t>5,97%</t>
-  </si>
-  <si>
-    <t>45,71%</t>
-  </si>
-  <si>
-    <t>19,79%</t>
-  </si>
-  <si>
-    <t>8,84%</t>
-  </si>
-  <si>
-    <t>34,55%</t>
-  </si>
-  <si>
-    <t>2,86%</t>
-  </si>
-  <si>
-    <t>16,54%</t>
-  </si>
-  <si>
-    <t>11,27%</t>
-  </si>
-  <si>
-    <t>47,39%</t>
-  </si>
-  <si>
-    <t>5,87%</t>
-  </si>
-  <si>
-    <t>20,31%</t>
-  </si>
-  <si>
-    <t>55,48%</t>
-  </si>
-  <si>
-    <t>33,44%</t>
-  </si>
-  <si>
-    <t>73,88%</t>
-  </si>
-  <si>
-    <t>32,0%</t>
-  </si>
-  <si>
-    <t>11,76%</t>
-  </si>
-  <si>
-    <t>59,95%</t>
-  </si>
-  <si>
-    <t>47,07%</t>
-  </si>
-  <si>
-    <t>31,35%</t>
-  </si>
-  <si>
-    <t>63,88%</t>
-  </si>
-  <si>
-    <t>22,4%</t>
-  </si>
-  <si>
-    <t>8,04%</t>
-  </si>
-  <si>
-    <t>42,32%</t>
-  </si>
-  <si>
-    <t>35,99%</t>
-  </si>
-  <si>
-    <t>9,65%</t>
-  </si>
-  <si>
-    <t>63,86%</t>
-  </si>
-  <si>
-    <t>27,26%</t>
-  </si>
-  <si>
-    <t>14,14%</t>
-  </si>
-  <si>
-    <t>42,13%</t>
-  </si>
-  <si>
-    <t>7,38%</t>
-  </si>
-  <si>
-    <t>3,89%</t>
-  </si>
-  <si>
-    <t>13,19%</t>
-  </si>
-  <si>
-    <t>5,01%</t>
-  </si>
-  <si>
-    <t>1,96%</t>
-  </si>
-  <si>
-    <t>11,0%</t>
-  </si>
-  <si>
-    <t>6,4%</t>
-  </si>
-  <si>
-    <t>3,82%</t>
-  </si>
-  <si>
-    <t>10,01%</t>
-  </si>
-  <si>
-    <t>18,23%</t>
-  </si>
-  <si>
-    <t>12,72%</t>
-  </si>
-  <si>
-    <t>24,75%</t>
-  </si>
-  <si>
-    <t>29,7%</t>
-  </si>
-  <si>
-    <t>21,11%</t>
-  </si>
-  <si>
-    <t>40,19%</t>
-  </si>
-  <si>
-    <t>23,0%</t>
-  </si>
-  <si>
-    <t>18,24%</t>
-  </si>
-  <si>
-    <t>28,52%</t>
-  </si>
-  <si>
-    <t>55,08%</t>
-  </si>
-  <si>
-    <t>47,17%</t>
-  </si>
-  <si>
-    <t>63,3%</t>
-  </si>
-  <si>
-    <t>51,48%</t>
-  </si>
-  <si>
-    <t>41,58%</t>
-  </si>
-  <si>
-    <t>60,62%</t>
-  </si>
-  <si>
-    <t>53,58%</t>
-  </si>
-  <si>
-    <t>47,2%</t>
-  </si>
-  <si>
-    <t>59,5%</t>
-  </si>
-  <si>
-    <t>13,6%</t>
-  </si>
-  <si>
-    <t>26,22%</t>
-  </si>
-  <si>
-    <t>13,81%</t>
-  </si>
-  <si>
-    <t>8,01%</t>
-  </si>
-  <si>
-    <t>23,13%</t>
-  </si>
-  <si>
-    <t>17,02%</t>
-  </si>
-  <si>
-    <t>12,44%</t>
-  </si>
-  <si>
-    <t>21,81%</t>
-  </si>
-  <si>
-    <t>Población según la persona que le recomendó realizarse la prueba de Cáncer de colon en 2023 (Tasa respuesta: 17,76%)</t>
-  </si>
-  <si>
-    <t>1,82%</t>
-  </si>
-  <si>
-    <t>0,49%</t>
-  </si>
-  <si>
-    <t>1,46%</t>
-  </si>
-  <si>
-    <t>0,53%</t>
-  </si>
-  <si>
-    <t>3,49%</t>
-  </si>
-  <si>
-    <t>1,62%</t>
-  </si>
-  <si>
-    <t>0,79%</t>
-  </si>
-  <si>
-    <t>3,06%</t>
-  </si>
-  <si>
-    <t>25,23%</t>
-  </si>
-  <si>
-    <t>19,68%</t>
-  </si>
-  <si>
-    <t>31,75%</t>
-  </si>
-  <si>
-    <t>22,13%</t>
-  </si>
-  <si>
-    <t>17,48%</t>
-  </si>
-  <si>
-    <t>26,76%</t>
-  </si>
-  <si>
-    <t>23,49%</t>
-  </si>
-  <si>
-    <t>20,04%</t>
-  </si>
-  <si>
-    <t>27,65%</t>
-  </si>
-  <si>
-    <t>56,13%</t>
-  </si>
-  <si>
-    <t>48,87%</t>
-  </si>
-  <si>
-    <t>62,65%</t>
-  </si>
-  <si>
-    <t>63,9%</t>
-  </si>
-  <si>
-    <t>58,42%</t>
-  </si>
-  <si>
-    <t>69,7%</t>
-  </si>
-  <si>
-    <t>60,47%</t>
-  </si>
-  <si>
-    <t>56,42%</t>
-  </si>
-  <si>
-    <t>65,08%</t>
-  </si>
-  <si>
-    <t>16,82%</t>
-  </si>
-  <si>
-    <t>12,05%</t>
-  </si>
-  <si>
-    <t>22,99%</t>
-  </si>
-  <si>
-    <t>12,51%</t>
-  </si>
-  <si>
-    <t>8,86%</t>
-  </si>
-  <si>
-    <t>16,43%</t>
-  </si>
-  <si>
-    <t>14,41%</t>
-  </si>
-  <si>
-    <t>11,42%</t>
-  </si>
-  <si>
-    <t>17,86%</t>
-  </si>
-  <si>
-    <t>2,85%</t>
-  </si>
-  <si>
-    <t>1,16%</t>
-  </si>
-  <si>
-    <t>5,23%</t>
-  </si>
-  <si>
-    <t>2,68%</t>
-  </si>
-  <si>
-    <t>1,26%</t>
-  </si>
-  <si>
-    <t>4,67%</t>
-  </si>
-  <si>
-    <t>2,78%</t>
-  </si>
-  <si>
-    <t>1,59%</t>
-  </si>
-  <si>
-    <t>20,13%</t>
-  </si>
-  <si>
-    <t>10,92%</t>
-  </si>
-  <si>
-    <t>25,8%</t>
-  </si>
-  <si>
-    <t>27,37%</t>
-  </si>
-  <si>
-    <t>23,15%</t>
-  </si>
-  <si>
-    <t>31,87%</t>
-  </si>
-  <si>
-    <t>16,98%</t>
-  </si>
-  <si>
-    <t>27,36%</t>
-  </si>
-  <si>
-    <t>57,09%</t>
-  </si>
-  <si>
-    <t>46,89%</t>
-  </si>
-  <si>
-    <t>76,6%</t>
-  </si>
-  <si>
-    <t>47,45%</t>
-  </si>
-  <si>
-    <t>42,57%</t>
-  </si>
-  <si>
-    <t>52,36%</t>
-  </si>
-  <si>
-    <t>53,07%</t>
-  </si>
-  <si>
-    <t>47,01%</t>
-  </si>
-  <si>
-    <t>65,87%</t>
-  </si>
-  <si>
-    <t>19,93%</t>
-  </si>
-  <si>
-    <t>11,05%</t>
-  </si>
-  <si>
-    <t>25,59%</t>
-  </si>
-  <si>
-    <t>22,5%</t>
-  </si>
-  <si>
-    <t>18,57%</t>
-  </si>
-  <si>
-    <t>26,53%</t>
-  </si>
-  <si>
-    <t>21,0%</t>
-  </si>
-  <si>
-    <t>15,52%</t>
-  </si>
-  <si>
-    <t>24,9%</t>
-  </si>
-  <si>
-    <t>5,29%</t>
-  </si>
-  <si>
-    <t>2,39%</t>
-  </si>
-  <si>
-    <t>9,97%</t>
-  </si>
-  <si>
-    <t>9,28%</t>
-  </si>
-  <si>
-    <t>5,08%</t>
-  </si>
-  <si>
-    <t>15,26%</t>
-  </si>
-  <si>
-    <t>6,96%</t>
-  </si>
-  <si>
-    <t>4,7%</t>
-  </si>
-  <si>
-    <t>10,38%</t>
-  </si>
-  <si>
-    <t>27,06%</t>
-  </si>
-  <si>
-    <t>19,91%</t>
-  </si>
-  <si>
-    <t>34,84%</t>
-  </si>
-  <si>
-    <t>29,66%</t>
-  </si>
-  <si>
-    <t>38,15%</t>
-  </si>
-  <si>
-    <t>28,14%</t>
-  </si>
-  <si>
-    <t>22,94%</t>
-  </si>
-  <si>
-    <t>33,5%</t>
-  </si>
-  <si>
-    <t>41,63%</t>
-  </si>
-  <si>
-    <t>34,19%</t>
-  </si>
-  <si>
-    <t>50,12%</t>
-  </si>
-  <si>
-    <t>38,34%</t>
-  </si>
-  <si>
-    <t>46,51%</t>
-  </si>
-  <si>
-    <t>40,26%</t>
-  </si>
-  <si>
-    <t>34,72%</t>
-  </si>
-  <si>
-    <t>46,24%</t>
-  </si>
-  <si>
-    <t>26,02%</t>
-  </si>
-  <si>
-    <t>18,93%</t>
-  </si>
-  <si>
-    <t>33,72%</t>
-  </si>
-  <si>
-    <t>22,72%</t>
-  </si>
-  <si>
-    <t>16,65%</t>
-  </si>
-  <si>
-    <t>30,79%</t>
-  </si>
-  <si>
-    <t>24,64%</t>
-  </si>
-  <si>
-    <t>19,78%</t>
-  </si>
-  <si>
-    <t>30,69%</t>
-  </si>
-  <si>
-    <t>3,09%</t>
-  </si>
-  <si>
-    <t>1,89%</t>
-  </si>
-  <si>
-    <t>4,5%</t>
-  </si>
-  <si>
-    <t>3,36%</t>
-  </si>
-  <si>
-    <t>2,17%</t>
-  </si>
-  <si>
-    <t>4,83%</t>
-  </si>
-  <si>
-    <t>3,21%</t>
-  </si>
-  <si>
-    <t>2,33%</t>
-  </si>
-  <si>
-    <t>4,21%</t>
-  </si>
-  <si>
-    <t>22,81%</t>
-  </si>
-  <si>
-    <t>17,37%</t>
-  </si>
-  <si>
-    <t>26,61%</t>
-  </si>
-  <si>
-    <t>25,82%</t>
-  </si>
-  <si>
-    <t>22,83%</t>
-  </si>
-  <si>
-    <t>28,81%</t>
-  </si>
-  <si>
-    <t>24,19%</t>
-  </si>
-  <si>
-    <t>20,23%</t>
-  </si>
-  <si>
-    <t>53,71%</t>
-  </si>
-  <si>
-    <t>48,09%</t>
   </si>
   <si>
     <t>51,98%</t>
@@ -1730,7 +1709,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DBF09E62-6331-46C7-A61A-7AC08989530A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AED4FFC8-74F2-4A05-8F7C-B40BCC34FD60}">
   <dimension ref="A1:Q24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2010,10 +1989,10 @@
         <v>39</v>
       </c>
       <c r="F7" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G7" s="7" t="s">
         <v>40</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>41</v>
       </c>
       <c r="H7" s="7">
         <v>6</v>
@@ -2022,13 +2001,13 @@
         <v>6891</v>
       </c>
       <c r="J7" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="K7" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="K7" s="7" t="s">
+      <c r="L7" s="7" t="s">
         <v>43</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>44</v>
       </c>
       <c r="M7" s="7">
         <v>9</v>
@@ -2037,13 +2016,13 @@
         <v>10110</v>
       </c>
       <c r="O7" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="P7" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="P7" s="7" t="s">
+      <c r="Q7" s="7" t="s">
         <v>46</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>47</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -2058,13 +2037,13 @@
         <v>47270</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="H8" s="7">
         <v>62</v>
@@ -2073,13 +2052,13 @@
         <v>66021</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="M8" s="7">
         <v>104</v>
@@ -2088,18 +2067,18 @@
         <v>113291</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B9" s="5" t="s">
         <v>10</v>
@@ -2111,13 +2090,13 @@
         <v>3384</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F9" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="H9" s="7">
         <v>1</v>
@@ -2126,13 +2105,13 @@
         <v>1912</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K9" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="M9" s="7">
         <v>3</v>
@@ -2141,13 +2120,13 @@
         <v>5296</v>
       </c>
       <c r="O9" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="P9" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="P9" s="7" t="s">
+      <c r="Q9" s="7" t="s">
         <v>55</v>
-      </c>
-      <c r="Q9" s="7" t="s">
-        <v>56</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -2267,10 +2246,10 @@
         <v>74</v>
       </c>
       <c r="F12" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="G12" s="7" t="s">
         <v>75</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>76</v>
       </c>
       <c r="H12" s="7">
         <v>9</v>
@@ -2279,13 +2258,13 @@
         <v>10286</v>
       </c>
       <c r="J12" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="K12" s="7" t="s">
         <v>77</v>
       </c>
-      <c r="K12" s="7" t="s">
+      <c r="L12" s="7" t="s">
         <v>78</v>
-      </c>
-      <c r="L12" s="7" t="s">
-        <v>79</v>
       </c>
       <c r="M12" s="7">
         <v>16</v>
@@ -2294,13 +2273,13 @@
         <v>17946</v>
       </c>
       <c r="O12" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="P12" s="7" t="s">
         <v>80</v>
       </c>
-      <c r="P12" s="7" t="s">
+      <c r="Q12" s="7" t="s">
         <v>81</v>
-      </c>
-      <c r="Q12" s="7" t="s">
-        <v>82</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -2315,13 +2294,13 @@
         <v>49747</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="H13" s="7">
         <v>26</v>
@@ -2330,13 +2309,13 @@
         <v>30442</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="M13" s="7">
         <v>68</v>
@@ -2345,18 +2324,18 @@
         <v>80188</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B14" s="5" t="s">
         <v>10</v>
@@ -2368,13 +2347,13 @@
         <v>2032</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F14" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="H14" s="7">
         <v>2</v>
@@ -2383,13 +2362,13 @@
         <v>2432</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="K14" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="M14" s="7">
         <v>3</v>
@@ -2398,13 +2377,13 @@
         <v>4464</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="P14" s="7" t="s">
         <v>88</v>
       </c>
-      <c r="P14" s="7" t="s">
+      <c r="Q14" s="7" t="s">
         <v>89</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>90</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2419,13 +2398,13 @@
         <v>3168</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F15" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H15" s="7">
         <v>2</v>
@@ -2434,13 +2413,13 @@
         <v>2055</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="K15" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="M15" s="7">
         <v>4</v>
@@ -2449,13 +2428,13 @@
         <v>5223</v>
       </c>
       <c r="O15" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="P15" s="7" t="s">
         <v>95</v>
       </c>
-      <c r="P15" s="7" t="s">
+      <c r="Q15" s="7" t="s">
         <v>96</v>
-      </c>
-      <c r="Q15" s="7" t="s">
-        <v>97</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -2470,13 +2449,13 @@
         <v>4876</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="F16" s="7" t="s">
         <v>98</v>
       </c>
-      <c r="F16" s="7" t="s">
+      <c r="G16" s="7" t="s">
         <v>99</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>100</v>
       </c>
       <c r="H16" s="7">
         <v>3</v>
@@ -2485,13 +2464,13 @@
         <v>3686</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="K16" s="7" t="s">
         <v>101</v>
       </c>
-      <c r="K16" s="7" t="s">
+      <c r="L16" s="7" t="s">
         <v>102</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>103</v>
       </c>
       <c r="M16" s="7">
         <v>8</v>
@@ -2500,13 +2479,13 @@
         <v>8562</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="P16" s="7" t="s">
         <v>104</v>
       </c>
-      <c r="P16" s="7" t="s">
+      <c r="Q16" s="7" t="s">
         <v>105</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>106</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2521,13 +2500,13 @@
         <v>4495</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="F17" s="7" t="s">
         <v>107</v>
       </c>
-      <c r="F17" s="7" t="s">
+      <c r="G17" s="7" t="s">
         <v>108</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>109</v>
       </c>
       <c r="H17" s="7">
         <v>4</v>
@@ -2536,13 +2515,13 @@
         <v>4316</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="K17" s="7" t="s">
         <v>110</v>
       </c>
-      <c r="K17" s="7" t="s">
+      <c r="L17" s="7" t="s">
         <v>111</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>112</v>
       </c>
       <c r="M17" s="7">
         <v>8</v>
@@ -2551,13 +2530,13 @@
         <v>8811</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="P17" s="7" t="s">
         <v>113</v>
       </c>
-      <c r="P17" s="7" t="s">
+      <c r="Q17" s="7" t="s">
         <v>114</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>115</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2572,13 +2551,13 @@
         <v>14571</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="H18" s="7">
         <v>11</v>
@@ -2587,13 +2566,13 @@
         <v>12489</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="M18" s="7">
         <v>23</v>
@@ -2602,13 +2581,13 @@
         <v>27060</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -2625,13 +2604,13 @@
         <v>5416</v>
       </c>
       <c r="E19" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="F19" s="7" t="s">
         <v>116</v>
       </c>
-      <c r="F19" s="7" t="s">
+      <c r="G19" s="7" t="s">
         <v>117</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>118</v>
       </c>
       <c r="H19" s="7">
         <v>5</v>
@@ -2640,13 +2619,13 @@
         <v>6346</v>
       </c>
       <c r="J19" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="K19" s="7" t="s">
         <v>119</v>
       </c>
-      <c r="K19" s="7" t="s">
+      <c r="L19" s="7" t="s">
         <v>120</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>121</v>
       </c>
       <c r="M19" s="7">
         <v>8</v>
@@ -2655,13 +2634,13 @@
         <v>11761</v>
       </c>
       <c r="O19" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="P19" s="7" t="s">
         <v>122</v>
       </c>
-      <c r="P19" s="7" t="s">
+      <c r="Q19" s="7" t="s">
         <v>123</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>124</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -2676,13 +2655,13 @@
         <v>28142</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="F20" s="7" t="s">
         <v>125</v>
       </c>
-      <c r="F20" s="7" t="s">
+      <c r="G20" s="7" t="s">
         <v>126</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>127</v>
       </c>
       <c r="H20" s="7">
         <v>34</v>
@@ -2691,13 +2670,13 @@
         <v>36677</v>
       </c>
       <c r="J20" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="K20" s="7" t="s">
         <v>128</v>
       </c>
-      <c r="K20" s="7" t="s">
+      <c r="L20" s="7" t="s">
         <v>129</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>130</v>
       </c>
       <c r="M20" s="7">
         <v>58</v>
@@ -2706,13 +2685,13 @@
         <v>64819</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="P20" s="7" t="s">
         <v>131</v>
       </c>
-      <c r="P20" s="7" t="s">
+      <c r="Q20" s="7" t="s">
         <v>132</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>133</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2727,13 +2706,13 @@
         <v>62656</v>
       </c>
       <c r="E21" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="F21" s="7" t="s">
         <v>134</v>
       </c>
-      <c r="F21" s="7" t="s">
+      <c r="G21" s="7" t="s">
         <v>135</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>136</v>
       </c>
       <c r="H21" s="7">
         <v>41</v>
@@ -2742,13 +2721,13 @@
         <v>44437</v>
       </c>
       <c r="J21" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="K21" s="7" t="s">
         <v>137</v>
       </c>
-      <c r="K21" s="7" t="s">
+      <c r="L21" s="7" t="s">
         <v>138</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>139</v>
       </c>
       <c r="M21" s="7">
         <v>96</v>
@@ -2757,13 +2736,13 @@
         <v>107092</v>
       </c>
       <c r="O21" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="P21" s="7" t="s">
         <v>140</v>
       </c>
-      <c r="P21" s="7" t="s">
+      <c r="Q21" s="7" t="s">
         <v>141</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>142</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -2778,13 +2757,13 @@
         <v>15373</v>
       </c>
       <c r="E22" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="F22" s="7" t="s">
         <v>143</v>
       </c>
-      <c r="F22" s="7" t="s">
+      <c r="G22" s="7" t="s">
         <v>144</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>145</v>
       </c>
       <c r="H22" s="7">
         <v>19</v>
@@ -2793,13 +2772,13 @@
         <v>21494</v>
       </c>
       <c r="J22" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="K22" s="7" t="s">
         <v>146</v>
       </c>
-      <c r="K22" s="7" t="s">
+      <c r="L22" s="7" t="s">
         <v>147</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>148</v>
       </c>
       <c r="M22" s="7">
         <v>33</v>
@@ -2808,13 +2787,13 @@
         <v>36867</v>
       </c>
       <c r="O22" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="P22" s="7" t="s">
         <v>149</v>
       </c>
-      <c r="P22" s="7" t="s">
+      <c r="Q22" s="7" t="s">
         <v>150</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>151</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2829,13 +2808,13 @@
         <v>111587</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="H23" s="7">
         <v>99</v>
@@ -2844,13 +2823,13 @@
         <v>108953</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="M23" s="7">
         <v>195</v>
@@ -2859,18 +2838,18 @@
         <v>220539</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
   </sheetData>
@@ -2889,7 +2868,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{463441C6-B557-48BA-B42A-A084DAF96AA9}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BCEA4A5B-249D-4A5E-917F-3E7D2C568BEB}">
   <dimension ref="A1:Q24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2906,7 +2885,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3013,13 +2992,13 @@
         <v>1138</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="F4" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="H4" s="7">
         <v>2</v>
@@ -3028,13 +3007,13 @@
         <v>2359</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="K4" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="M4" s="7">
         <v>3</v>
@@ -3043,13 +3022,13 @@
         <v>3497</v>
       </c>
       <c r="O4" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="P4" s="7" t="s">
         <v>158</v>
       </c>
-      <c r="P4" s="7" t="s">
+      <c r="Q4" s="7" t="s">
         <v>159</v>
-      </c>
-      <c r="Q4" s="7" t="s">
-        <v>160</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3064,13 +3043,13 @@
         <v>14533</v>
       </c>
       <c r="E5" s="7" t="s">
+        <v>160</v>
+      </c>
+      <c r="F5" s="7" t="s">
         <v>161</v>
       </c>
-      <c r="F5" s="7" t="s">
+      <c r="G5" s="7" t="s">
         <v>162</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>163</v>
       </c>
       <c r="H5" s="7">
         <v>15</v>
@@ -3079,13 +3058,13 @@
         <v>17179</v>
       </c>
       <c r="J5" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="K5" s="7" t="s">
         <v>164</v>
       </c>
-      <c r="K5" s="7" t="s">
+      <c r="L5" s="7" t="s">
         <v>165</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>166</v>
       </c>
       <c r="M5" s="7">
         <v>31</v>
@@ -3094,13 +3073,13 @@
         <v>31712</v>
       </c>
       <c r="O5" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="P5" s="7" t="s">
         <v>167</v>
       </c>
-      <c r="P5" s="7" t="s">
+      <c r="Q5" s="7" t="s">
         <v>168</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>169</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3115,13 +3094,13 @@
         <v>31875</v>
       </c>
       <c r="E6" s="7" t="s">
+        <v>169</v>
+      </c>
+      <c r="F6" s="7" t="s">
         <v>170</v>
       </c>
-      <c r="F6" s="7" t="s">
+      <c r="G6" s="7" t="s">
         <v>171</v>
-      </c>
-      <c r="G6" s="7" t="s">
-        <v>172</v>
       </c>
       <c r="H6" s="7">
         <v>33</v>
@@ -3130,13 +3109,13 @@
         <v>38492</v>
       </c>
       <c r="J6" s="7" t="s">
+        <v>172</v>
+      </c>
+      <c r="K6" s="7" t="s">
         <v>173</v>
       </c>
-      <c r="K6" s="7" t="s">
+      <c r="L6" s="7" t="s">
         <v>174</v>
-      </c>
-      <c r="L6" s="7" t="s">
-        <v>175</v>
       </c>
       <c r="M6" s="7">
         <v>67</v>
@@ -3145,13 +3124,13 @@
         <v>70367</v>
       </c>
       <c r="O6" s="7" t="s">
+        <v>175</v>
+      </c>
+      <c r="P6" s="7" t="s">
         <v>176</v>
       </c>
-      <c r="P6" s="7" t="s">
+      <c r="Q6" s="7" t="s">
         <v>177</v>
-      </c>
-      <c r="Q6" s="7" t="s">
-        <v>178</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -3166,13 +3145,13 @@
         <v>6953</v>
       </c>
       <c r="E7" s="7" t="s">
+        <v>178</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="G7" s="7" t="s">
         <v>179</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>180</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>181</v>
       </c>
       <c r="H7" s="7">
         <v>3</v>
@@ -3181,13 +3160,13 @@
         <v>3227</v>
       </c>
       <c r="J7" s="7" t="s">
+        <v>180</v>
+      </c>
+      <c r="K7" s="7" t="s">
+        <v>181</v>
+      </c>
+      <c r="L7" s="7" t="s">
         <v>182</v>
-      </c>
-      <c r="K7" s="7" t="s">
-        <v>183</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>184</v>
       </c>
       <c r="M7" s="7">
         <v>10</v>
@@ -3196,13 +3175,13 @@
         <v>10181</v>
       </c>
       <c r="O7" s="7" t="s">
+        <v>183</v>
+      </c>
+      <c r="P7" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="Q7" s="7" t="s">
         <v>185</v>
-      </c>
-      <c r="P7" s="7" t="s">
-        <v>186</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>187</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3217,13 +3196,13 @@
         <v>54499</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="H8" s="7">
         <v>53</v>
@@ -3232,13 +3211,13 @@
         <v>61258</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="M8" s="7">
         <v>111</v>
@@ -3247,18 +3226,18 @@
         <v>115757</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B9" s="5" t="s">
         <v>10</v>
@@ -3270,13 +3249,13 @@
         <v>5095</v>
       </c>
       <c r="E9" s="7" t="s">
+        <v>186</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>187</v>
+      </c>
+      <c r="G9" s="7" t="s">
         <v>188</v>
-      </c>
-      <c r="F9" s="7" t="s">
-        <v>189</v>
-      </c>
-      <c r="G9" s="7" t="s">
-        <v>190</v>
       </c>
       <c r="H9" s="7">
         <v>0</v>
@@ -3291,7 +3270,7 @@
         <v>12</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="M9" s="7">
         <v>5</v>
@@ -3300,13 +3279,13 @@
         <v>5095</v>
       </c>
       <c r="O9" s="7" t="s">
+        <v>190</v>
+      </c>
+      <c r="P9" s="7" t="s">
+        <v>191</v>
+      </c>
+      <c r="Q9" s="7" t="s">
         <v>192</v>
-      </c>
-      <c r="P9" s="7" t="s">
-        <v>193</v>
-      </c>
-      <c r="Q9" s="7" t="s">
-        <v>194</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -3321,13 +3300,13 @@
         <v>13805</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>193</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>194</v>
+      </c>
+      <c r="G10" s="7" t="s">
         <v>195</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>196</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>197</v>
       </c>
       <c r="H10" s="7">
         <v>13</v>
@@ -3336,13 +3315,13 @@
         <v>14809</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>196</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>197</v>
+      </c>
+      <c r="L10" s="7" t="s">
         <v>198</v>
-      </c>
-      <c r="K10" s="7" t="s">
-        <v>199</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>200</v>
       </c>
       <c r="M10" s="7">
         <v>26</v>
@@ -3351,13 +3330,13 @@
         <v>28614</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>199</v>
+      </c>
+      <c r="P10" s="7" t="s">
+        <v>200</v>
+      </c>
+      <c r="Q10" s="7" t="s">
         <v>201</v>
-      </c>
-      <c r="P10" s="7" t="s">
-        <v>202</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>203</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3372,13 +3351,13 @@
         <v>40165</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>202</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>203</v>
+      </c>
+      <c r="G11" s="7" t="s">
         <v>204</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>205</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>206</v>
       </c>
       <c r="H11" s="7">
         <v>13</v>
@@ -3387,13 +3366,13 @@
         <v>14947</v>
       </c>
       <c r="J11" s="7" t="s">
+        <v>205</v>
+      </c>
+      <c r="K11" s="7" t="s">
+        <v>206</v>
+      </c>
+      <c r="L11" s="7" t="s">
         <v>207</v>
-      </c>
-      <c r="K11" s="7" t="s">
-        <v>208</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>209</v>
       </c>
       <c r="M11" s="7">
         <v>50</v>
@@ -3402,13 +3381,13 @@
         <v>55112</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>208</v>
+      </c>
+      <c r="P11" s="7" t="s">
+        <v>209</v>
+      </c>
+      <c r="Q11" s="7" t="s">
         <v>210</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>211</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>212</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3423,13 +3402,13 @@
         <v>17439</v>
       </c>
       <c r="E12" s="7" t="s">
+        <v>211</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>212</v>
+      </c>
+      <c r="G12" s="7" t="s">
         <v>213</v>
-      </c>
-      <c r="F12" s="7" t="s">
-        <v>214</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>215</v>
       </c>
       <c r="H12" s="7">
         <v>6</v>
@@ -3438,13 +3417,13 @@
         <v>6686</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>216</v>
+        <v>55</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="M12" s="7">
         <v>22</v>
@@ -3453,13 +3432,13 @@
         <v>24125</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -3474,13 +3453,13 @@
         <v>76504</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="H13" s="7">
         <v>32</v>
@@ -3489,13 +3468,13 @@
         <v>36443</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="M13" s="7">
         <v>103</v>
@@ -3504,18 +3483,18 @@
         <v>112946</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B14" s="5" t="s">
         <v>10</v>
@@ -3527,13 +3506,13 @@
         <v>5576</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="H14" s="7">
         <v>3</v>
@@ -3542,13 +3521,13 @@
         <v>3348</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="M14" s="7">
         <v>8</v>
@@ -3557,13 +3536,13 @@
         <v>8924</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3578,13 +3557,13 @@
         <v>827</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="F15" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="H15" s="7">
         <v>1</v>
@@ -3593,13 +3572,13 @@
         <v>1819</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="K15" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="M15" s="7">
         <v>2</v>
@@ -3608,13 +3587,13 @@
         <v>2647</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="P15" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -3629,13 +3608,13 @@
         <v>16057</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="H16" s="7">
         <v>5</v>
@@ -3644,13 +3623,13 @@
         <v>5166</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="M16" s="7">
         <v>18</v>
@@ -3659,13 +3638,13 @@
         <v>21224</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3680,13 +3659,13 @@
         <v>6482</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="H17" s="7">
         <v>4</v>
@@ -3695,13 +3674,13 @@
         <v>5810</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>249</v>
+        <v>168</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="M17" s="7">
         <v>10</v>
@@ -3710,13 +3689,13 @@
         <v>12292</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3731,13 +3710,13 @@
         <v>28943</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="H18" s="7">
         <v>13</v>
@@ -3746,13 +3725,13 @@
         <v>16143</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="M18" s="7">
         <v>38</v>
@@ -3761,13 +3740,13 @@
         <v>45087</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -3784,13 +3763,13 @@
         <v>11809</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="H19" s="7">
         <v>5</v>
@@ -3799,13 +3778,13 @@
         <v>5707</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="M19" s="7">
         <v>16</v>
@@ -3814,13 +3793,13 @@
         <v>17516</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -3835,13 +3814,13 @@
         <v>29165</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="H20" s="7">
         <v>29</v>
@@ -3850,13 +3829,13 @@
         <v>33808</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="M20" s="7">
         <v>59</v>
@@ -3865,13 +3844,13 @@
         <v>62974</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>270</v>
+        <v>150</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>271</v>
+        <v>266</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>272</v>
+        <v>267</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3886,13 +3865,13 @@
         <v>88097</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>273</v>
+        <v>268</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>274</v>
+        <v>269</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>275</v>
+        <v>270</v>
       </c>
       <c r="H21" s="7">
         <v>51</v>
@@ -3901,13 +3880,13 @@
         <v>58606</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>276</v>
+        <v>271</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>277</v>
+        <v>272</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>278</v>
+        <v>273</v>
       </c>
       <c r="M21" s="7">
         <v>135</v>
@@ -3916,13 +3895,13 @@
         <v>146703</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>279</v>
+        <v>274</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>280</v>
+        <v>275</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>281</v>
+        <v>276</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -3937,13 +3916,13 @@
         <v>30875</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>282</v>
+        <v>277</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>283</v>
+        <v>278</v>
       </c>
       <c r="H22" s="7">
         <v>13</v>
@@ -3952,13 +3931,13 @@
         <v>15723</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>284</v>
+        <v>279</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>285</v>
+        <v>280</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>286</v>
+        <v>281</v>
       </c>
       <c r="M22" s="7">
         <v>42</v>
@@ -3967,13 +3946,13 @@
         <v>46598</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>287</v>
+        <v>125</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>288</v>
+        <v>282</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>289</v>
+        <v>283</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -3988,13 +3967,13 @@
         <v>159946</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="H23" s="7">
         <v>98</v>
@@ -4003,13 +3982,13 @@
         <v>113844</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="M23" s="7">
         <v>252</v>
@@ -4018,18 +3997,18 @@
         <v>273791</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
   </sheetData>
@@ -4048,7 +4027,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0A63679B-8254-491C-B1A3-E38FA4339F1D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2D619450-03BD-4D7B-9289-36270B19F70A}">
   <dimension ref="A1:Q24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4065,7 +4044,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>290</v>
+        <v>284</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4172,13 +4151,13 @@
         <v>2698</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>291</v>
+        <v>285</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>292</v>
+        <v>286</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="H4" s="7">
         <v>5</v>
@@ -4187,13 +4166,13 @@
         <v>2749</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>293</v>
+        <v>287</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>294</v>
+        <v>288</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>295</v>
+        <v>289</v>
       </c>
       <c r="M4" s="7">
         <v>9</v>
@@ -4202,13 +4181,13 @@
         <v>5447</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>296</v>
+        <v>290</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>297</v>
+        <v>291</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>298</v>
+        <v>292</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4223,13 +4202,13 @@
         <v>37329</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>299</v>
+        <v>293</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>300</v>
+        <v>294</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>301</v>
+        <v>295</v>
       </c>
       <c r="H5" s="7">
         <v>78</v>
@@ -4238,13 +4217,13 @@
         <v>41543</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>302</v>
+        <v>296</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>303</v>
+        <v>297</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>304</v>
+        <v>298</v>
       </c>
       <c r="M5" s="7">
         <v>127</v>
@@ -4253,13 +4232,13 @@
         <v>78872</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>305</v>
+        <v>299</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>306</v>
+        <v>300</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>307</v>
+        <v>301</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4274,13 +4253,13 @@
         <v>83056</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>308</v>
+        <v>302</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>309</v>
+        <v>303</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>310</v>
+        <v>304</v>
       </c>
       <c r="H6" s="7">
         <v>198</v>
@@ -4289,13 +4268,13 @@
         <v>119968</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>311</v>
+        <v>305</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>312</v>
+        <v>306</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>313</v>
+        <v>307</v>
       </c>
       <c r="M6" s="7">
         <v>313</v>
@@ -4304,13 +4283,13 @@
         <v>203024</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>314</v>
+        <v>308</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>315</v>
+        <v>309</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>316</v>
+        <v>310</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -4325,13 +4304,13 @@
         <v>24892</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>317</v>
+        <v>311</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>318</v>
+        <v>312</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>319</v>
+        <v>313</v>
       </c>
       <c r="H7" s="7">
         <v>39</v>
@@ -4340,13 +4319,13 @@
         <v>23482</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>320</v>
+        <v>314</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>321</v>
+        <v>315</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>322</v>
+        <v>316</v>
       </c>
       <c r="M7" s="7">
         <v>72</v>
@@ -4355,13 +4334,13 @@
         <v>48374</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>323</v>
+        <v>317</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>324</v>
+        <v>318</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>325</v>
+        <v>319</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4376,13 +4355,13 @@
         <v>147976</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="H8" s="7">
         <v>320</v>
@@ -4391,13 +4370,13 @@
         <v>187742</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="M8" s="7">
         <v>521</v>
@@ -4406,18 +4385,18 @@
         <v>335717</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B9" s="5" t="s">
         <v>10</v>
@@ -4429,13 +4408,13 @@
         <v>9282</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>326</v>
+        <v>320</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>327</v>
+        <v>321</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>328</v>
+        <v>322</v>
       </c>
       <c r="H9" s="7">
         <v>10</v>
@@ -4444,13 +4423,13 @@
         <v>6232</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>329</v>
+        <v>323</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>330</v>
+        <v>324</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>331</v>
+        <v>325</v>
       </c>
       <c r="M9" s="7">
         <v>21</v>
@@ -4459,13 +4438,13 @@
         <v>15514</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>332</v>
+        <v>326</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>333</v>
+        <v>327</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>46</v>
+        <v>328</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -4480,13 +4459,13 @@
         <v>65545</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>334</v>
+        <v>329</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>335</v>
+        <v>330</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>336</v>
+        <v>331</v>
       </c>
       <c r="H10" s="7">
         <v>112</v>
@@ -4495,13 +4474,13 @@
         <v>63746</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>337</v>
+        <v>332</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>338</v>
+        <v>333</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>339</v>
+        <v>334</v>
       </c>
       <c r="M10" s="7">
         <v>187</v>
@@ -4510,13 +4489,13 @@
         <v>129290</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>338</v>
+        <v>333</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>340</v>
+        <v>335</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>341</v>
+        <v>336</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4531,13 +4510,13 @@
         <v>185925</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>342</v>
+        <v>337</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>343</v>
+        <v>338</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>344</v>
+        <v>339</v>
       </c>
       <c r="H11" s="7">
         <v>189</v>
@@ -4546,13 +4525,13 @@
         <v>110518</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>345</v>
+        <v>340</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>346</v>
+        <v>341</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>347</v>
+        <v>342</v>
       </c>
       <c r="M11" s="7">
         <v>357</v>
@@ -4561,13 +4540,13 @@
         <v>296443</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>348</v>
+        <v>343</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>349</v>
+        <v>344</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>350</v>
+        <v>345</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4582,13 +4561,13 @@
         <v>64895</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>351</v>
+        <v>167</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>352</v>
+        <v>346</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>353</v>
+        <v>347</v>
       </c>
       <c r="H12" s="7">
         <v>86</v>
@@ -4597,13 +4576,13 @@
         <v>52406</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>354</v>
+        <v>348</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>355</v>
+        <v>349</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>356</v>
+        <v>350</v>
       </c>
       <c r="M12" s="7">
         <v>165</v>
@@ -4612,13 +4591,13 @@
         <v>117302</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>357</v>
+        <v>351</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>358</v>
+        <v>352</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>359</v>
+        <v>353</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -4633,13 +4612,13 @@
         <v>325647</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="H13" s="7">
         <v>397</v>
@@ -4648,13 +4627,13 @@
         <v>232902</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="M13" s="7">
         <v>730</v>
@@ -4663,18 +4642,18 @@
         <v>558549</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B14" s="5" t="s">
         <v>10</v>
@@ -4686,13 +4665,13 @@
         <v>6398</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>360</v>
+        <v>354</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>361</v>
+        <v>355</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>362</v>
+        <v>356</v>
       </c>
       <c r="H14" s="7">
         <v>14</v>
@@ -4701,13 +4680,13 @@
         <v>8055</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>363</v>
+        <v>357</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>364</v>
+        <v>358</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>365</v>
+        <v>359</v>
       </c>
       <c r="M14" s="7">
         <v>23</v>
@@ -4716,13 +4695,13 @@
         <v>14454</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>366</v>
+        <v>360</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>367</v>
+        <v>361</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>368</v>
+        <v>362</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4737,13 +4716,13 @@
         <v>32741</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>369</v>
+        <v>363</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>370</v>
+        <v>364</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>371</v>
+        <v>126</v>
       </c>
       <c r="H15" s="7">
         <v>46</v>
@@ -4752,13 +4731,13 @@
         <v>25733</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>372</v>
+        <v>365</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>270</v>
+        <v>150</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>373</v>
+        <v>366</v>
       </c>
       <c r="M15" s="7">
         <v>85</v>
@@ -4767,13 +4746,13 @@
         <v>58475</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>374</v>
+        <v>367</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>375</v>
+        <v>368</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>376</v>
+        <v>369</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -4788,13 +4767,13 @@
         <v>50377</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>377</v>
+        <v>165</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>378</v>
+        <v>370</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>379</v>
+        <v>371</v>
       </c>
       <c r="H16" s="7">
         <v>57</v>
@@ -4803,13 +4782,13 @@
         <v>33267</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>380</v>
+        <v>372</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>76</v>
+        <v>373</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>381</v>
+        <v>374</v>
       </c>
       <c r="M16" s="7">
         <v>121</v>
@@ -4818,13 +4797,13 @@
         <v>83644</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>382</v>
+        <v>375</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>383</v>
+        <v>376</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>384</v>
+        <v>377</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4839,13 +4818,13 @@
         <v>31482</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>385</v>
+        <v>378</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>386</v>
+        <v>20</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>387</v>
+        <v>379</v>
       </c>
       <c r="H17" s="7">
         <v>33</v>
@@ -4854,13 +4833,13 @@
         <v>19715</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>388</v>
+        <v>380</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>389</v>
+        <v>381</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>390</v>
+        <v>382</v>
       </c>
       <c r="M17" s="7">
         <v>70</v>
@@ -4869,13 +4848,13 @@
         <v>51197</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>391</v>
+        <v>383</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>392</v>
+        <v>384</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>393</v>
+        <v>385</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4890,13 +4869,13 @@
         <v>120999</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="H18" s="7">
         <v>150</v>
@@ -4905,13 +4884,13 @@
         <v>86771</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="M18" s="7">
         <v>299</v>
@@ -4920,13 +4899,13 @@
         <v>207770</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -4943,13 +4922,13 @@
         <v>18379</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>394</v>
+        <v>386</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>395</v>
+        <v>387</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>396</v>
+        <v>388</v>
       </c>
       <c r="H19" s="7">
         <v>29</v>
@@ -4958,13 +4937,13 @@
         <v>17036</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>397</v>
+        <v>389</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>398</v>
+        <v>390</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>399</v>
+        <v>391</v>
       </c>
       <c r="M19" s="7">
         <v>53</v>
@@ -4973,13 +4952,13 @@
         <v>35415</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>400</v>
+        <v>392</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>401</v>
+        <v>393</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>402</v>
+        <v>394</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4994,13 +4973,13 @@
         <v>135616</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>403</v>
+        <v>395</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>404</v>
+        <v>396</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>405</v>
+        <v>397</v>
       </c>
       <c r="H20" s="7">
         <v>236</v>
@@ -5009,13 +4988,13 @@
         <v>131022</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>406</v>
+        <v>398</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>407</v>
+        <v>399</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>408</v>
+        <v>400</v>
       </c>
       <c r="M20" s="7">
         <v>399</v>
@@ -5024,13 +5003,13 @@
         <v>266637</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>409</v>
+        <v>401</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>410</v>
+        <v>402</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>405</v>
+        <v>397</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5045,13 +5024,13 @@
         <v>319358</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>411</v>
+        <v>403</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>412</v>
+        <v>404</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>100</v>
+        <v>405</v>
       </c>
       <c r="H21" s="7">
         <v>444</v>
@@ -5060,13 +5039,13 @@
         <v>263753</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>413</v>
+        <v>406</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>414</v>
+        <v>407</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>415</v>
+        <v>408</v>
       </c>
       <c r="M21" s="7">
         <v>791</v>
@@ -5075,13 +5054,13 @@
         <v>583112</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>416</v>
+        <v>409</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>417</v>
+        <v>410</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>418</v>
+        <v>411</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -5096,13 +5075,13 @@
         <v>121269</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>419</v>
+        <v>412</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>420</v>
+        <v>413</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>421</v>
+        <v>414</v>
       </c>
       <c r="H22" s="7">
         <v>158</v>
@@ -5111,13 +5090,13 @@
         <v>95603</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>422</v>
+        <v>415</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>423</v>
+        <v>416</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>424</v>
+        <v>417</v>
       </c>
       <c r="M22" s="7">
         <v>307</v>
@@ -5126,13 +5105,13 @@
         <v>216872</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>300</v>
+        <v>294</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>425</v>
+        <v>418</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>426</v>
+        <v>419</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -5147,13 +5126,13 @@
         <v>594622</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="H23" s="7">
         <v>867</v>
@@ -5162,13 +5141,13 @@
         <v>507414</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="M23" s="7">
         <v>1550</v>
@@ -5177,18 +5156,18 @@
         <v>1102036</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P44C-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P44C-Estudios-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{3A2647E6-6E73-448B-99CA-AEEE4F476178}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{54026050-F591-4377-B36F-904733530A62}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{C23B9519-5A44-4F88-AC9C-A88DF0694946}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{BE78F8F0-65B7-4D2B-AD6D-EA9476B50C9B}"/>
   </bookViews>
   <sheets>
     <sheet name="2012" sheetId="2" r:id="rId1"/>
@@ -85,13 +85,13 @@
     <t>3,03%</t>
   </si>
   <si>
-    <t>10,84%</t>
+    <t>10,55%</t>
   </si>
   <si>
     <t>1,77%</t>
   </si>
   <si>
-    <t>6,3%</t>
+    <t>5,68%</t>
   </si>
   <si>
     <t>Me lo sugirió otro médico especialista del SAS</t>
@@ -103,25 +103,25 @@
     <t>18,93%</t>
   </si>
   <si>
-    <t>46,94%</t>
+    <t>49,07%</t>
   </si>
   <si>
     <t>39,28%</t>
   </si>
   <si>
-    <t>27,42%</t>
-  </si>
-  <si>
-    <t>51,34%</t>
+    <t>27,37%</t>
+  </si>
+  <si>
+    <t>51,0%</t>
   </si>
   <si>
     <t>36,56%</t>
   </si>
   <si>
-    <t>27,53%</t>
-  </si>
-  <si>
-    <t>46,81%</t>
+    <t>27,4%</t>
+  </si>
+  <si>
+    <t>46,37%</t>
   </si>
   <si>
     <t>Me lo sugirió mi médico de cabecera</t>
@@ -130,28 +130,28 @@
     <t>60,44%</t>
   </si>
   <si>
-    <t>45,42%</t>
-  </si>
-  <si>
-    <t>74,78%</t>
+    <t>44,36%</t>
+  </si>
+  <si>
+    <t>76,65%</t>
   </si>
   <si>
     <t>47,25%</t>
   </si>
   <si>
-    <t>35,87%</t>
-  </si>
-  <si>
-    <t>60,26%</t>
+    <t>35,43%</t>
+  </si>
+  <si>
+    <t>60,32%</t>
   </si>
   <si>
     <t>52,75%</t>
   </si>
   <si>
-    <t>42,72%</t>
-  </si>
-  <si>
-    <t>62,6%</t>
+    <t>42,93%</t>
+  </si>
+  <si>
+    <t>62,32%</t>
   </si>
   <si>
     <t>Lo solicité yo mismo/a</t>
@@ -160,25 +160,25 @@
     <t>6,81%</t>
   </si>
   <si>
-    <t>16,7%</t>
+    <t>1,4%</t>
+  </si>
+  <si>
+    <t>18,22%</t>
   </si>
   <si>
     <t>10,44%</t>
   </si>
   <si>
-    <t>4,35%</t>
-  </si>
-  <si>
-    <t>21,2%</t>
+    <t>22,7%</t>
   </si>
   <si>
     <t>8,92%</t>
   </si>
   <si>
-    <t>4,34%</t>
-  </si>
-  <si>
-    <t>16,46%</t>
+    <t>4,37%</t>
+  </si>
+  <si>
+    <t>15,4%</t>
   </si>
   <si>
     <t>100%</t>
@@ -190,1114 +190,1114 @@
     <t>6,8%</t>
   </si>
   <si>
-    <t>25,51%</t>
+    <t>24,25%</t>
   </si>
   <si>
     <t>6,28%</t>
   </si>
   <si>
-    <t>29,06%</t>
+    <t>30,38%</t>
   </si>
   <si>
     <t>6,6%</t>
   </si>
   <si>
-    <t>1,23%</t>
+    <t>1,24%</t>
+  </si>
+  <si>
+    <t>18,07%</t>
+  </si>
+  <si>
+    <t>19,08%</t>
+  </si>
+  <si>
+    <t>8,83%</t>
+  </si>
+  <si>
+    <t>33,46%</t>
+  </si>
+  <si>
+    <t>28,54%</t>
+  </si>
+  <si>
+    <t>12,87%</t>
+  </si>
+  <si>
+    <t>50,5%</t>
+  </si>
+  <si>
+    <t>22,67%</t>
+  </si>
+  <si>
+    <t>13,32%</t>
+  </si>
+  <si>
+    <t>32,9%</t>
+  </si>
+  <si>
+    <t>58,72%</t>
+  </si>
+  <si>
+    <t>43,39%</t>
+  </si>
+  <si>
+    <t>72,53%</t>
+  </si>
+  <si>
+    <t>31,39%</t>
+  </si>
+  <si>
+    <t>16,28%</t>
+  </si>
+  <si>
+    <t>52,21%</t>
+  </si>
+  <si>
+    <t>48,34%</t>
+  </si>
+  <si>
+    <t>36,51%</t>
+  </si>
+  <si>
+    <t>61,63%</t>
+  </si>
+  <si>
+    <t>6,51%</t>
+  </si>
+  <si>
+    <t>28,41%</t>
+  </si>
+  <si>
+    <t>33,79%</t>
+  </si>
+  <si>
+    <t>17,55%</t>
+  </si>
+  <si>
+    <t>53,56%</t>
+  </si>
+  <si>
+    <t>22,38%</t>
+  </si>
+  <si>
+    <t>13,6%</t>
+  </si>
+  <si>
+    <t>32,66%</t>
+  </si>
+  <si>
+    <t>Universitarios</t>
+  </si>
+  <si>
+    <t>13,94%</t>
+  </si>
+  <si>
+    <t>50,14%</t>
+  </si>
+  <si>
+    <t>19,48%</t>
+  </si>
+  <si>
+    <t>51,17%</t>
+  </si>
+  <si>
+    <t>16,5%</t>
+  </si>
+  <si>
+    <t>3,89%</t>
+  </si>
+  <si>
+    <t>38,65%</t>
+  </si>
+  <si>
+    <t>21,74%</t>
+  </si>
+  <si>
+    <t>57,37%</t>
+  </si>
+  <si>
+    <t>16,45%</t>
+  </si>
+  <si>
+    <t>44,64%</t>
+  </si>
+  <si>
+    <t>19,3%</t>
+  </si>
+  <si>
+    <t>7,1%</t>
+  </si>
+  <si>
+    <t>43,1%</t>
+  </si>
+  <si>
+    <t>33,47%</t>
+  </si>
+  <si>
+    <t>12,39%</t>
+  </si>
+  <si>
+    <t>63,18%</t>
+  </si>
+  <si>
+    <t>29,51%</t>
+  </si>
+  <si>
+    <t>7,94%</t>
+  </si>
+  <si>
+    <t>64,39%</t>
+  </si>
+  <si>
+    <t>31,64%</t>
+  </si>
+  <si>
+    <t>14,69%</t>
+  </si>
+  <si>
+    <t>53,09%</t>
+  </si>
+  <si>
+    <t>30,85%</t>
+  </si>
+  <si>
+    <t>7,49%</t>
+  </si>
+  <si>
+    <t>62,45%</t>
+  </si>
+  <si>
+    <t>34,56%</t>
+  </si>
+  <si>
+    <t>8,59%</t>
+  </si>
+  <si>
+    <t>64,63%</t>
+  </si>
+  <si>
+    <t>32,56%</t>
+  </si>
+  <si>
+    <t>16,19%</t>
+  </si>
+  <si>
+    <t>55,89%</t>
+  </si>
+  <si>
+    <t>4,85%</t>
+  </si>
+  <si>
+    <t>0,86%</t>
+  </si>
+  <si>
+    <t>13,64%</t>
+  </si>
+  <si>
+    <t>5,82%</t>
+  </si>
+  <si>
+    <t>2,02%</t>
+  </si>
+  <si>
+    <t>13,81%</t>
+  </si>
+  <si>
+    <t>5,33%</t>
+  </si>
+  <si>
+    <t>2,33%</t>
+  </si>
+  <si>
+    <t>10,24%</t>
+  </si>
+  <si>
+    <t>25,22%</t>
+  </si>
+  <si>
+    <t>17,16%</t>
+  </si>
+  <si>
+    <t>35,76%</t>
+  </si>
+  <si>
+    <t>33,66%</t>
+  </si>
+  <si>
+    <t>25,28%</t>
+  </si>
+  <si>
+    <t>44,22%</t>
+  </si>
+  <si>
+    <t>29,39%</t>
+  </si>
+  <si>
+    <t>22,92%</t>
+  </si>
+  <si>
+    <t>36,22%</t>
+  </si>
+  <si>
+    <t>56,15%</t>
+  </si>
+  <si>
+    <t>46,6%</t>
+  </si>
+  <si>
+    <t>66,52%</t>
+  </si>
+  <si>
+    <t>40,79%</t>
+  </si>
+  <si>
+    <t>31,71%</t>
+  </si>
+  <si>
+    <t>50,58%</t>
+  </si>
+  <si>
+    <t>48,56%</t>
+  </si>
+  <si>
+    <t>41,55%</t>
+  </si>
+  <si>
+    <t>55,99%</t>
+  </si>
+  <si>
+    <t>13,78%</t>
+  </si>
+  <si>
+    <t>8,21%</t>
+  </si>
+  <si>
+    <t>21,05%</t>
+  </si>
+  <si>
+    <t>19,73%</t>
+  </si>
+  <si>
+    <t>12,41%</t>
+  </si>
+  <si>
+    <t>28,49%</t>
+  </si>
+  <si>
+    <t>16,72%</t>
+  </si>
+  <si>
+    <t>11,69%</t>
+  </si>
+  <si>
+    <t>22,21%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población según la persona que le recomendó realizarse la prueba de Cáncer de colon en 2016 (Tasa respuesta: 3,87%)</t>
+  </si>
+  <si>
+    <t>2,09%</t>
+  </si>
+  <si>
+    <t>9,98%</t>
+  </si>
+  <si>
+    <t>3,85%</t>
+  </si>
+  <si>
+    <t>3,02%</t>
+  </si>
+  <si>
+    <t>0,96%</t>
+  </si>
+  <si>
+    <t>8,8%</t>
+  </si>
+  <si>
+    <t>26,67%</t>
+  </si>
+  <si>
+    <t>16,12%</t>
+  </si>
+  <si>
+    <t>39,64%</t>
+  </si>
+  <si>
+    <t>28,04%</t>
+  </si>
+  <si>
+    <t>17,2%</t>
+  </si>
+  <si>
+    <t>40,77%</t>
+  </si>
+  <si>
+    <t>20,14%</t>
+  </si>
+  <si>
+    <t>35,91%</t>
+  </si>
+  <si>
+    <t>58,49%</t>
+  </si>
+  <si>
+    <t>45,77%</t>
+  </si>
+  <si>
+    <t>71,16%</t>
+  </si>
+  <si>
+    <t>62,84%</t>
+  </si>
+  <si>
+    <t>49,79%</t>
+  </si>
+  <si>
+    <t>74,28%</t>
+  </si>
+  <si>
+    <t>60,79%</t>
+  </si>
+  <si>
+    <t>51,81%</t>
+  </si>
+  <si>
+    <t>69,3%</t>
+  </si>
+  <si>
+    <t>12,76%</t>
+  </si>
+  <si>
+    <t>5,65%</t>
+  </si>
+  <si>
+    <t>24,09%</t>
+  </si>
+  <si>
+    <t>5,27%</t>
+  </si>
+  <si>
+    <t>1,64%</t>
+  </si>
+  <si>
+    <t>14,35%</t>
+  </si>
+  <si>
+    <t>4,31%</t>
+  </si>
+  <si>
+    <t>6,66%</t>
+  </si>
+  <si>
+    <t>2,49%</t>
+  </si>
+  <si>
+    <t>15,02%</t>
+  </si>
+  <si>
+    <t>5,78%</t>
+  </si>
+  <si>
+    <t>4,51%</t>
+  </si>
+  <si>
+    <t>1,73%</t>
+  </si>
+  <si>
+    <t>10,09%</t>
+  </si>
+  <si>
+    <t>18,04%</t>
+  </si>
+  <si>
+    <t>9,99%</t>
+  </si>
+  <si>
+    <t>27,91%</t>
+  </si>
+  <si>
+    <t>40,64%</t>
+  </si>
+  <si>
+    <t>24,86%</t>
+  </si>
+  <si>
+    <t>59,11%</t>
+  </si>
+  <si>
+    <t>25,33%</t>
+  </si>
+  <si>
+    <t>17,79%</t>
+  </si>
+  <si>
+    <t>34,96%</t>
+  </si>
+  <si>
+    <t>52,5%</t>
+  </si>
+  <si>
+    <t>41,77%</t>
+  </si>
+  <si>
+    <t>64,79%</t>
+  </si>
+  <si>
+    <t>41,02%</t>
+  </si>
+  <si>
+    <t>23,14%</t>
+  </si>
+  <si>
+    <t>58,42%</t>
+  </si>
+  <si>
+    <t>48,79%</t>
+  </si>
+  <si>
+    <t>39,63%</t>
+  </si>
+  <si>
+    <t>58,7%</t>
+  </si>
+  <si>
+    <t>22,8%</t>
+  </si>
+  <si>
+    <t>13,51%</t>
+  </si>
+  <si>
+    <t>33,52%</t>
   </si>
   <si>
     <t>18,35%</t>
   </si>
   <si>
-    <t>19,08%</t>
-  </si>
-  <si>
-    <t>8,75%</t>
-  </si>
-  <si>
-    <t>34,68%</t>
-  </si>
-  <si>
-    <t>28,54%</t>
-  </si>
-  <si>
-    <t>12,19%</t>
-  </si>
-  <si>
-    <t>48,3%</t>
-  </si>
-  <si>
-    <t>22,67%</t>
+    <t>8,23%</t>
+  </si>
+  <si>
+    <t>34,84%</t>
+  </si>
+  <si>
+    <t>21,36%</t>
+  </si>
+  <si>
+    <t>13,85%</t>
+  </si>
+  <si>
+    <t>30,46%</t>
+  </si>
+  <si>
+    <t>19,27%</t>
+  </si>
+  <si>
+    <t>7,14%</t>
+  </si>
+  <si>
+    <t>41,37%</t>
+  </si>
+  <si>
+    <t>20,74%</t>
+  </si>
+  <si>
+    <t>6,15%</t>
+  </si>
+  <si>
+    <t>50,02%</t>
+  </si>
+  <si>
+    <t>19,79%</t>
+  </si>
+  <si>
+    <t>9,57%</t>
+  </si>
+  <si>
+    <t>37,18%</t>
+  </si>
+  <si>
+    <t>2,86%</t>
+  </si>
+  <si>
+    <t>16,37%</t>
+  </si>
+  <si>
+    <t>11,27%</t>
+  </si>
+  <si>
+    <t>45,39%</t>
+  </si>
+  <si>
+    <t>5,87%</t>
+  </si>
+  <si>
+    <t>20,37%</t>
+  </si>
+  <si>
+    <t>55,48%</t>
+  </si>
+  <si>
+    <t>35,31%</t>
+  </si>
+  <si>
+    <t>73,64%</t>
+  </si>
+  <si>
+    <t>32,0%</t>
+  </si>
+  <si>
+    <t>11,66%</t>
+  </si>
+  <si>
+    <t>60,02%</t>
+  </si>
+  <si>
+    <t>47,07%</t>
+  </si>
+  <si>
+    <t>31,19%</t>
+  </si>
+  <si>
+    <t>63,86%</t>
+  </si>
+  <si>
+    <t>22,4%</t>
+  </si>
+  <si>
+    <t>8,69%</t>
+  </si>
+  <si>
+    <t>43,16%</t>
+  </si>
+  <si>
+    <t>35,99%</t>
+  </si>
+  <si>
+    <t>11,9%</t>
+  </si>
+  <si>
+    <t>65,52%</t>
+  </si>
+  <si>
+    <t>27,26%</t>
+  </si>
+  <si>
+    <t>13,71%</t>
+  </si>
+  <si>
+    <t>43,9%</t>
+  </si>
+  <si>
+    <t>7,38%</t>
+  </si>
+  <si>
+    <t>3,73%</t>
+  </si>
+  <si>
+    <t>12,27%</t>
+  </si>
+  <si>
+    <t>5,01%</t>
+  </si>
+  <si>
+    <t>1,95%</t>
+  </si>
+  <si>
+    <t>11,89%</t>
+  </si>
+  <si>
+    <t>6,4%</t>
+  </si>
+  <si>
+    <t>10,01%</t>
+  </si>
+  <si>
+    <t>18,23%</t>
+  </si>
+  <si>
+    <t>12,23%</t>
+  </si>
+  <si>
+    <t>24,64%</t>
+  </si>
+  <si>
+    <t>29,7%</t>
+  </si>
+  <si>
+    <t>20,1%</t>
+  </si>
+  <si>
+    <t>39,31%</t>
+  </si>
+  <si>
+    <t>23,0%</t>
+  </si>
+  <si>
+    <t>18,16%</t>
+  </si>
+  <si>
+    <t>28,64%</t>
+  </si>
+  <si>
+    <t>55,08%</t>
+  </si>
+  <si>
+    <t>46,85%</t>
+  </si>
+  <si>
+    <t>63,5%</t>
+  </si>
+  <si>
+    <t>51,48%</t>
+  </si>
+  <si>
+    <t>42,19%</t>
+  </si>
+  <si>
+    <t>61,03%</t>
+  </si>
+  <si>
+    <t>53,58%</t>
+  </si>
+  <si>
+    <t>47,2%</t>
+  </si>
+  <si>
+    <t>59,73%</t>
   </si>
   <si>
     <t>13,06%</t>
   </si>
   <si>
-    <t>33,58%</t>
-  </si>
-  <si>
-    <t>58,72%</t>
-  </si>
-  <si>
-    <t>42,85%</t>
-  </si>
-  <si>
-    <t>74,07%</t>
-  </si>
-  <si>
-    <t>31,39%</t>
-  </si>
-  <si>
-    <t>14,26%</t>
-  </si>
-  <si>
-    <t>50,25%</t>
-  </si>
-  <si>
-    <t>48,34%</t>
-  </si>
-  <si>
-    <t>36,33%</t>
-  </si>
-  <si>
-    <t>61,26%</t>
-  </si>
-  <si>
-    <t>15,4%</t>
-  </si>
-  <si>
-    <t>29,64%</t>
-  </si>
-  <si>
-    <t>33,79%</t>
-  </si>
-  <si>
-    <t>17,46%</t>
-  </si>
-  <si>
-    <t>54,83%</t>
-  </si>
-  <si>
-    <t>22,38%</t>
-  </si>
-  <si>
-    <t>13,22%</t>
-  </si>
-  <si>
-    <t>33,56%</t>
-  </si>
-  <si>
-    <t>Universitarios</t>
-  </si>
-  <si>
-    <t>13,94%</t>
-  </si>
-  <si>
-    <t>53,41%</t>
-  </si>
-  <si>
-    <t>19,48%</t>
-  </si>
-  <si>
-    <t>55,88%</t>
-  </si>
-  <si>
-    <t>16,5%</t>
-  </si>
-  <si>
-    <t>4,42%</t>
-  </si>
-  <si>
-    <t>43,12%</t>
-  </si>
-  <si>
-    <t>21,74%</t>
-  </si>
-  <si>
-    <t>61,36%</t>
-  </si>
-  <si>
-    <t>16,45%</t>
-  </si>
-  <si>
-    <t>44,17%</t>
-  </si>
-  <si>
-    <t>19,3%</t>
+    <t>26,2%</t>
+  </si>
+  <si>
+    <t>7,51%</t>
+  </si>
+  <si>
+    <t>21,99%</t>
+  </si>
+  <si>
+    <t>17,02%</t>
+  </si>
+  <si>
+    <t>12,88%</t>
+  </si>
+  <si>
+    <t>21,94%</t>
+  </si>
+  <si>
+    <t>Población según la persona que le recomendó realizarse la prueba de Cáncer de colon en 2023 (Tasa respuesta: 17,76%)</t>
+  </si>
+  <si>
+    <t>1,82%</t>
+  </si>
+  <si>
+    <t>0,48%</t>
   </si>
   <si>
     <t>4,08%</t>
   </si>
   <si>
-    <t>45,83%</t>
-  </si>
-  <si>
-    <t>33,47%</t>
-  </si>
-  <si>
-    <t>11,91%</t>
-  </si>
-  <si>
-    <t>67,68%</t>
-  </si>
-  <si>
-    <t>29,51%</t>
-  </si>
-  <si>
-    <t>8,16%</t>
-  </si>
-  <si>
-    <t>61,35%</t>
-  </si>
-  <si>
-    <t>31,64%</t>
-  </si>
-  <si>
-    <t>15,41%</t>
-  </si>
-  <si>
-    <t>54,37%</t>
-  </si>
-  <si>
-    <t>30,85%</t>
-  </si>
-  <si>
-    <t>8,18%</t>
-  </si>
-  <si>
-    <t>61,82%</t>
-  </si>
-  <si>
-    <t>34,56%</t>
-  </si>
-  <si>
-    <t>8,61%</t>
-  </si>
-  <si>
-    <t>64,86%</t>
-  </si>
-  <si>
-    <t>32,56%</t>
-  </si>
-  <si>
-    <t>15,77%</t>
-  </si>
-  <si>
-    <t>55,29%</t>
-  </si>
-  <si>
-    <t>4,85%</t>
-  </si>
-  <si>
-    <t>0,86%</t>
-  </si>
-  <si>
-    <t>13,35%</t>
-  </si>
-  <si>
-    <t>5,82%</t>
-  </si>
-  <si>
-    <t>2,21%</t>
-  </si>
-  <si>
-    <t>13,33%</t>
-  </si>
-  <si>
-    <t>5,33%</t>
-  </si>
-  <si>
-    <t>2,4%</t>
-  </si>
-  <si>
-    <t>10,75%</t>
-  </si>
-  <si>
-    <t>25,22%</t>
-  </si>
-  <si>
-    <t>17,02%</t>
-  </si>
-  <si>
-    <t>34,84%</t>
-  </si>
-  <si>
-    <t>33,66%</t>
-  </si>
-  <si>
-    <t>24,44%</t>
-  </si>
-  <si>
-    <t>43,92%</t>
-  </si>
-  <si>
-    <t>29,39%</t>
-  </si>
-  <si>
-    <t>23,22%</t>
-  </si>
-  <si>
-    <t>36,45%</t>
-  </si>
-  <si>
-    <t>56,15%</t>
-  </si>
-  <si>
-    <t>45,91%</t>
-  </si>
-  <si>
-    <t>65,05%</t>
-  </si>
-  <si>
-    <t>40,79%</t>
-  </si>
-  <si>
-    <t>31,36%</t>
-  </si>
-  <si>
-    <t>51,37%</t>
-  </si>
-  <si>
-    <t>48,56%</t>
-  </si>
-  <si>
-    <t>41,81%</t>
-  </si>
-  <si>
-    <t>55,8%</t>
-  </si>
-  <si>
-    <t>13,78%</t>
-  </si>
-  <si>
-    <t>8,09%</t>
-  </si>
-  <si>
-    <t>21,56%</t>
-  </si>
-  <si>
-    <t>19,73%</t>
-  </si>
-  <si>
-    <t>12,78%</t>
-  </si>
-  <si>
-    <t>28,52%</t>
-  </si>
-  <si>
-    <t>16,72%</t>
-  </si>
-  <si>
-    <t>11,6%</t>
-  </si>
-  <si>
-    <t>23,0%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población según la persona que le recomendó realizarse la prueba de Cáncer de colon en 2016 (Tasa respuesta: 3,87%)</t>
-  </si>
-  <si>
-    <t>2,09%</t>
-  </si>
-  <si>
-    <t>10,41%</t>
-  </si>
-  <si>
-    <t>3,85%</t>
-  </si>
-  <si>
-    <t>13,24%</t>
-  </si>
-  <si>
-    <t>3,02%</t>
-  </si>
-  <si>
-    <t>0,97%</t>
-  </si>
-  <si>
-    <t>8,08%</t>
-  </si>
-  <si>
-    <t>26,67%</t>
-  </si>
-  <si>
-    <t>16,37%</t>
-  </si>
-  <si>
-    <t>40,55%</t>
-  </si>
-  <si>
-    <t>28,04%</t>
-  </si>
-  <si>
-    <t>17,81%</t>
+    <t>1,46%</t>
+  </si>
+  <si>
+    <t>0,45%</t>
+  </si>
+  <si>
+    <t>3,23%</t>
+  </si>
+  <si>
+    <t>1,62%</t>
+  </si>
+  <si>
+    <t>0,77%</t>
+  </si>
+  <si>
+    <t>3,05%</t>
+  </si>
+  <si>
+    <t>25,23%</t>
+  </si>
+  <si>
+    <t>19,44%</t>
+  </si>
+  <si>
+    <t>31,66%</t>
+  </si>
+  <si>
+    <t>22,13%</t>
+  </si>
+  <si>
+    <t>17,96%</t>
+  </si>
+  <si>
+    <t>26,82%</t>
+  </si>
+  <si>
+    <t>23,49%</t>
+  </si>
+  <si>
+    <t>20,07%</t>
+  </si>
+  <si>
+    <t>27,25%</t>
+  </si>
+  <si>
+    <t>56,13%</t>
+  </si>
+  <si>
+    <t>49,04%</t>
+  </si>
+  <si>
+    <t>63,53%</t>
+  </si>
+  <si>
+    <t>63,9%</t>
+  </si>
+  <si>
+    <t>68,88%</t>
+  </si>
+  <si>
+    <t>60,47%</t>
+  </si>
+  <si>
+    <t>56,42%</t>
+  </si>
+  <si>
+    <t>64,67%</t>
+  </si>
+  <si>
+    <t>16,82%</t>
+  </si>
+  <si>
+    <t>12,21%</t>
+  </si>
+  <si>
+    <t>23,1%</t>
+  </si>
+  <si>
+    <t>12,51%</t>
+  </si>
+  <si>
+    <t>9,05%</t>
+  </si>
+  <si>
+    <t>16,61%</t>
+  </si>
+  <si>
+    <t>14,41%</t>
+  </si>
+  <si>
+    <t>11,33%</t>
+  </si>
+  <si>
+    <t>17,78%</t>
+  </si>
+  <si>
+    <t>2,85%</t>
+  </si>
+  <si>
+    <t>1,32%</t>
+  </si>
+  <si>
+    <t>5,23%</t>
+  </si>
+  <si>
+    <t>2,68%</t>
+  </si>
+  <si>
+    <t>1,27%</t>
+  </si>
+  <si>
+    <t>4,75%</t>
+  </si>
+  <si>
+    <t>2,78%</t>
+  </si>
+  <si>
+    <t>1,63%</t>
+  </si>
+  <si>
+    <t>4,29%</t>
+  </si>
+  <si>
+    <t>20,13%</t>
+  </si>
+  <si>
+    <t>12,53%</t>
+  </si>
+  <si>
+    <t>26,14%</t>
+  </si>
+  <si>
+    <t>22,94%</t>
+  </si>
+  <si>
+    <t>32,07%</t>
+  </si>
+  <si>
+    <t>23,15%</t>
+  </si>
+  <si>
+    <t>16,62%</t>
+  </si>
+  <si>
+    <t>27,2%</t>
+  </si>
+  <si>
+    <t>57,09%</t>
+  </si>
+  <si>
+    <t>74,38%</t>
+  </si>
+  <si>
+    <t>47,45%</t>
+  </si>
+  <si>
+    <t>41,23%</t>
+  </si>
+  <si>
+    <t>51,99%</t>
+  </si>
+  <si>
+    <t>53,07%</t>
+  </si>
+  <si>
+    <t>46,91%</t>
+  </si>
+  <si>
+    <t>67,36%</t>
+  </si>
+  <si>
+    <t>19,93%</t>
+  </si>
+  <si>
+    <t>12,28%</t>
+  </si>
+  <si>
+    <t>25,88%</t>
+  </si>
+  <si>
+    <t>22,5%</t>
+  </si>
+  <si>
+    <t>18,68%</t>
+  </si>
+  <si>
+    <t>26,85%</t>
+  </si>
+  <si>
+    <t>21,0%</t>
+  </si>
+  <si>
+    <t>14,9%</t>
+  </si>
+  <si>
+    <t>24,7%</t>
+  </si>
+  <si>
+    <t>5,29%</t>
+  </si>
+  <si>
+    <t>2,26%</t>
+  </si>
+  <si>
+    <t>9,83%</t>
+  </si>
+  <si>
+    <t>9,28%</t>
+  </si>
+  <si>
+    <t>5,4%</t>
+  </si>
+  <si>
+    <t>15,0%</t>
+  </si>
+  <si>
+    <t>6,96%</t>
+  </si>
+  <si>
+    <t>4,13%</t>
+  </si>
+  <si>
+    <t>10,16%</t>
+  </si>
+  <si>
+    <t>27,06%</t>
+  </si>
+  <si>
+    <t>19,84%</t>
+  </si>
+  <si>
+    <t>35,13%</t>
+  </si>
+  <si>
+    <t>29,66%</t>
+  </si>
+  <si>
+    <t>23,02%</t>
+  </si>
+  <si>
+    <t>37,53%</t>
+  </si>
+  <si>
+    <t>28,14%</t>
+  </si>
+  <si>
+    <t>23,54%</t>
+  </si>
+  <si>
+    <t>34,32%</t>
   </si>
   <si>
     <t>41,63%</t>
   </si>
   <si>
-    <t>27,4%</t>
-  </si>
-  <si>
-    <t>19,93%</t>
-  </si>
-  <si>
-    <t>35,99%</t>
-  </si>
-  <si>
-    <t>58,49%</t>
-  </si>
-  <si>
-    <t>45,62%</t>
-  </si>
-  <si>
-    <t>70,84%</t>
-  </si>
-  <si>
-    <t>62,84%</t>
-  </si>
-  <si>
-    <t>48,13%</t>
-  </si>
-  <si>
-    <t>74,4%</t>
-  </si>
-  <si>
-    <t>60,79%</t>
-  </si>
-  <si>
-    <t>51,42%</t>
-  </si>
-  <si>
-    <t>69,23%</t>
-  </si>
-  <si>
-    <t>12,76%</t>
-  </si>
-  <si>
-    <t>23,36%</t>
-  </si>
-  <si>
-    <t>5,27%</t>
-  </si>
-  <si>
-    <t>1,6%</t>
-  </si>
-  <si>
-    <t>14,43%</t>
-  </si>
-  <si>
-    <t>8,8%</t>
-  </si>
-  <si>
-    <t>4,37%</t>
+    <t>49,55%</t>
+  </si>
+  <si>
+    <t>38,34%</t>
+  </si>
+  <si>
+    <t>30,53%</t>
+  </si>
+  <si>
+    <t>46,97%</t>
+  </si>
+  <si>
+    <t>40,26%</t>
+  </si>
+  <si>
+    <t>33,83%</t>
+  </si>
+  <si>
+    <t>45,93%</t>
+  </si>
+  <si>
+    <t>26,02%</t>
+  </si>
+  <si>
+    <t>19,12%</t>
+  </si>
+  <si>
+    <t>22,72%</t>
+  </si>
+  <si>
+    <t>16,17%</t>
+  </si>
+  <si>
+    <t>30,09%</t>
+  </si>
+  <si>
+    <t>19,62%</t>
+  </si>
+  <si>
+    <t>31,24%</t>
+  </si>
+  <si>
+    <t>3,09%</t>
+  </si>
+  <si>
+    <t>1,78%</t>
+  </si>
+  <si>
+    <t>4,71%</t>
+  </si>
+  <si>
+    <t>3,36%</t>
+  </si>
+  <si>
+    <t>2,29%</t>
+  </si>
+  <si>
+    <t>4,79%</t>
+  </si>
+  <si>
+    <t>3,21%</t>
+  </si>
+  <si>
+    <t>2,34%</t>
+  </si>
+  <si>
+    <t>4,22%</t>
+  </si>
+  <si>
+    <t>22,81%</t>
+  </si>
+  <si>
+    <t>17,14%</t>
+  </si>
+  <si>
+    <t>25,82%</t>
+  </si>
+  <si>
+    <t>22,87%</t>
+  </si>
+  <si>
+    <t>28,97%</t>
+  </si>
+  <si>
+    <t>24,19%</t>
+  </si>
+  <si>
+    <t>20,53%</t>
+  </si>
+  <si>
+    <t>26,68%</t>
+  </si>
+  <si>
+    <t>53,71%</t>
+  </si>
+  <si>
+    <t>47,93%</t>
+  </si>
+  <si>
+    <t>66,38%</t>
+  </si>
+  <si>
+    <t>51,98%</t>
+  </si>
+  <si>
+    <t>48,58%</t>
+  </si>
+  <si>
+    <t>55,2%</t>
+  </si>
+  <si>
+    <t>52,91%</t>
+  </si>
+  <si>
+    <t>49,62%</t>
+  </si>
+  <si>
+    <t>60,43%</t>
+  </si>
+  <si>
+    <t>20,39%</t>
   </si>
   <si>
     <t>15,13%</t>
   </si>
   <si>
-    <t>6,66%</t>
-  </si>
-  <si>
-    <t>2,55%</t>
-  </si>
-  <si>
-    <t>14,12%</t>
-  </si>
-  <si>
-    <t>5,78%</t>
-  </si>
-  <si>
-    <t>4,51%</t>
-  </si>
-  <si>
-    <t>1,75%</t>
-  </si>
-  <si>
-    <t>10,45%</t>
-  </si>
-  <si>
-    <t>18,04%</t>
-  </si>
-  <si>
-    <t>9,94%</t>
-  </si>
-  <si>
-    <t>27,87%</t>
-  </si>
-  <si>
-    <t>40,64%</t>
-  </si>
-  <si>
-    <t>25,61%</t>
-  </si>
-  <si>
-    <t>60,34%</t>
-  </si>
-  <si>
-    <t>25,33%</t>
-  </si>
-  <si>
-    <t>17,95%</t>
-  </si>
-  <si>
-    <t>35,06%</t>
-  </si>
-  <si>
-    <t>52,5%</t>
-  </si>
-  <si>
-    <t>40,94%</t>
-  </si>
-  <si>
-    <t>63,38%</t>
-  </si>
-  <si>
-    <t>41,02%</t>
-  </si>
-  <si>
-    <t>23,79%</t>
-  </si>
-  <si>
-    <t>57,85%</t>
-  </si>
-  <si>
-    <t>48,79%</t>
-  </si>
-  <si>
-    <t>39,0%</t>
-  </si>
-  <si>
-    <t>57,75%</t>
-  </si>
-  <si>
-    <t>22,8%</t>
-  </si>
-  <si>
-    <t>14,9%</t>
-  </si>
-  <si>
-    <t>33,83%</t>
-  </si>
-  <si>
-    <t>6,32%</t>
-  </si>
-  <si>
-    <t>34,95%</t>
-  </si>
-  <si>
-    <t>21,36%</t>
-  </si>
-  <si>
-    <t>14,32%</t>
-  </si>
-  <si>
-    <t>30,09%</t>
-  </si>
-  <si>
-    <t>19,27%</t>
-  </si>
-  <si>
-    <t>6,5%</t>
-  </si>
-  <si>
-    <t>40,49%</t>
-  </si>
-  <si>
-    <t>20,74%</t>
-  </si>
-  <si>
-    <t>6,21%</t>
-  </si>
-  <si>
-    <t>47,87%</t>
-  </si>
-  <si>
-    <t>19,79%</t>
-  </si>
-  <si>
-    <t>9,3%</t>
-  </si>
-  <si>
-    <t>35,41%</t>
-  </si>
-  <si>
-    <t>2,86%</t>
-  </si>
-  <si>
-    <t>15,42%</t>
-  </si>
-  <si>
-    <t>11,27%</t>
-  </si>
-  <si>
-    <t>48,28%</t>
-  </si>
-  <si>
-    <t>5,87%</t>
-  </si>
-  <si>
-    <t>21,61%</t>
-  </si>
-  <si>
-    <t>55,48%</t>
-  </si>
-  <si>
-    <t>35,24%</t>
-  </si>
-  <si>
-    <t>74,69%</t>
-  </si>
-  <si>
-    <t>32,0%</t>
-  </si>
-  <si>
-    <t>11,56%</t>
-  </si>
-  <si>
-    <t>59,96%</t>
-  </si>
-  <si>
-    <t>47,07%</t>
-  </si>
-  <si>
-    <t>31,33%</t>
-  </si>
-  <si>
-    <t>63,72%</t>
-  </si>
-  <si>
-    <t>22,4%</t>
-  </si>
-  <si>
-    <t>10,31%</t>
-  </si>
-  <si>
-    <t>44,63%</t>
-  </si>
-  <si>
-    <t>11,54%</t>
-  </si>
-  <si>
-    <t>65,86%</t>
-  </si>
-  <si>
-    <t>27,26%</t>
-  </si>
-  <si>
-    <t>15,06%</t>
-  </si>
-  <si>
-    <t>44,71%</t>
-  </si>
-  <si>
-    <t>7,38%</t>
-  </si>
-  <si>
-    <t>3,76%</t>
-  </si>
-  <si>
-    <t>13,05%</t>
-  </si>
-  <si>
-    <t>5,01%</t>
-  </si>
-  <si>
-    <t>1,91%</t>
-  </si>
-  <si>
-    <t>10,27%</t>
-  </si>
-  <si>
-    <t>6,4%</t>
-  </si>
-  <si>
-    <t>3,77%</t>
-  </si>
-  <si>
-    <t>10,22%</t>
-  </si>
-  <si>
-    <t>18,23%</t>
-  </si>
-  <si>
-    <t>12,08%</t>
-  </si>
-  <si>
-    <t>23,9%</t>
-  </si>
-  <si>
-    <t>29,7%</t>
-  </si>
-  <si>
-    <t>21,25%</t>
-  </si>
-  <si>
-    <t>39,79%</t>
-  </si>
-  <si>
-    <t>18,17%</t>
-  </si>
-  <si>
-    <t>28,4%</t>
-  </si>
-  <si>
-    <t>55,08%</t>
-  </si>
-  <si>
-    <t>47,05%</t>
-  </si>
-  <si>
-    <t>63,27%</t>
-  </si>
-  <si>
-    <t>51,48%</t>
-  </si>
-  <si>
-    <t>41,69%</t>
-  </si>
-  <si>
-    <t>61,75%</t>
-  </si>
-  <si>
-    <t>53,58%</t>
-  </si>
-  <si>
-    <t>47,68%</t>
-  </si>
-  <si>
-    <t>59,92%</t>
-  </si>
-  <si>
-    <t>13,57%</t>
-  </si>
-  <si>
-    <t>25,74%</t>
-  </si>
-  <si>
-    <t>13,81%</t>
-  </si>
-  <si>
-    <t>7,46%</t>
-  </si>
-  <si>
-    <t>22,32%</t>
-  </si>
-  <si>
-    <t>12,74%</t>
-  </si>
-  <si>
-    <t>22,17%</t>
-  </si>
-  <si>
-    <t>Población según la persona que le recomendó realizarse la prueba de Cáncer de colon en 2023 (Tasa respuesta: 17,76%)</t>
-  </si>
-  <si>
-    <t>1,82%</t>
-  </si>
-  <si>
-    <t>0,49%</t>
-  </si>
-  <si>
-    <t>1,46%</t>
-  </si>
-  <si>
-    <t>0,53%</t>
-  </si>
-  <si>
-    <t>3,49%</t>
-  </si>
-  <si>
-    <t>1,62%</t>
-  </si>
-  <si>
-    <t>0,79%</t>
-  </si>
-  <si>
-    <t>3,06%</t>
-  </si>
-  <si>
-    <t>25,23%</t>
+    <t>23,97%</t>
+  </si>
+  <si>
+    <t>18,84%</t>
+  </si>
+  <si>
+    <t>21,6%</t>
   </si>
   <si>
     <t>19,68%</t>
   </si>
   <si>
-    <t>31,75%</t>
-  </si>
-  <si>
-    <t>22,13%</t>
-  </si>
-  <si>
-    <t>17,48%</t>
-  </si>
-  <si>
-    <t>26,76%</t>
-  </si>
-  <si>
-    <t>23,49%</t>
-  </si>
-  <si>
-    <t>20,04%</t>
-  </si>
-  <si>
-    <t>27,65%</t>
-  </si>
-  <si>
-    <t>56,13%</t>
-  </si>
-  <si>
-    <t>48,87%</t>
-  </si>
-  <si>
-    <t>62,65%</t>
-  </si>
-  <si>
-    <t>63,9%</t>
-  </si>
-  <si>
-    <t>58,42%</t>
-  </si>
-  <si>
-    <t>69,7%</t>
-  </si>
-  <si>
-    <t>60,47%</t>
-  </si>
-  <si>
-    <t>56,42%</t>
-  </si>
-  <si>
-    <t>65,08%</t>
-  </si>
-  <si>
-    <t>16,82%</t>
-  </si>
-  <si>
-    <t>12,05%</t>
-  </si>
-  <si>
-    <t>22,99%</t>
-  </si>
-  <si>
-    <t>12,51%</t>
-  </si>
-  <si>
-    <t>8,86%</t>
-  </si>
-  <si>
-    <t>16,43%</t>
-  </si>
-  <si>
-    <t>14,41%</t>
-  </si>
-  <si>
-    <t>11,42%</t>
-  </si>
-  <si>
-    <t>17,86%</t>
-  </si>
-  <si>
-    <t>2,85%</t>
-  </si>
-  <si>
-    <t>1,16%</t>
-  </si>
-  <si>
-    <t>5,23%</t>
-  </si>
-  <si>
-    <t>2,68%</t>
-  </si>
-  <si>
-    <t>1,26%</t>
-  </si>
-  <si>
-    <t>4,67%</t>
-  </si>
-  <si>
-    <t>2,78%</t>
-  </si>
-  <si>
-    <t>1,59%</t>
-  </si>
-  <si>
-    <t>4,41%</t>
-  </si>
-  <si>
-    <t>20,13%</t>
-  </si>
-  <si>
-    <t>10,92%</t>
-  </si>
-  <si>
-    <t>25,8%</t>
-  </si>
-  <si>
-    <t>27,37%</t>
-  </si>
-  <si>
-    <t>23,15%</t>
-  </si>
-  <si>
-    <t>31,87%</t>
-  </si>
-  <si>
-    <t>16,98%</t>
-  </si>
-  <si>
-    <t>27,36%</t>
-  </si>
-  <si>
-    <t>57,09%</t>
-  </si>
-  <si>
-    <t>46,89%</t>
-  </si>
-  <si>
-    <t>76,6%</t>
-  </si>
-  <si>
-    <t>47,45%</t>
-  </si>
-  <si>
-    <t>42,57%</t>
-  </si>
-  <si>
-    <t>52,36%</t>
-  </si>
-  <si>
-    <t>53,07%</t>
-  </si>
-  <si>
-    <t>47,01%</t>
-  </si>
-  <si>
-    <t>65,87%</t>
-  </si>
-  <si>
-    <t>11,05%</t>
-  </si>
-  <si>
-    <t>25,59%</t>
-  </si>
-  <si>
-    <t>22,5%</t>
-  </si>
-  <si>
-    <t>18,57%</t>
-  </si>
-  <si>
-    <t>26,53%</t>
-  </si>
-  <si>
-    <t>21,0%</t>
-  </si>
-  <si>
-    <t>15,52%</t>
-  </si>
-  <si>
-    <t>24,9%</t>
-  </si>
-  <si>
-    <t>5,29%</t>
-  </si>
-  <si>
-    <t>2,39%</t>
-  </si>
-  <si>
-    <t>9,97%</t>
-  </si>
-  <si>
-    <t>9,28%</t>
-  </si>
-  <si>
-    <t>5,08%</t>
-  </si>
-  <si>
-    <t>15,26%</t>
-  </si>
-  <si>
-    <t>6,96%</t>
-  </si>
-  <si>
-    <t>4,7%</t>
-  </si>
-  <si>
-    <t>10,38%</t>
-  </si>
-  <si>
-    <t>27,06%</t>
-  </si>
-  <si>
-    <t>19,91%</t>
-  </si>
-  <si>
-    <t>29,66%</t>
-  </si>
-  <si>
-    <t>38,15%</t>
-  </si>
-  <si>
-    <t>28,14%</t>
-  </si>
-  <si>
-    <t>22,94%</t>
-  </si>
-  <si>
-    <t>33,5%</t>
-  </si>
-  <si>
-    <t>34,19%</t>
-  </si>
-  <si>
-    <t>50,12%</t>
-  </si>
-  <si>
-    <t>38,34%</t>
-  </si>
-  <si>
-    <t>30,02%</t>
-  </si>
-  <si>
-    <t>46,51%</t>
-  </si>
-  <si>
-    <t>40,26%</t>
-  </si>
-  <si>
-    <t>34,72%</t>
-  </si>
-  <si>
-    <t>46,24%</t>
-  </si>
-  <si>
-    <t>26,02%</t>
-  </si>
-  <si>
-    <t>33,72%</t>
-  </si>
-  <si>
-    <t>22,72%</t>
-  </si>
-  <si>
-    <t>16,65%</t>
-  </si>
-  <si>
-    <t>30,79%</t>
-  </si>
-  <si>
-    <t>24,64%</t>
-  </si>
-  <si>
-    <t>19,78%</t>
-  </si>
-  <si>
-    <t>30,69%</t>
-  </si>
-  <si>
-    <t>3,09%</t>
-  </si>
-  <si>
-    <t>1,89%</t>
-  </si>
-  <si>
-    <t>4,5%</t>
-  </si>
-  <si>
-    <t>3,36%</t>
-  </si>
-  <si>
-    <t>2,17%</t>
-  </si>
-  <si>
-    <t>4,83%</t>
-  </si>
-  <si>
-    <t>3,21%</t>
-  </si>
-  <si>
-    <t>2,33%</t>
-  </si>
-  <si>
-    <t>4,21%</t>
-  </si>
-  <si>
-    <t>22,81%</t>
-  </si>
-  <si>
-    <t>17,37%</t>
-  </si>
-  <si>
-    <t>26,61%</t>
-  </si>
-  <si>
-    <t>25,82%</t>
-  </si>
-  <si>
-    <t>22,83%</t>
-  </si>
-  <si>
-    <t>28,81%</t>
-  </si>
-  <si>
-    <t>24,19%</t>
-  </si>
-  <si>
-    <t>20,23%</t>
-  </si>
-  <si>
-    <t>53,71%</t>
-  </si>
-  <si>
-    <t>48,09%</t>
-  </si>
-  <si>
-    <t>64,8%</t>
-  </si>
-  <si>
-    <t>51,98%</t>
-  </si>
-  <si>
-    <t>48,61%</t>
-  </si>
-  <si>
-    <t>55,71%</t>
-  </si>
-  <si>
-    <t>52,91%</t>
-  </si>
-  <si>
-    <t>49,62%</t>
-  </si>
-  <si>
-    <t>60,2%</t>
-  </si>
-  <si>
-    <t>20,39%</t>
-  </si>
-  <si>
-    <t>14,35%</t>
-  </si>
-  <si>
-    <t>23,84%</t>
-  </si>
-  <si>
-    <t>18,84%</t>
-  </si>
-  <si>
-    <t>15,98%</t>
-  </si>
-  <si>
-    <t>21,59%</t>
-  </si>
-  <si>
-    <t>16,67%</t>
-  </si>
-  <si>
-    <t>22,01%</t>
+    <t>16,57%</t>
+  </si>
+  <si>
+    <t>22,02%</t>
   </si>
 </sst>
 </file>
@@ -1709,7 +1709,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AED4FFC8-74F2-4A05-8F7C-B40BCC34FD60}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{43E8D105-7DA0-4D1F-8E52-E6C8B4EC805D}">
   <dimension ref="A1:Q24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1989,10 +1989,10 @@
         <v>39</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>11</v>
+        <v>40</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="H7" s="7">
         <v>6</v>
@@ -2001,10 +2001,10 @@
         <v>6891</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>42</v>
+        <v>13</v>
       </c>
       <c r="L7" s="7" t="s">
         <v>43</v>
@@ -2243,10 +2243,10 @@
         <v>7660</v>
       </c>
       <c r="E12" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="F12" s="7" t="s">
         <v>74</v>
-      </c>
-      <c r="F12" s="7" t="s">
-        <v>53</v>
       </c>
       <c r="G12" s="7" t="s">
         <v>75</v>
@@ -2868,7 +2868,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BCEA4A5B-249D-4A5E-917F-3E7D2C568BEB}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0B92309C-3E6C-44D4-9264-B36B41081BEC}">
   <dimension ref="A1:Q24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3013,7 +3013,7 @@
         <v>11</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>156</v>
+        <v>120</v>
       </c>
       <c r="M4" s="7">
         <v>3</v>
@@ -3022,13 +3022,13 @@
         <v>3497</v>
       </c>
       <c r="O4" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="P4" s="7" t="s">
         <v>157</v>
       </c>
-      <c r="P4" s="7" t="s">
+      <c r="Q4" s="7" t="s">
         <v>158</v>
-      </c>
-      <c r="Q4" s="7" t="s">
-        <v>159</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3043,13 +3043,13 @@
         <v>14533</v>
       </c>
       <c r="E5" s="7" t="s">
+        <v>159</v>
+      </c>
+      <c r="F5" s="7" t="s">
         <v>160</v>
       </c>
-      <c r="F5" s="7" t="s">
+      <c r="G5" s="7" t="s">
         <v>161</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>162</v>
       </c>
       <c r="H5" s="7">
         <v>15</v>
@@ -3058,13 +3058,13 @@
         <v>17179</v>
       </c>
       <c r="J5" s="7" t="s">
+        <v>162</v>
+      </c>
+      <c r="K5" s="7" t="s">
         <v>163</v>
       </c>
-      <c r="K5" s="7" t="s">
+      <c r="L5" s="7" t="s">
         <v>164</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>165</v>
       </c>
       <c r="M5" s="7">
         <v>31</v>
@@ -3073,13 +3073,13 @@
         <v>31712</v>
       </c>
       <c r="O5" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="P5" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="Q5" s="7" t="s">
         <v>166</v>
-      </c>
-      <c r="P5" s="7" t="s">
-        <v>167</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>168</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3094,13 +3094,13 @@
         <v>31875</v>
       </c>
       <c r="E6" s="7" t="s">
+        <v>167</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>168</v>
+      </c>
+      <c r="G6" s="7" t="s">
         <v>169</v>
-      </c>
-      <c r="F6" s="7" t="s">
-        <v>170</v>
-      </c>
-      <c r="G6" s="7" t="s">
-        <v>171</v>
       </c>
       <c r="H6" s="7">
         <v>33</v>
@@ -3109,13 +3109,13 @@
         <v>38492</v>
       </c>
       <c r="J6" s="7" t="s">
+        <v>170</v>
+      </c>
+      <c r="K6" s="7" t="s">
+        <v>171</v>
+      </c>
+      <c r="L6" s="7" t="s">
         <v>172</v>
-      </c>
-      <c r="K6" s="7" t="s">
-        <v>173</v>
-      </c>
-      <c r="L6" s="7" t="s">
-        <v>174</v>
       </c>
       <c r="M6" s="7">
         <v>67</v>
@@ -3124,13 +3124,13 @@
         <v>70367</v>
       </c>
       <c r="O6" s="7" t="s">
+        <v>173</v>
+      </c>
+      <c r="P6" s="7" t="s">
+        <v>174</v>
+      </c>
+      <c r="Q6" s="7" t="s">
         <v>175</v>
-      </c>
-      <c r="P6" s="7" t="s">
-        <v>176</v>
-      </c>
-      <c r="Q6" s="7" t="s">
-        <v>177</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -3145,13 +3145,13 @@
         <v>6953</v>
       </c>
       <c r="E7" s="7" t="s">
+        <v>176</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>177</v>
+      </c>
+      <c r="G7" s="7" t="s">
         <v>178</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>179</v>
       </c>
       <c r="H7" s="7">
         <v>3</v>
@@ -3160,13 +3160,13 @@
         <v>3227</v>
       </c>
       <c r="J7" s="7" t="s">
+        <v>179</v>
+      </c>
+      <c r="K7" s="7" t="s">
         <v>180</v>
       </c>
-      <c r="K7" s="7" t="s">
+      <c r="L7" s="7" t="s">
         <v>181</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>182</v>
       </c>
       <c r="M7" s="7">
         <v>10</v>
@@ -3175,13 +3175,13 @@
         <v>10181</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>183</v>
+        <v>158</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3249,13 +3249,13 @@
         <v>5095</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="H9" s="7">
         <v>0</v>
@@ -3270,7 +3270,7 @@
         <v>12</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="M9" s="7">
         <v>5</v>
@@ -3279,13 +3279,13 @@
         <v>5095</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -3300,13 +3300,13 @@
         <v>13805</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="H10" s="7">
         <v>13</v>
@@ -3315,13 +3315,13 @@
         <v>14809</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="M10" s="7">
         <v>26</v>
@@ -3330,13 +3330,13 @@
         <v>28614</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3351,13 +3351,13 @@
         <v>40165</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="H11" s="7">
         <v>13</v>
@@ -3366,13 +3366,13 @@
         <v>14947</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="M11" s="7">
         <v>50</v>
@@ -3381,13 +3381,13 @@
         <v>55112</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3402,13 +3402,13 @@
         <v>17439</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="H12" s="7">
         <v>6</v>
@@ -3417,13 +3417,13 @@
         <v>6686</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>55</v>
+        <v>211</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="M12" s="7">
         <v>22</v>
@@ -3432,13 +3432,13 @@
         <v>24125</v>
       </c>
       <c r="O12" s="7" t="s">
+        <v>214</v>
+      </c>
+      <c r="P12" s="7" t="s">
+        <v>215</v>
+      </c>
+      <c r="Q12" s="7" t="s">
         <v>216</v>
-      </c>
-      <c r="P12" s="7" t="s">
-        <v>217</v>
-      </c>
-      <c r="Q12" s="7" t="s">
-        <v>218</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -3506,13 +3506,13 @@
         <v>5576</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>217</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>218</v>
+      </c>
+      <c r="G14" s="7" t="s">
         <v>219</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>220</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>221</v>
       </c>
       <c r="H14" s="7">
         <v>3</v>
@@ -3521,13 +3521,13 @@
         <v>3348</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>220</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>221</v>
+      </c>
+      <c r="L14" s="7" t="s">
         <v>222</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>223</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>224</v>
       </c>
       <c r="M14" s="7">
         <v>8</v>
@@ -3536,13 +3536,13 @@
         <v>8924</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>223</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>224</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>225</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>226</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>227</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3557,13 +3557,13 @@
         <v>827</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="F15" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="H15" s="7">
         <v>1</v>
@@ -3572,13 +3572,13 @@
         <v>1819</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="K15" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="M15" s="7">
         <v>2</v>
@@ -3587,13 +3587,13 @@
         <v>2647</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="P15" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -3608,13 +3608,13 @@
         <v>16057</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>232</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>233</v>
+      </c>
+      <c r="G16" s="7" t="s">
         <v>234</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>235</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>236</v>
       </c>
       <c r="H16" s="7">
         <v>5</v>
@@ -3623,13 +3623,13 @@
         <v>5166</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>235</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>236</v>
+      </c>
+      <c r="L16" s="7" t="s">
         <v>237</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>238</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>239</v>
       </c>
       <c r="M16" s="7">
         <v>18</v>
@@ -3638,13 +3638,13 @@
         <v>21224</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>238</v>
+      </c>
+      <c r="P16" s="7" t="s">
+        <v>239</v>
+      </c>
+      <c r="Q16" s="7" t="s">
         <v>240</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>241</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>242</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3659,13 +3659,13 @@
         <v>6482</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>241</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>242</v>
+      </c>
+      <c r="G17" s="7" t="s">
         <v>243</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>244</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>245</v>
       </c>
       <c r="H17" s="7">
         <v>4</v>
@@ -3674,13 +3674,13 @@
         <v>5810</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>168</v>
+        <v>244</v>
       </c>
       <c r="K17" s="7" t="s">
+        <v>245</v>
+      </c>
+      <c r="L17" s="7" t="s">
         <v>246</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>247</v>
       </c>
       <c r="M17" s="7">
         <v>10</v>
@@ -3689,13 +3689,13 @@
         <v>12292</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>247</v>
+      </c>
+      <c r="P17" s="7" t="s">
         <v>248</v>
       </c>
-      <c r="P17" s="7" t="s">
+      <c r="Q17" s="7" t="s">
         <v>249</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>250</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3763,13 +3763,13 @@
         <v>11809</v>
       </c>
       <c r="E19" s="7" t="s">
+        <v>250</v>
+      </c>
+      <c r="F19" s="7" t="s">
         <v>251</v>
       </c>
-      <c r="F19" s="7" t="s">
+      <c r="G19" s="7" t="s">
         <v>252</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>253</v>
       </c>
       <c r="H19" s="7">
         <v>5</v>
@@ -3778,13 +3778,13 @@
         <v>5707</v>
       </c>
       <c r="J19" s="7" t="s">
+        <v>253</v>
+      </c>
+      <c r="K19" s="7" t="s">
         <v>254</v>
       </c>
-      <c r="K19" s="7" t="s">
+      <c r="L19" s="7" t="s">
         <v>255</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>256</v>
       </c>
       <c r="M19" s="7">
         <v>16</v>
@@ -3793,13 +3793,13 @@
         <v>17516</v>
       </c>
       <c r="O19" s="7" t="s">
+        <v>256</v>
+      </c>
+      <c r="P19" s="7" t="s">
+        <v>251</v>
+      </c>
+      <c r="Q19" s="7" t="s">
         <v>257</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>258</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>259</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -3814,13 +3814,13 @@
         <v>29165</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>258</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>259</v>
+      </c>
+      <c r="G20" s="7" t="s">
         <v>260</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>261</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>262</v>
       </c>
       <c r="H20" s="7">
         <v>29</v>
@@ -3829,13 +3829,13 @@
         <v>33808</v>
       </c>
       <c r="J20" s="7" t="s">
+        <v>261</v>
+      </c>
+      <c r="K20" s="7" t="s">
+        <v>262</v>
+      </c>
+      <c r="L20" s="7" t="s">
         <v>263</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>264</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>265</v>
       </c>
       <c r="M20" s="7">
         <v>59</v>
@@ -3844,13 +3844,13 @@
         <v>62974</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>150</v>
+        <v>264</v>
       </c>
       <c r="P20" s="7" t="s">
+        <v>265</v>
+      </c>
+      <c r="Q20" s="7" t="s">
         <v>266</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>267</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3865,13 +3865,13 @@
         <v>88097</v>
       </c>
       <c r="E21" s="7" t="s">
+        <v>267</v>
+      </c>
+      <c r="F21" s="7" t="s">
         <v>268</v>
       </c>
-      <c r="F21" s="7" t="s">
+      <c r="G21" s="7" t="s">
         <v>269</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>270</v>
       </c>
       <c r="H21" s="7">
         <v>51</v>
@@ -3880,13 +3880,13 @@
         <v>58606</v>
       </c>
       <c r="J21" s="7" t="s">
+        <v>270</v>
+      </c>
+      <c r="K21" s="7" t="s">
         <v>271</v>
       </c>
-      <c r="K21" s="7" t="s">
+      <c r="L21" s="7" t="s">
         <v>272</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>273</v>
       </c>
       <c r="M21" s="7">
         <v>135</v>
@@ -3895,13 +3895,13 @@
         <v>146703</v>
       </c>
       <c r="O21" s="7" t="s">
+        <v>273</v>
+      </c>
+      <c r="P21" s="7" t="s">
         <v>274</v>
       </c>
-      <c r="P21" s="7" t="s">
+      <c r="Q21" s="7" t="s">
         <v>275</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>276</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -3919,10 +3919,10 @@
         <v>94</v>
       </c>
       <c r="F22" s="7" t="s">
+        <v>276</v>
+      </c>
+      <c r="G22" s="7" t="s">
         <v>277</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>278</v>
       </c>
       <c r="H22" s="7">
         <v>13</v>
@@ -3931,13 +3931,13 @@
         <v>15723</v>
       </c>
       <c r="J22" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="K22" s="7" t="s">
+        <v>278</v>
+      </c>
+      <c r="L22" s="7" t="s">
         <v>279</v>
-      </c>
-      <c r="K22" s="7" t="s">
-        <v>280</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>281</v>
       </c>
       <c r="M22" s="7">
         <v>42</v>
@@ -3946,13 +3946,13 @@
         <v>46598</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>125</v>
+        <v>280</v>
       </c>
       <c r="P22" s="7" t="s">
+        <v>281</v>
+      </c>
+      <c r="Q22" s="7" t="s">
         <v>282</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>283</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4027,7 +4027,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2D619450-03BD-4D7B-9289-36270B19F70A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0E7622CA-33FF-493E-A3C5-DB6C0F250EE2}">
   <dimension ref="A1:Q24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4044,7 +4044,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4151,13 +4151,13 @@
         <v>2698</v>
       </c>
       <c r="E4" s="7" t="s">
+        <v>284</v>
+      </c>
+      <c r="F4" s="7" t="s">
         <v>285</v>
       </c>
-      <c r="F4" s="7" t="s">
+      <c r="G4" s="7" t="s">
         <v>286</v>
-      </c>
-      <c r="G4" s="7" t="s">
-        <v>190</v>
       </c>
       <c r="H4" s="7">
         <v>5</v>
@@ -4271,10 +4271,10 @@
         <v>305</v>
       </c>
       <c r="K6" s="7" t="s">
+        <v>204</v>
+      </c>
+      <c r="L6" s="7" t="s">
         <v>306</v>
-      </c>
-      <c r="L6" s="7" t="s">
-        <v>307</v>
       </c>
       <c r="M6" s="7">
         <v>313</v>
@@ -4283,13 +4283,13 @@
         <v>203024</v>
       </c>
       <c r="O6" s="7" t="s">
+        <v>307</v>
+      </c>
+      <c r="P6" s="7" t="s">
         <v>308</v>
       </c>
-      <c r="P6" s="7" t="s">
+      <c r="Q6" s="7" t="s">
         <v>309</v>
-      </c>
-      <c r="Q6" s="7" t="s">
-        <v>310</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -4304,13 +4304,13 @@
         <v>24892</v>
       </c>
       <c r="E7" s="7" t="s">
+        <v>310</v>
+      </c>
+      <c r="F7" s="7" t="s">
         <v>311</v>
       </c>
-      <c r="F7" s="7" t="s">
+      <c r="G7" s="7" t="s">
         <v>312</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>313</v>
       </c>
       <c r="H7" s="7">
         <v>39</v>
@@ -4319,13 +4319,13 @@
         <v>23482</v>
       </c>
       <c r="J7" s="7" t="s">
+        <v>313</v>
+      </c>
+      <c r="K7" s="7" t="s">
         <v>314</v>
       </c>
-      <c r="K7" s="7" t="s">
+      <c r="L7" s="7" t="s">
         <v>315</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>316</v>
       </c>
       <c r="M7" s="7">
         <v>72</v>
@@ -4334,13 +4334,13 @@
         <v>48374</v>
       </c>
       <c r="O7" s="7" t="s">
+        <v>316</v>
+      </c>
+      <c r="P7" s="7" t="s">
         <v>317</v>
       </c>
-      <c r="P7" s="7" t="s">
+      <c r="Q7" s="7" t="s">
         <v>318</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>319</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4408,13 +4408,13 @@
         <v>9282</v>
       </c>
       <c r="E9" s="7" t="s">
+        <v>319</v>
+      </c>
+      <c r="F9" s="7" t="s">
         <v>320</v>
       </c>
-      <c r="F9" s="7" t="s">
+      <c r="G9" s="7" t="s">
         <v>321</v>
-      </c>
-      <c r="G9" s="7" t="s">
-        <v>322</v>
       </c>
       <c r="H9" s="7">
         <v>10</v>
@@ -4423,13 +4423,13 @@
         <v>6232</v>
       </c>
       <c r="J9" s="7" t="s">
+        <v>322</v>
+      </c>
+      <c r="K9" s="7" t="s">
         <v>323</v>
       </c>
-      <c r="K9" s="7" t="s">
+      <c r="L9" s="7" t="s">
         <v>324</v>
-      </c>
-      <c r="L9" s="7" t="s">
-        <v>325</v>
       </c>
       <c r="M9" s="7">
         <v>21</v>
@@ -4438,13 +4438,13 @@
         <v>15514</v>
       </c>
       <c r="O9" s="7" t="s">
+        <v>325</v>
+      </c>
+      <c r="P9" s="7" t="s">
         <v>326</v>
       </c>
-      <c r="P9" s="7" t="s">
+      <c r="Q9" s="7" t="s">
         <v>327</v>
-      </c>
-      <c r="Q9" s="7" t="s">
-        <v>328</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -4459,28 +4459,28 @@
         <v>65545</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>328</v>
+      </c>
+      <c r="F10" s="7" t="s">
         <v>329</v>
       </c>
-      <c r="F10" s="7" t="s">
+      <c r="G10" s="7" t="s">
         <v>330</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>331</v>
       </c>
       <c r="H10" s="7">
         <v>112</v>
       </c>
       <c r="I10" s="7">
-        <v>63746</v>
+        <v>63745</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>331</v>
+      </c>
+      <c r="L10" s="7" t="s">
         <v>332</v>
-      </c>
-      <c r="K10" s="7" t="s">
-        <v>333</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>334</v>
       </c>
       <c r="M10" s="7">
         <v>187</v>
@@ -4492,10 +4492,10 @@
         <v>333</v>
       </c>
       <c r="P10" s="7" t="s">
+        <v>334</v>
+      </c>
+      <c r="Q10" s="7" t="s">
         <v>335</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>336</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4510,13 +4510,13 @@
         <v>185925</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>336</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="G11" s="7" t="s">
         <v>337</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>338</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>339</v>
       </c>
       <c r="H11" s="7">
         <v>189</v>
@@ -4525,13 +4525,13 @@
         <v>110518</v>
       </c>
       <c r="J11" s="7" t="s">
+        <v>338</v>
+      </c>
+      <c r="K11" s="7" t="s">
+        <v>339</v>
+      </c>
+      <c r="L11" s="7" t="s">
         <v>340</v>
-      </c>
-      <c r="K11" s="7" t="s">
-        <v>341</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>342</v>
       </c>
       <c r="M11" s="7">
         <v>357</v>
@@ -4540,13 +4540,13 @@
         <v>296443</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>341</v>
+      </c>
+      <c r="P11" s="7" t="s">
+        <v>342</v>
+      </c>
+      <c r="Q11" s="7" t="s">
         <v>343</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>344</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>345</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4561,13 +4561,13 @@
         <v>64895</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>167</v>
+        <v>344</v>
       </c>
       <c r="F12" s="7" t="s">
+        <v>345</v>
+      </c>
+      <c r="G12" s="7" t="s">
         <v>346</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>347</v>
       </c>
       <c r="H12" s="7">
         <v>86</v>
@@ -4576,13 +4576,13 @@
         <v>52406</v>
       </c>
       <c r="J12" s="7" t="s">
+        <v>347</v>
+      </c>
+      <c r="K12" s="7" t="s">
         <v>348</v>
       </c>
-      <c r="K12" s="7" t="s">
+      <c r="L12" s="7" t="s">
         <v>349</v>
-      </c>
-      <c r="L12" s="7" t="s">
-        <v>350</v>
       </c>
       <c r="M12" s="7">
         <v>165</v>
@@ -4591,13 +4591,13 @@
         <v>117302</v>
       </c>
       <c r="O12" s="7" t="s">
+        <v>350</v>
+      </c>
+      <c r="P12" s="7" t="s">
         <v>351</v>
       </c>
-      <c r="P12" s="7" t="s">
+      <c r="Q12" s="7" t="s">
         <v>352</v>
-      </c>
-      <c r="Q12" s="7" t="s">
-        <v>353</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -4624,7 +4624,7 @@
         <v>397</v>
       </c>
       <c r="I13" s="7">
-        <v>232902</v>
+        <v>232901</v>
       </c>
       <c r="J13" s="7" t="s">
         <v>47</v>
@@ -4665,13 +4665,13 @@
         <v>6398</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>353</v>
+      </c>
+      <c r="F14" s="7" t="s">
         <v>354</v>
       </c>
-      <c r="F14" s="7" t="s">
+      <c r="G14" s="7" t="s">
         <v>355</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>356</v>
       </c>
       <c r="H14" s="7">
         <v>14</v>
@@ -4680,13 +4680,13 @@
         <v>8055</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>356</v>
+      </c>
+      <c r="K14" s="7" t="s">
         <v>357</v>
       </c>
-      <c r="K14" s="7" t="s">
+      <c r="L14" s="7" t="s">
         <v>358</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>359</v>
       </c>
       <c r="M14" s="7">
         <v>23</v>
@@ -4695,13 +4695,13 @@
         <v>14454</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>359</v>
+      </c>
+      <c r="P14" s="7" t="s">
         <v>360</v>
       </c>
-      <c r="P14" s="7" t="s">
+      <c r="Q14" s="7" t="s">
         <v>361</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>362</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4716,13 +4716,13 @@
         <v>32741</v>
       </c>
       <c r="E15" s="7" t="s">
+        <v>362</v>
+      </c>
+      <c r="F15" s="7" t="s">
         <v>363</v>
       </c>
-      <c r="F15" s="7" t="s">
+      <c r="G15" s="7" t="s">
         <v>364</v>
-      </c>
-      <c r="G15" s="7" t="s">
-        <v>126</v>
       </c>
       <c r="H15" s="7">
         <v>46</v>
@@ -4734,10 +4734,10 @@
         <v>365</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>150</v>
+        <v>366</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="M15" s="7">
         <v>85</v>
@@ -4746,13 +4746,13 @@
         <v>58475</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -4767,13 +4767,13 @@
         <v>50377</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>165</v>
+        <v>371</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>370</v>
+        <v>127</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="H16" s="7">
         <v>57</v>
@@ -4782,13 +4782,13 @@
         <v>33267</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="M16" s="7">
         <v>121</v>
@@ -4797,13 +4797,13 @@
         <v>83644</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4818,13 +4818,13 @@
         <v>31482</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>20</v>
+        <v>380</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>379</v>
+        <v>97</v>
       </c>
       <c r="H17" s="7">
         <v>33</v>
@@ -4833,13 +4833,13 @@
         <v>19715</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="M17" s="7">
         <v>70</v>
@@ -4848,7 +4848,7 @@
         <v>51197</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>383</v>
+        <v>260</v>
       </c>
       <c r="P17" s="7" t="s">
         <v>384</v>
@@ -4979,7 +4979,7 @@
         <v>396</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>397</v>
+        <v>298</v>
       </c>
       <c r="H20" s="7">
         <v>236</v>
@@ -4988,13 +4988,13 @@
         <v>131022</v>
       </c>
       <c r="J20" s="7" t="s">
+        <v>397</v>
+      </c>
+      <c r="K20" s="7" t="s">
         <v>398</v>
       </c>
-      <c r="K20" s="7" t="s">
+      <c r="L20" s="7" t="s">
         <v>399</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>400</v>
       </c>
       <c r="M20" s="7">
         <v>399</v>
@@ -5003,13 +5003,13 @@
         <v>266637</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>400</v>
+      </c>
+      <c r="P20" s="7" t="s">
         <v>401</v>
       </c>
-      <c r="P20" s="7" t="s">
+      <c r="Q20" s="7" t="s">
         <v>402</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>397</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5093,10 +5093,10 @@
         <v>415</v>
       </c>
       <c r="K22" s="7" t="s">
+        <v>382</v>
+      </c>
+      <c r="L22" s="7" t="s">
         <v>416</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>417</v>
       </c>
       <c r="M22" s="7">
         <v>307</v>
@@ -5105,7 +5105,7 @@
         <v>216872</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>294</v>
+        <v>417</v>
       </c>
       <c r="P22" s="7" t="s">
         <v>418</v>

--- a/data/trans_orig/P44C-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P44C-Estudios-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{54026050-F591-4377-B36F-904733530A62}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{E17EE1C8-C383-485E-9342-59F8776578CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{BE78F8F0-65B7-4D2B-AD6D-EA9476B50C9B}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{12401B1F-A73B-4CB0-A4A5-01E7F0A25603}"/>
   </bookViews>
   <sheets>
     <sheet name="2012" sheetId="2" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="672" uniqueCount="420">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="672" uniqueCount="421">
   <si>
     <t>Población según la persona que le recomendó realizarse la prueba de Cáncer de colon en 2012 (Tasa respuesta: 3,01%)</t>
   </si>
@@ -892,412 +892,415 @@
     <t>Población según la persona que le recomendó realizarse la prueba de Cáncer de colon en 2023 (Tasa respuesta: 17,76%)</t>
   </si>
   <si>
-    <t>1,82%</t>
-  </si>
-  <si>
-    <t>0,48%</t>
-  </si>
-  <si>
-    <t>4,08%</t>
-  </si>
-  <si>
-    <t>1,46%</t>
-  </si>
-  <si>
-    <t>0,45%</t>
-  </si>
-  <si>
-    <t>3,23%</t>
-  </si>
-  <si>
-    <t>1,62%</t>
-  </si>
-  <si>
-    <t>0,77%</t>
-  </si>
-  <si>
-    <t>3,05%</t>
-  </si>
-  <si>
-    <t>25,23%</t>
-  </si>
-  <si>
-    <t>19,44%</t>
-  </si>
-  <si>
-    <t>31,66%</t>
-  </si>
-  <si>
-    <t>22,13%</t>
-  </si>
-  <si>
-    <t>17,96%</t>
-  </si>
-  <si>
-    <t>26,82%</t>
-  </si>
-  <si>
-    <t>23,49%</t>
-  </si>
-  <si>
-    <t>20,07%</t>
-  </si>
-  <si>
-    <t>27,25%</t>
-  </si>
-  <si>
-    <t>56,13%</t>
-  </si>
-  <si>
-    <t>49,04%</t>
-  </si>
-  <si>
-    <t>63,53%</t>
-  </si>
-  <si>
-    <t>63,9%</t>
-  </si>
-  <si>
-    <t>68,88%</t>
-  </si>
-  <si>
-    <t>60,47%</t>
-  </si>
-  <si>
-    <t>56,42%</t>
-  </si>
-  <si>
-    <t>64,67%</t>
-  </si>
-  <si>
-    <t>16,82%</t>
-  </si>
-  <si>
-    <t>12,21%</t>
-  </si>
-  <si>
-    <t>23,1%</t>
-  </si>
-  <si>
-    <t>12,51%</t>
-  </si>
-  <si>
-    <t>9,05%</t>
-  </si>
-  <si>
-    <t>16,61%</t>
-  </si>
-  <si>
-    <t>14,41%</t>
-  </si>
-  <si>
-    <t>11,33%</t>
-  </si>
-  <si>
-    <t>17,78%</t>
-  </si>
-  <si>
-    <t>2,85%</t>
-  </si>
-  <si>
-    <t>1,32%</t>
-  </si>
-  <si>
-    <t>5,23%</t>
-  </si>
-  <si>
-    <t>2,68%</t>
+    <t>1,94%</t>
+  </si>
+  <si>
+    <t>0,51%</t>
+  </si>
+  <si>
+    <t>4,4%</t>
+  </si>
+  <si>
+    <t>1,54%</t>
+  </si>
+  <si>
+    <t>0,49%</t>
+  </si>
+  <si>
+    <t>3,38%</t>
+  </si>
+  <si>
+    <t>1,72%</t>
+  </si>
+  <si>
+    <t>0,84%</t>
+  </si>
+  <si>
+    <t>3,24%</t>
+  </si>
+  <si>
+    <t>26,26%</t>
+  </si>
+  <si>
+    <t>20,34%</t>
+  </si>
+  <si>
+    <t>32,82%</t>
+  </si>
+  <si>
+    <t>23,36%</t>
+  </si>
+  <si>
+    <t>18,9%</t>
+  </si>
+  <si>
+    <t>28,16%</t>
+  </si>
+  <si>
+    <t>24,68%</t>
+  </si>
+  <si>
+    <t>21,11%</t>
+  </si>
+  <si>
+    <t>28,38%</t>
+  </si>
+  <si>
+    <t>55,31%</t>
+  </si>
+  <si>
+    <t>48,17%</t>
+  </si>
+  <si>
+    <t>62,73%</t>
+  </si>
+  <si>
+    <t>62,61%</t>
+  </si>
+  <si>
+    <t>57,27%</t>
+  </si>
+  <si>
+    <t>67,66%</t>
+  </si>
+  <si>
+    <t>59,3%</t>
+  </si>
+  <si>
+    <t>55,13%</t>
+  </si>
+  <si>
+    <t>63,36%</t>
+  </si>
+  <si>
+    <t>16,49%</t>
+  </si>
+  <si>
+    <t>11,87%</t>
+  </si>
+  <si>
+    <t>12,48%</t>
+  </si>
+  <si>
+    <t>9,09%</t>
+  </si>
+  <si>
+    <t>16,65%</t>
+  </si>
+  <si>
+    <t>14,3%</t>
+  </si>
+  <si>
+    <t>11,22%</t>
+  </si>
+  <si>
+    <t>17,71%</t>
+  </si>
+  <si>
+    <t>1,76%</t>
+  </si>
+  <si>
+    <t>0,41%</t>
+  </si>
+  <si>
+    <t>4,29%</t>
+  </si>
+  <si>
+    <t>2,69%</t>
+  </si>
+  <si>
+    <t>1,28%</t>
+  </si>
+  <si>
+    <t>4,8%</t>
+  </si>
+  <si>
+    <t>2,04%</t>
+  </si>
+  <si>
+    <t>0,58%</t>
+  </si>
+  <si>
+    <t>3,59%</t>
+  </si>
+  <si>
+    <t>12,85%</t>
+  </si>
+  <si>
+    <t>3,98%</t>
+  </si>
+  <si>
+    <t>26,62%</t>
+  </si>
+  <si>
+    <t>23,52%</t>
+  </si>
+  <si>
+    <t>32,89%</t>
+  </si>
+  <si>
+    <t>17,39%</t>
+  </si>
+  <si>
+    <t>5,84%</t>
+  </si>
+  <si>
+    <t>27,61%</t>
+  </si>
+  <si>
+    <t>73,62%</t>
+  </si>
+  <si>
+    <t>46,98%</t>
+  </si>
+  <si>
+    <t>91,05%</t>
+  </si>
+  <si>
+    <t>46,94%</t>
+  </si>
+  <si>
+    <t>40,85%</t>
+  </si>
+  <si>
+    <t>51,55%</t>
+  </si>
+  <si>
+    <t>65,65%</t>
+  </si>
+  <si>
+    <t>46,57%</t>
+  </si>
+  <si>
+    <t>87,35%</t>
+  </si>
+  <si>
+    <t>11,77%</t>
+  </si>
+  <si>
+    <t>4,17%</t>
+  </si>
+  <si>
+    <t>24,46%</t>
+  </si>
+  <si>
+    <t>22,33%</t>
+  </si>
+  <si>
+    <t>18,48%</t>
+  </si>
+  <si>
+    <t>26,66%</t>
+  </si>
+  <si>
+    <t>14,92%</t>
+  </si>
+  <si>
+    <t>5,76%</t>
+  </si>
+  <si>
+    <t>23,68%</t>
+  </si>
+  <si>
+    <t>5,31%</t>
+  </si>
+  <si>
+    <t>2,27%</t>
+  </si>
+  <si>
+    <t>9,84%</t>
+  </si>
+  <si>
+    <t>9,37%</t>
+  </si>
+  <si>
+    <t>5,45%</t>
+  </si>
+  <si>
+    <t>15,0%</t>
+  </si>
+  <si>
+    <t>6,97%</t>
+  </si>
+  <si>
+    <t>4,13%</t>
+  </si>
+  <si>
+    <t>10,15%</t>
+  </si>
+  <si>
+    <t>27,81%</t>
+  </si>
+  <si>
+    <t>20,49%</t>
+  </si>
+  <si>
+    <t>35,95%</t>
+  </si>
+  <si>
+    <t>30,35%</t>
+  </si>
+  <si>
+    <t>23,66%</t>
+  </si>
+  <si>
+    <t>38,29%</t>
+  </si>
+  <si>
+    <t>28,85%</t>
+  </si>
+  <si>
+    <t>24,01%</t>
+  </si>
+  <si>
+    <t>34,93%</t>
+  </si>
+  <si>
+    <t>41,93%</t>
+  </si>
+  <si>
+    <t>33,74%</t>
+  </si>
+  <si>
+    <t>49,68%</t>
+  </si>
+  <si>
+    <t>38,21%</t>
+  </si>
+  <si>
+    <t>30,49%</t>
+  </si>
+  <si>
+    <t>46,58%</t>
+  </si>
+  <si>
+    <t>40,41%</t>
+  </si>
+  <si>
+    <t>34,08%</t>
+  </si>
+  <si>
+    <t>46,04%</t>
+  </si>
+  <si>
+    <t>24,94%</t>
+  </si>
+  <si>
+    <t>18,19%</t>
+  </si>
+  <si>
+    <t>32,17%</t>
+  </si>
+  <si>
+    <t>22,07%</t>
+  </si>
+  <si>
+    <t>15,74%</t>
+  </si>
+  <si>
+    <t>29,4%</t>
+  </si>
+  <si>
+    <t>23,76%</t>
+  </si>
+  <si>
+    <t>18,86%</t>
+  </si>
+  <si>
+    <t>29,9%</t>
+  </si>
+  <si>
+    <t>4,05%</t>
+  </si>
+  <si>
+    <t>3,43%</t>
+  </si>
+  <si>
+    <t>2,34%</t>
+  </si>
+  <si>
+    <t>4,88%</t>
+  </si>
+  <si>
+    <t>2,75%</t>
   </si>
   <si>
     <t>1,27%</t>
   </si>
   <si>
-    <t>4,75%</t>
-  </si>
-  <si>
-    <t>2,78%</t>
-  </si>
-  <si>
-    <t>1,63%</t>
-  </si>
-  <si>
-    <t>4,29%</t>
-  </si>
-  <si>
-    <t>20,13%</t>
-  </si>
-  <si>
-    <t>12,53%</t>
-  </si>
-  <si>
-    <t>26,14%</t>
-  </si>
-  <si>
-    <t>22,94%</t>
-  </si>
-  <si>
-    <t>32,07%</t>
-  </si>
-  <si>
-    <t>23,15%</t>
-  </si>
-  <si>
-    <t>16,62%</t>
-  </si>
-  <si>
-    <t>27,2%</t>
-  </si>
-  <si>
-    <t>57,09%</t>
-  </si>
-  <si>
-    <t>74,38%</t>
-  </si>
-  <si>
-    <t>47,45%</t>
-  </si>
-  <si>
-    <t>41,23%</t>
-  </si>
-  <si>
-    <t>51,99%</t>
-  </si>
-  <si>
-    <t>53,07%</t>
-  </si>
-  <si>
-    <t>46,91%</t>
-  </si>
-  <si>
-    <t>67,36%</t>
-  </si>
-  <si>
-    <t>19,93%</t>
-  </si>
-  <si>
-    <t>12,28%</t>
-  </si>
-  <si>
-    <t>25,88%</t>
-  </si>
-  <si>
-    <t>22,5%</t>
-  </si>
-  <si>
-    <t>18,68%</t>
-  </si>
-  <si>
-    <t>26,85%</t>
-  </si>
-  <si>
-    <t>21,0%</t>
-  </si>
-  <si>
-    <t>14,9%</t>
-  </si>
-  <si>
-    <t>24,7%</t>
-  </si>
-  <si>
-    <t>5,29%</t>
-  </si>
-  <si>
-    <t>2,26%</t>
-  </si>
-  <si>
-    <t>9,83%</t>
-  </si>
-  <si>
-    <t>9,28%</t>
-  </si>
-  <si>
-    <t>5,4%</t>
-  </si>
-  <si>
-    <t>15,0%</t>
-  </si>
-  <si>
-    <t>6,96%</t>
-  </si>
-  <si>
-    <t>4,13%</t>
-  </si>
-  <si>
-    <t>10,16%</t>
-  </si>
-  <si>
-    <t>27,06%</t>
-  </si>
-  <si>
-    <t>19,84%</t>
-  </si>
-  <si>
-    <t>35,13%</t>
-  </si>
-  <si>
-    <t>29,66%</t>
-  </si>
-  <si>
-    <t>23,02%</t>
-  </si>
-  <si>
-    <t>37,53%</t>
-  </si>
-  <si>
-    <t>28,14%</t>
-  </si>
-  <si>
-    <t>23,54%</t>
-  </si>
-  <si>
-    <t>34,32%</t>
-  </si>
-  <si>
-    <t>41,63%</t>
-  </si>
-  <si>
-    <t>49,55%</t>
-  </si>
-  <si>
-    <t>38,34%</t>
-  </si>
-  <si>
-    <t>30,53%</t>
-  </si>
-  <si>
-    <t>46,97%</t>
-  </si>
-  <si>
-    <t>40,26%</t>
-  </si>
-  <si>
-    <t>33,83%</t>
-  </si>
-  <si>
-    <t>45,93%</t>
-  </si>
-  <si>
-    <t>26,02%</t>
-  </si>
-  <si>
-    <t>19,12%</t>
-  </si>
-  <si>
-    <t>22,72%</t>
-  </si>
-  <si>
-    <t>16,17%</t>
-  </si>
-  <si>
-    <t>30,09%</t>
-  </si>
-  <si>
-    <t>19,62%</t>
-  </si>
-  <si>
-    <t>31,24%</t>
-  </si>
-  <si>
-    <t>3,09%</t>
-  </si>
-  <si>
-    <t>1,78%</t>
-  </si>
-  <si>
-    <t>4,71%</t>
-  </si>
-  <si>
-    <t>3,36%</t>
-  </si>
-  <si>
-    <t>2,29%</t>
-  </si>
-  <si>
-    <t>4,79%</t>
-  </si>
-  <si>
-    <t>3,21%</t>
-  </si>
-  <si>
-    <t>2,34%</t>
-  </si>
-  <si>
-    <t>4,22%</t>
-  </si>
-  <si>
-    <t>22,81%</t>
-  </si>
-  <si>
-    <t>17,14%</t>
-  </si>
-  <si>
-    <t>25,82%</t>
-  </si>
-  <si>
-    <t>22,87%</t>
-  </si>
-  <si>
-    <t>28,97%</t>
-  </si>
-  <si>
-    <t>24,19%</t>
-  </si>
-  <si>
-    <t>20,53%</t>
-  </si>
-  <si>
-    <t>26,68%</t>
-  </si>
-  <si>
-    <t>53,71%</t>
-  </si>
-  <si>
-    <t>47,93%</t>
-  </si>
-  <si>
-    <t>66,38%</t>
-  </si>
-  <si>
-    <t>51,98%</t>
-  </si>
-  <si>
-    <t>48,58%</t>
-  </si>
-  <si>
-    <t>55,2%</t>
-  </si>
-  <si>
-    <t>52,91%</t>
-  </si>
-  <si>
-    <t>49,62%</t>
-  </si>
-  <si>
-    <t>60,43%</t>
-  </si>
-  <si>
-    <t>20,39%</t>
-  </si>
-  <si>
-    <t>15,13%</t>
-  </si>
-  <si>
-    <t>23,97%</t>
-  </si>
-  <si>
-    <t>18,84%</t>
-  </si>
-  <si>
-    <t>21,6%</t>
-  </si>
-  <si>
-    <t>19,68%</t>
-  </si>
-  <si>
-    <t>16,57%</t>
-  </si>
-  <si>
-    <t>22,02%</t>
+    <t>3,81%</t>
+  </si>
+  <si>
+    <t>17,58%</t>
+  </si>
+  <si>
+    <t>27,17%</t>
+  </si>
+  <si>
+    <t>26,75%</t>
+  </si>
+  <si>
+    <t>23,79%</t>
+  </si>
+  <si>
+    <t>29,98%</t>
+  </si>
+  <si>
+    <t>11,76%</t>
+  </si>
+  <si>
+    <t>27,13%</t>
+  </si>
+  <si>
+    <t>65,45%</t>
+  </si>
+  <si>
+    <t>47,76%</t>
+  </si>
+  <si>
+    <t>85,16%</t>
+  </si>
+  <si>
+    <t>51,08%</t>
+  </si>
+  <si>
+    <t>47,75%</t>
+  </si>
+  <si>
+    <t>54,28%</t>
+  </si>
+  <si>
+    <t>49,16%</t>
+  </si>
+  <si>
+    <t>78,53%</t>
+  </si>
+  <si>
+    <t>14,64%</t>
+  </si>
+  <si>
+    <t>6,41%</t>
+  </si>
+  <si>
+    <t>22,57%</t>
+  </si>
+  <si>
+    <t>18,73%</t>
+  </si>
+  <si>
+    <t>16,07%</t>
+  </si>
+  <si>
+    <t>21,49%</t>
+  </si>
+  <si>
+    <t>16,18%</t>
+  </si>
+  <si>
+    <t>8,34%</t>
+  </si>
+  <si>
+    <t>20,91%</t>
   </si>
 </sst>
 </file>
@@ -1709,7 +1712,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{43E8D105-7DA0-4D1F-8E52-E6C8B4EC805D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A10260FC-1FB7-4F27-8F79-B73A72D2C8EA}">
   <dimension ref="A1:Q24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2868,7 +2871,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0B92309C-3E6C-44D4-9264-B36B41081BEC}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DF30C74B-8B65-4D7B-86D3-CF343FF3356B}">
   <dimension ref="A1:Q24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4027,7 +4030,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0E7622CA-33FF-493E-A3C5-DB6C0F250EE2}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3ECB55E3-079E-49BB-8CAE-07059E815E4A}">
   <dimension ref="A1:Q24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4148,7 +4151,7 @@
         <v>4</v>
       </c>
       <c r="D4" s="7">
-        <v>2698</v>
+        <v>2681</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>284</v>
@@ -4163,7 +4166,7 @@
         <v>5</v>
       </c>
       <c r="I4" s="7">
-        <v>2749</v>
+        <v>2564</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>287</v>
@@ -4178,7 +4181,7 @@
         <v>9</v>
       </c>
       <c r="N4" s="7">
-        <v>5447</v>
+        <v>5245</v>
       </c>
       <c r="O4" s="7" t="s">
         <v>290</v>
@@ -4199,7 +4202,7 @@
         <v>49</v>
       </c>
       <c r="D5" s="7">
-        <v>37329</v>
+        <v>36256</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>293</v>
@@ -4214,7 +4217,7 @@
         <v>78</v>
       </c>
       <c r="I5" s="7">
-        <v>41543</v>
+        <v>38825</v>
       </c>
       <c r="J5" s="7" t="s">
         <v>296</v>
@@ -4229,7 +4232,7 @@
         <v>127</v>
       </c>
       <c r="N5" s="7">
-        <v>78872</v>
+        <v>75081</v>
       </c>
       <c r="O5" s="7" t="s">
         <v>299</v>
@@ -4250,7 +4253,7 @@
         <v>115</v>
       </c>
       <c r="D6" s="7">
-        <v>83056</v>
+        <v>76351</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>302</v>
@@ -4265,31 +4268,31 @@
         <v>198</v>
       </c>
       <c r="I6" s="7">
-        <v>119968</v>
+        <v>104063</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>305</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>204</v>
+        <v>306</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="M6" s="7">
         <v>313</v>
       </c>
       <c r="N6" s="7">
-        <v>203024</v>
+        <v>180414</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -4301,22 +4304,22 @@
         <v>33</v>
       </c>
       <c r="D7" s="7">
-        <v>24892</v>
+        <v>22764</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>312</v>
+        <v>208</v>
       </c>
       <c r="H7" s="7">
         <v>39</v>
       </c>
       <c r="I7" s="7">
-        <v>23482</v>
+        <v>20746</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>313</v>
@@ -4331,7 +4334,7 @@
         <v>72</v>
       </c>
       <c r="N7" s="7">
-        <v>48374</v>
+        <v>43510</v>
       </c>
       <c r="O7" s="7" t="s">
         <v>316</v>
@@ -4352,7 +4355,7 @@
         <v>201</v>
       </c>
       <c r="D8" s="7">
-        <v>147976</v>
+        <v>138052</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>47</v>
@@ -4367,7 +4370,7 @@
         <v>320</v>
       </c>
       <c r="I8" s="7">
-        <v>187742</v>
+        <v>166197</v>
       </c>
       <c r="J8" s="7" t="s">
         <v>47</v>
@@ -4382,7 +4385,7 @@
         <v>521</v>
       </c>
       <c r="N8" s="7">
-        <v>335717</v>
+        <v>304250</v>
       </c>
       <c r="O8" s="7" t="s">
         <v>47</v>
@@ -4405,7 +4408,7 @@
         <v>11</v>
       </c>
       <c r="D9" s="7">
-        <v>9282</v>
+        <v>8845</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>319</v>
@@ -4420,7 +4423,7 @@
         <v>10</v>
       </c>
       <c r="I9" s="7">
-        <v>6232</v>
+        <v>5755</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>322</v>
@@ -4435,7 +4438,7 @@
         <v>21</v>
       </c>
       <c r="N9" s="7">
-        <v>15514</v>
+        <v>14599</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>325</v>
@@ -4456,7 +4459,7 @@
         <v>75</v>
       </c>
       <c r="D10" s="7">
-        <v>65545</v>
+        <v>64672</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>328</v>
@@ -4471,10 +4474,10 @@
         <v>112</v>
       </c>
       <c r="I10" s="7">
-        <v>63745</v>
+        <v>60035</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>23</v>
+        <v>162</v>
       </c>
       <c r="K10" s="7" t="s">
         <v>331</v>
@@ -4486,7 +4489,7 @@
         <v>187</v>
       </c>
       <c r="N10" s="7">
-        <v>129290</v>
+        <v>124706</v>
       </c>
       <c r="O10" s="7" t="s">
         <v>333</v>
@@ -4507,46 +4510,46 @@
         <v>168</v>
       </c>
       <c r="D11" s="7">
-        <v>185925</v>
+        <v>370379</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>336</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>32</v>
+        <v>337</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="H11" s="7">
         <v>189</v>
       </c>
       <c r="I11" s="7">
-        <v>110518</v>
+        <v>100483</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="M11" s="7">
         <v>357</v>
       </c>
       <c r="N11" s="7">
-        <v>296443</v>
+        <v>470862</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4558,46 +4561,46 @@
         <v>79</v>
       </c>
       <c r="D12" s="7">
-        <v>64895</v>
+        <v>59201</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="H12" s="7">
         <v>86</v>
       </c>
       <c r="I12" s="7">
-        <v>52406</v>
+        <v>47817</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="M12" s="7">
         <v>165</v>
       </c>
       <c r="N12" s="7">
-        <v>117302</v>
+        <v>107018</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -4609,7 +4612,7 @@
         <v>333</v>
       </c>
       <c r="D13" s="7">
-        <v>325647</v>
+        <v>503097</v>
       </c>
       <c r="E13" s="7" t="s">
         <v>47</v>
@@ -4624,7 +4627,7 @@
         <v>397</v>
       </c>
       <c r="I13" s="7">
-        <v>232901</v>
+        <v>214089</v>
       </c>
       <c r="J13" s="7" t="s">
         <v>47</v>
@@ -4639,7 +4642,7 @@
         <v>730</v>
       </c>
       <c r="N13" s="7">
-        <v>558549</v>
+        <v>717186</v>
       </c>
       <c r="O13" s="7" t="s">
         <v>47</v>
@@ -4662,46 +4665,46 @@
         <v>9</v>
       </c>
       <c r="D14" s="7">
-        <v>6398</v>
+        <v>6120</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="H14" s="7">
         <v>14</v>
       </c>
       <c r="I14" s="7">
-        <v>8055</v>
+        <v>7484</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="M14" s="7">
         <v>23</v>
       </c>
       <c r="N14" s="7">
-        <v>14454</v>
+        <v>13604</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4713,46 +4716,46 @@
         <v>39</v>
       </c>
       <c r="D15" s="7">
-        <v>32741</v>
+        <v>32049</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="H15" s="7">
         <v>46</v>
       </c>
       <c r="I15" s="7">
-        <v>25733</v>
+        <v>24257</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="M15" s="7">
         <v>85</v>
       </c>
       <c r="N15" s="7">
-        <v>58475</v>
+        <v>56306</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -4764,46 +4767,46 @@
         <v>64</v>
       </c>
       <c r="D16" s="7">
-        <v>50377</v>
+        <v>48320</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>127</v>
+        <v>373</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>372</v>
+        <v>374</v>
       </c>
       <c r="H16" s="7">
         <v>57</v>
       </c>
       <c r="I16" s="7">
-        <v>33267</v>
+        <v>30538</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>374</v>
+        <v>376</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>375</v>
+        <v>377</v>
       </c>
       <c r="M16" s="7">
         <v>121</v>
       </c>
       <c r="N16" s="7">
-        <v>83644</v>
+        <v>78858</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>376</v>
+        <v>378</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>377</v>
+        <v>379</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>378</v>
+        <v>380</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4815,46 +4818,46 @@
         <v>37</v>
       </c>
       <c r="D17" s="7">
-        <v>31482</v>
+        <v>28739</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>379</v>
+        <v>381</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>380</v>
+        <v>382</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>97</v>
+        <v>383</v>
       </c>
       <c r="H17" s="7">
         <v>33</v>
       </c>
       <c r="I17" s="7">
-        <v>19715</v>
+        <v>17637</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>381</v>
+        <v>384</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>382</v>
+        <v>385</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>383</v>
+        <v>386</v>
       </c>
       <c r="M17" s="7">
         <v>70</v>
       </c>
       <c r="N17" s="7">
-        <v>51197</v>
+        <v>46376</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>260</v>
+        <v>387</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>384</v>
+        <v>388</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>385</v>
+        <v>389</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4866,7 +4869,7 @@
         <v>149</v>
       </c>
       <c r="D18" s="7">
-        <v>120999</v>
+        <v>115228</v>
       </c>
       <c r="E18" s="7" t="s">
         <v>47</v>
@@ -4881,7 +4884,7 @@
         <v>150</v>
       </c>
       <c r="I18" s="7">
-        <v>86771</v>
+        <v>79917</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>47</v>
@@ -4896,7 +4899,7 @@
         <v>299</v>
       </c>
       <c r="N18" s="7">
-        <v>207770</v>
+        <v>195144</v>
       </c>
       <c r="O18" s="7" t="s">
         <v>47</v>
@@ -4919,46 +4922,46 @@
         <v>24</v>
       </c>
       <c r="D19" s="7">
-        <v>18379</v>
+        <v>17646</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>386</v>
+        <v>122</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>387</v>
+        <v>326</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>388</v>
+        <v>390</v>
       </c>
       <c r="H19" s="7">
         <v>29</v>
       </c>
       <c r="I19" s="7">
-        <v>17036</v>
+        <v>15803</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>389</v>
+        <v>391</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>390</v>
+        <v>392</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>391</v>
+        <v>393</v>
       </c>
       <c r="M19" s="7">
         <v>53</v>
       </c>
       <c r="N19" s="7">
-        <v>35415</v>
+        <v>33449</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>392</v>
+        <v>394</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>393</v>
+        <v>395</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>394</v>
+        <v>396</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4970,46 +4973,46 @@
         <v>163</v>
       </c>
       <c r="D20" s="7">
-        <v>135616</v>
+        <v>132977</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>395</v>
+        <v>397</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>396</v>
+        <v>218</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>298</v>
+        <v>398</v>
       </c>
       <c r="H20" s="7">
         <v>236</v>
       </c>
       <c r="I20" s="7">
-        <v>131022</v>
+        <v>123117</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>397</v>
+        <v>399</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>398</v>
+        <v>400</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>399</v>
+        <v>401</v>
       </c>
       <c r="M20" s="7">
         <v>399</v>
       </c>
       <c r="N20" s="7">
-        <v>266637</v>
+        <v>256093</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>400</v>
+        <v>144</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5021,40 +5024,40 @@
         <v>347</v>
       </c>
       <c r="D21" s="7">
-        <v>319358</v>
+        <v>495051</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="H21" s="7">
         <v>444</v>
       </c>
       <c r="I21" s="7">
-        <v>263753</v>
+        <v>235084</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="M21" s="7">
         <v>791</v>
       </c>
       <c r="N21" s="7">
-        <v>583112</v>
+        <v>730134</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>409</v>
+        <v>237</v>
       </c>
       <c r="P21" s="7" t="s">
         <v>410</v>
@@ -5072,7 +5075,7 @@
         <v>149</v>
       </c>
       <c r="D22" s="7">
-        <v>121269</v>
+        <v>110704</v>
       </c>
       <c r="E22" s="7" t="s">
         <v>412</v>
@@ -5087,31 +5090,31 @@
         <v>158</v>
       </c>
       <c r="I22" s="7">
-        <v>95603</v>
+        <v>86199</v>
       </c>
       <c r="J22" s="7" t="s">
         <v>415</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>382</v>
+        <v>416</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="M22" s="7">
         <v>307</v>
       </c>
       <c r="N22" s="7">
-        <v>216872</v>
+        <v>196903</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -5123,7 +5126,7 @@
         <v>683</v>
       </c>
       <c r="D23" s="7">
-        <v>594622</v>
+        <v>756377</v>
       </c>
       <c r="E23" s="7" t="s">
         <v>47</v>
@@ -5138,7 +5141,7 @@
         <v>867</v>
       </c>
       <c r="I23" s="7">
-        <v>507414</v>
+        <v>460203</v>
       </c>
       <c r="J23" s="7" t="s">
         <v>47</v>
@@ -5153,7 +5156,7 @@
         <v>1550</v>
       </c>
       <c r="N23" s="7">
-        <v>1102036</v>
+        <v>1216580</v>
       </c>
       <c r="O23" s="7" t="s">
         <v>47</v>
